--- a/run_merged.xlsx
+++ b/run_merged.xlsx
@@ -599,10 +599,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -706,25 +706,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9.843431739102003</v>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>110.4230247487018</v>
       </c>
       <c r="F4" t="n">
-        <v>2500</v>
+        <v>2494.274134427539</v>
       </c>
       <c r="G4" t="n">
-        <v>450000</v>
+        <v>448986.8155769293</v>
       </c>
       <c r="H4" t="n">
-        <v>450000</v>
+        <v>458055.8918678621</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -736,58 +736,58 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.931436634837287</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7858539366638007</v>
+        <v>5.466311500889892</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>102.068199064828</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.89817714692128</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>62.27087628193496</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>783.0681516867006</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>4.829613781758567</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7858539366638007</v>
+        <v>67.73718778282486</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>885.1363507515287</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.008161764201742479</v>
+        <v>8.203797569607779</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.04599582198174769</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.002448529260522744</v>
+        <v>0.05201209937397393</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2.285094018068153</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>3.671538334588626</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.03978649334265045</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.033259487916006</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7858539366638007</v>
+        <v>-56.80456478104507</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-680.9999526218726</v>
       </c>
     </row>
     <row r="5">
@@ -813,106 +813,106 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D5" t="n">
-        <v>9.952012308474941</v>
+        <v>9.942011308667622</v>
       </c>
       <c r="E5" t="n">
+        <v>107.785423501005</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2525.940549833143</v>
+      </c>
+      <c r="G5" t="n">
+        <v>444809.605989003</v>
+      </c>
+      <c r="H5" t="n">
+        <v>464119.0661821073</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-2012.462876451146</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-1721.965564482371</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.589410308288805</v>
+      </c>
+      <c r="M5" t="n">
+        <v>30.73741338141055</v>
+      </c>
+      <c r="N5" t="n">
+        <v>47.15479178148505</v>
+      </c>
+      <c r="O5" t="n">
+        <v>5.484848482906291</v>
+      </c>
+      <c r="P5" t="n">
+        <v>66.37648065983632</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1360.247935740992</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8.946929884579498</v>
+      </c>
+      <c r="S5" t="n">
+        <v>97.11389404124687</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1475.90791571263</v>
+      </c>
+      <c r="U5" t="n">
+        <v>60</v>
+      </c>
+      <c r="V5" t="n">
         <v>110</v>
       </c>
-      <c r="F5" t="n">
-        <v>2507.221595856023</v>
-      </c>
-      <c r="G5" t="n">
-        <v>451126.8423264105</v>
-      </c>
-      <c r="H5" t="n">
-        <v>449845.8003643745</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7858539366638007</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4.716014480118543</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.7858539366638007</v>
-      </c>
-      <c r="T5" t="n">
-        <v>4.716014480118543</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>2</v>
       </c>
-      <c r="V5" t="n">
-        <v>3</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>0.03918773730027794</v>
+        <v>10.81915380917432</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.003171883362531667</v>
+        <v>0.102318612570884</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.002448529260522744</v>
+        <v>0.3013203673320758</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.001546299491078141</v>
+        <v>2.684507799450118</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.003059156421594817</v>
+        <v>143.777180704244</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.001530452654356013</v>
+        <v>0.07650324636746274</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>-12.62026419557878</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>-93.58071500868573</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>-2900.940533800289</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>-2.895438174617486</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7858539366638007</v>
+        <v>-35.63906727842576</v>
       </c>
       <c r="AI5" t="n">
-        <v>-4.716014480118543</v>
+        <v>-1313.093143959507</v>
       </c>
     </row>
     <row r="6">
@@ -920,106 +920,106 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>9.927592572308125</v>
+        <v>10.05022961790274</v>
       </c>
       <c r="E6" t="n">
-        <v>110.2938377365662</v>
+        <v>106.25916709291</v>
       </c>
       <c r="F6" t="n">
-        <v>2507.221595856023</v>
+        <v>2568.52343292099</v>
       </c>
       <c r="G6" t="n">
-        <v>451126.8423264105</v>
+        <v>442871.7471257386</v>
       </c>
       <c r="H6" t="n">
-        <v>449845.8003643745</v>
+        <v>461425.2066577948</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-3095.877295170013</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>259.3289928985826</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-1721.965564482371</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2.189704360352939</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7858539366638007</v>
+        <v>39.0405740109759</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>105.0525011273568</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5.983900121506616</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03797181152499512</v>
+        <v>66.41699459038543</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.36555975972203</v>
+        <v>2046.00165750179</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>10.04404965941407</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8238257481887957</v>
+        <v>120.4628439167821</v>
       </c>
       <c r="T6" t="n">
-        <v>23.36555975972203</v>
+        <v>2234.018896622646</v>
       </c>
       <c r="U6" t="n">
+        <v>90</v>
+      </c>
+      <c r="V6" t="n">
+        <v>157</v>
+      </c>
+      <c r="W6" t="n">
         <v>4</v>
       </c>
-      <c r="V6" t="n">
-        <v>4</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0.04974599627813001</v>
+        <v>16.43118209328781</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.004754654151732103</v>
+        <v>0.1308258170780313</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.004033236164677929</v>
+        <v>0.4055248035010051</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.001546299491078141</v>
+        <v>4.13367101945432</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.003059156421594817</v>
+        <v>163.1782563174273</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001530452654356013</v>
+        <v>0.1026203611758296</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>-867.3593302340689</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>-661.4007412496794</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>49.67523239241382</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>-3.794195761153676</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.7478821251388056</v>
+        <v>-27.37642057940951</v>
       </c>
       <c r="AI6" t="n">
-        <v>-23.36555975972203</v>
+        <v>-1940.949156374433</v>
       </c>
     </row>
     <row r="7">
@@ -1027,106 +1027,106 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>9.927592572308125</v>
+        <v>10.10135946723163</v>
       </c>
       <c r="E7" t="n">
-        <v>110.2938377365662</v>
+        <v>106.3904613494421</v>
       </c>
       <c r="F7" t="n">
-        <v>2507.221595856023</v>
+        <v>2546.581379893723</v>
       </c>
       <c r="G7" t="n">
-        <v>451134.8114145231</v>
+        <v>452287.0273109827</v>
       </c>
       <c r="H7" t="n">
-        <v>449837.8286230432</v>
+        <v>459194.8068929985</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>-9635.689263280612</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>259.3289928985826</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-3718.050808810182</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.764066137137765</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7858539366638007</v>
+        <v>33.47406905113493</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>78.92682346694185</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007400726221988298</v>
+        <v>7.855301347484646</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03797181152499512</v>
+        <v>65.65101806600609</v>
       </c>
       <c r="Q7" t="n">
-        <v>24.40625446512856</v>
+        <v>2435.415860391921</v>
       </c>
       <c r="R7" t="n">
-        <v>0.007400726221988298</v>
+        <v>12.56252775912194</v>
       </c>
       <c r="S7" t="n">
-        <v>0.8238257481887957</v>
+        <v>127.2383216092635</v>
       </c>
       <c r="T7" t="n">
-        <v>24.40625446512856</v>
+        <v>2630.002663830502</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>126</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>201</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0599401107625509</v>
+        <v>17.87954950956315</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004754654151732103</v>
+        <v>0.1566877471516216</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.004033236164677929</v>
+        <v>0.4841660481112962</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001546299491078141</v>
+        <v>4.381801668863203</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.004580477483712365</v>
+        <v>1211.257343797968</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.003067365937564734</v>
+        <v>0.148730520534753</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>3630.229544165223</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>924.6964557047195</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>-373.4566227445665</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-6.091235210346881</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.7478821251388056</v>
+        <v>-32.17694901487113</v>
       </c>
       <c r="AI7" t="n">
-        <v>-24.40625446512856</v>
+        <v>-2356.489036924979</v>
       </c>
     </row>
     <row r="8">
@@ -1134,106 +1134,106 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>9.923021202883046</v>
+        <v>10.21484236709439</v>
       </c>
       <c r="E8" t="n">
-        <v>110.3498261031847</v>
+        <v>108.0793671982812</v>
       </c>
       <c r="F8" t="n">
-        <v>2507.221595856023</v>
+        <v>2593.760383723056</v>
       </c>
       <c r="G8" t="n">
-        <v>451134.8114145231</v>
+        <v>442397.6329939531</v>
       </c>
       <c r="H8" t="n">
-        <v>449837.8286230432</v>
+        <v>447613.9569775097</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>-6012.931670070925</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>5249.947262972824</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-3718.050808810182</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.713094314362787</v>
       </c>
       <c r="M8" t="n">
-        <v>0.7858539366638007</v>
+        <v>29.54887087876645</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>186.3044255197823</v>
       </c>
       <c r="O8" t="n">
-        <v>0.007400726221988298</v>
+        <v>6.958050346438795</v>
       </c>
       <c r="P8" t="n">
-        <v>0.03797181152499512</v>
+        <v>67.98320423136924</v>
       </c>
       <c r="Q8" t="n">
-        <v>24.40625446512856</v>
+        <v>2262.812606146733</v>
       </c>
       <c r="R8" t="n">
-        <v>0.007400726221988298</v>
+        <v>13.86518062543241</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8238257481887957</v>
+        <v>138.5529129656768</v>
       </c>
       <c r="T8" t="n">
-        <v>24.40625446512856</v>
+        <v>2771.715841651383</v>
       </c>
       <c r="U8" t="n">
-        <v>6</v>
+        <v>167</v>
       </c>
       <c r="V8" t="n">
-        <v>6</v>
+        <v>241</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0705702789282852</v>
+        <v>33.51033108715487</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.006330745892397074</v>
+        <v>0.1833197333906917</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.005646194873733246</v>
+        <v>0.584731725660023</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.001546299491078141</v>
+        <v>8.283409825216118</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.004580477483712365</v>
+        <v>2180.834115005642</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.003067365937564734</v>
+        <v>0.1803418248428608</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>-158.8794166822954</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-324.0861077667383</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>-2164.183454705832</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-5.24495603207601</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.7478821251388056</v>
+        <v>-38.43433335260275</v>
       </c>
       <c r="AI8" t="n">
-        <v>-24.40625446512856</v>
+        <v>-2076.508180626951</v>
       </c>
     </row>
     <row r="9">
@@ -1241,106 +1241,106 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D9" t="n">
-        <v>9.923804706719947</v>
+        <v>10.35448846930852</v>
       </c>
       <c r="E9" t="n">
-        <v>109.6954693175245</v>
+        <v>111.8644816397852</v>
       </c>
       <c r="F9" t="n">
-        <v>2524.743633547097</v>
+        <v>2577.316304354341</v>
       </c>
       <c r="G9" t="n">
-        <v>451134.8114145231</v>
+        <v>432335.5204872603</v>
       </c>
       <c r="H9" t="n">
-        <v>449804.923651695</v>
+        <v>427840.2274599742</v>
       </c>
       <c r="I9" t="n">
-        <v>-424.0557340696678</v>
+        <v>8152.050702452073</v>
       </c>
       <c r="J9" t="n">
-        <v>-424.0557340696678</v>
+        <v>17419.57836276784</v>
       </c>
       <c r="K9" t="n">
-        <v>-424.0557340696678</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.089887349714714</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54681361258973</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>287.1884855745684</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007400726221988298</v>
+        <v>6.511720479073131</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03797181152499512</v>
+        <v>76.15855100726436</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.40625446512856</v>
+        <v>1854.925977779084</v>
       </c>
       <c r="R9" t="n">
-        <v>0.007400726221988298</v>
+        <v>15.68906678184133</v>
       </c>
       <c r="S9" t="n">
-        <v>0.8238257481887957</v>
+        <v>147.1344992003613</v>
       </c>
       <c r="T9" t="n">
-        <v>24.40625446512856</v>
+        <v>3147.872351327647</v>
       </c>
       <c r="U9" t="n">
-        <v>7</v>
+        <v>201</v>
       </c>
       <c r="V9" t="n">
-        <v>8</v>
+        <v>278</v>
       </c>
       <c r="W9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="X9" t="n">
-        <v>0.09965899571287148</v>
+        <v>277.5893643532232</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.00790196168402147</v>
+        <v>0.2069790186326892</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.009339395665117078</v>
+        <v>0.6541673233208515</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.003327373817330791</v>
+        <v>79.31619651087459</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.004580477483712365</v>
+        <v>2333.976169942221</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.240641237970606</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>-265.2154448024653</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>10071.4188051418</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>-920.3318799055849</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0.007400726221988298</v>
+        <v>-4.421833129358419</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.03797181152499512</v>
+        <v>-63.61173739467461</v>
       </c>
       <c r="AI9" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1567.737492204516</v>
       </c>
     </row>
     <row r="10">
@@ -1348,106 +1348,106 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D10" t="n">
-        <v>9.923804706719947</v>
+        <v>10.44817209199018</v>
       </c>
       <c r="E10" t="n">
-        <v>109.2148018306021</v>
+        <v>113.9202034035437</v>
       </c>
       <c r="F10" t="n">
-        <v>2524.743633547097</v>
+        <v>2591.580975062121</v>
       </c>
       <c r="G10" t="n">
-        <v>452626.9081982066</v>
+        <v>415009.4351793636</v>
       </c>
       <c r="H10" t="n">
-        <v>449804.923651695</v>
+        <v>423264.6915800727</v>
       </c>
       <c r="I10" t="n">
-        <v>-424.0557340696678</v>
+        <v>17565.85311104178</v>
       </c>
       <c r="J10" t="n">
-        <v>-424.0557340696678</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K10" t="n">
-        <v>-424.0557340696678</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.357086327169701</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>15.72003093829028</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>305.850414620586</v>
       </c>
       <c r="O10" t="n">
-        <v>0.008905804457888288</v>
+        <v>6.758998085571286</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03797181152499512</v>
+        <v>58.45045275006646</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.40625446512856</v>
+        <v>2188.60291486007</v>
       </c>
       <c r="R10" t="n">
-        <v>0.008905804457888288</v>
+        <v>16.66954341224413</v>
       </c>
       <c r="S10" t="n">
-        <v>0.8238257481887957</v>
+        <v>153.5516587831245</v>
       </c>
       <c r="T10" t="n">
-        <v>24.40625446512856</v>
+        <v>3683.993137493906</v>
       </c>
       <c r="U10" t="n">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="V10" t="n">
-        <v>9</v>
+        <v>307</v>
       </c>
       <c r="W10" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>0.1083945960163406</v>
+        <v>286.9163752882691</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.00790196168402147</v>
+        <v>0.2218130893040787</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01057084028497358</v>
+        <v>0.7145310406459426</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.003327373817330791</v>
+        <v>81.44903252169857</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.005969712954896607</v>
+        <v>2684.553171994336</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.273021651157655</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>-3968.739298500612</v>
       </c>
       <c r="AE10" t="n">
-        <v>-24.80589667011246</v>
+        <v>-97.91971751881113</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>-8161.233355277975</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.008905804457888288</v>
+        <v>-4.401911758401586</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.03797181152499512</v>
+        <v>-42.73042181177615</v>
       </c>
       <c r="AI10" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1882.752500239483</v>
       </c>
     </row>
     <row r="11">
@@ -1455,106 +1455,106 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D11" t="n">
-        <v>9.932803303958034</v>
+        <v>10.46532787138565</v>
       </c>
       <c r="E11" t="n">
-        <v>109.2148018306021</v>
+        <v>114.179819450169</v>
       </c>
       <c r="F11" t="n">
-        <v>2524.743633547097</v>
+        <v>2600.533046284677</v>
       </c>
       <c r="G11" t="n">
-        <v>452223.09562382</v>
+        <v>410133.7147020829</v>
       </c>
       <c r="H11" t="n">
-        <v>449804.923651695</v>
+        <v>419580.4683955502</v>
       </c>
       <c r="I11" t="n">
-        <v>-395.6162909681527</v>
+        <v>23279.34220534558</v>
       </c>
       <c r="J11" t="n">
-        <v>-395.6162909681527</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K11" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.985856853924677</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>16.98179373800409</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>364.6082943140486</v>
       </c>
       <c r="O11" t="n">
-        <v>0.1081128836816244</v>
+        <v>7.054883825448607</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>55.62857978306469</v>
       </c>
       <c r="Q11" t="n">
-        <v>24.40625446512856</v>
+        <v>2087.70564266138</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1081128836816244</v>
+        <v>17.44986230025173</v>
       </c>
       <c r="S11" t="n">
-        <v>0.8238257481887957</v>
+        <v>162.9106757910372</v>
       </c>
       <c r="T11" t="n">
-        <v>24.40625446512856</v>
+        <v>3911.690187579643</v>
       </c>
       <c r="U11" t="n">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>338</v>
       </c>
       <c r="W11" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="X11" t="n">
-        <v>0.1197175256811012</v>
+        <v>320.8615804293453</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.009475358629791238</v>
+        <v>0.2422974815653993</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01057084028497358</v>
+        <v>0.7602139781430955</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.003327373817330791</v>
+        <v>90.88084567894522</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.007793194908555012</v>
+        <v>2976.253010005516</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.004748490063679736</v>
+        <v>2.902845814020194</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>-3517.58066550584</v>
       </c>
       <c r="AE11" t="n">
-        <v>-24.80589667011246</v>
+        <v>-138.9667064044488</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>-7886.294928267356</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.1081128836816244</v>
+        <v>-5.069026971523932</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>-38.64678604506057</v>
       </c>
       <c r="AI11" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1723.097348347331</v>
       </c>
     </row>
     <row r="12">
@@ -1562,106 +1562,106 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D12" t="n">
-        <v>9.932596085307081</v>
+        <v>10.50394224736602</v>
       </c>
       <c r="E12" t="n">
-        <v>109.2175520736144</v>
+        <v>117.3273738181994</v>
       </c>
       <c r="F12" t="n">
-        <v>2541.59792883567</v>
+        <v>2607.44798005299</v>
       </c>
       <c r="G12" t="n">
-        <v>449938.2170230591</v>
+        <v>392459.881536991</v>
       </c>
       <c r="H12" t="n">
-        <v>449798.1704235579</v>
+        <v>409717.3532928825</v>
       </c>
       <c r="I12" t="n">
-        <v>-395.6162909681527</v>
+        <v>38569.90593126529</v>
       </c>
       <c r="J12" t="n">
-        <v>-395.6162909681527</v>
+        <v>17531.99204073843</v>
       </c>
       <c r="K12" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.528866563554375</v>
       </c>
       <c r="M12" t="n">
-        <v>0.08275832592575103</v>
+        <v>20.40522803422638</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>364.6082943140486</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2022937416699535</v>
+        <v>8.675199889657796</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>72.23711779806096</v>
       </c>
       <c r="Q12" t="n">
-        <v>24.40625446512856</v>
+        <v>1651.674696256777</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2022937416699535</v>
+        <v>19.52527426848709</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9065840741145468</v>
+        <v>198.3570188751589</v>
       </c>
       <c r="T12" t="n">
-        <v>24.40625446512856</v>
+        <v>4088.812412962917</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="V12" t="n">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="W12" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>0.1558640040696549</v>
+        <v>327.6822675593097</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.01105248000238956</v>
+        <v>0.2779500790995986</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.8154539447115674</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.006944174061648009</v>
+        <v>90.90740065679044</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.009580860541802317</v>
+        <v>3062.316047016877</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.00647421460009766</v>
+        <v>4.76707643452636</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>-836.1612567545649</v>
       </c>
       <c r="AE12" t="n">
-        <v>-24.80589667011246</v>
+        <v>-1808.290643948916</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>-7823.927648286389</v>
       </c>
       <c r="AG12" t="n">
-        <v>-0.2022937416699535</v>
+        <v>-7.146333326103424</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.08275832592575103</v>
+        <v>-51.83188976383457</v>
       </c>
       <c r="AI12" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1287.066401942728</v>
       </c>
     </row>
     <row r="13">
@@ -1669,106 +1669,106 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D13" t="n">
-        <v>9.932388190745478</v>
+        <v>10.54285187517593</v>
       </c>
       <c r="E13" t="n">
-        <v>109.2175520736144</v>
+        <v>117.8056082339394</v>
       </c>
       <c r="F13" t="n">
-        <v>2541.59792883567</v>
+        <v>2570.046258130489</v>
       </c>
       <c r="G13" t="n">
-        <v>449947.0217928558</v>
+        <v>395845.5041235676</v>
       </c>
       <c r="H13" t="n">
-        <v>449798.1704235579</v>
+        <v>415718.7034833329</v>
       </c>
       <c r="I13" t="n">
-        <v>-395.6162909681527</v>
+        <v>31462.41131381543</v>
       </c>
       <c r="J13" t="n">
-        <v>-395.6162909681527</v>
+        <v>16873.38681005483</v>
       </c>
       <c r="K13" t="n">
-        <v>-395.6162909681527</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.555306402691264</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08275832592575103</v>
+        <v>15.38748308720499</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>282.1896979393197</v>
       </c>
       <c r="O13" t="n">
-        <v>0.204103545786913</v>
+        <v>8.859582971517085</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>88.07985975142445</v>
       </c>
       <c r="Q13" t="n">
-        <v>24.40625446512856</v>
+        <v>2280.604377061798</v>
       </c>
       <c r="R13" t="n">
-        <v>0.204103545786913</v>
+        <v>19.92741102730383</v>
       </c>
       <c r="S13" t="n">
-        <v>0.9065840741145468</v>
+        <v>242.987990968609</v>
       </c>
       <c r="T13" t="n">
-        <v>24.40625446512856</v>
+        <v>4895.617214167629</v>
       </c>
       <c r="U13" t="n">
-        <v>13</v>
+        <v>327</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>410</v>
       </c>
       <c r="W13" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1657660950195598</v>
+        <v>1009.309473251063</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01263423942905077</v>
+        <v>0.2977208055788586</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.8491498480280936</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.006944174061648009</v>
+        <v>294.743885433922</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.01096972840011257</v>
+        <v>3204.529976452763</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.00647421460009766</v>
+        <v>5.343395900783733</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>-78.54837235045318</v>
       </c>
       <c r="AE13" t="n">
-        <v>-24.80589667011246</v>
+        <v>993.1152151046458</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>-8828.839649341477</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.204103545786913</v>
+        <v>-7.304276568825824</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.08275832592575103</v>
+        <v>-72.69237666421947</v>
       </c>
       <c r="AI13" t="n">
-        <v>-24.40625446512856</v>
+        <v>-1998.414679122478</v>
       </c>
     </row>
     <row r="14">
@@ -1776,106 +1776,106 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D14" t="n">
-        <v>9.932388190745478</v>
+        <v>10.51845573916798</v>
       </c>
       <c r="E14" t="n">
-        <v>109.2175520736144</v>
+        <v>116.6407329147643</v>
       </c>
       <c r="F14" t="n">
-        <v>2541.59792883567</v>
+        <v>2618.511243898545</v>
       </c>
       <c r="G14" t="n">
-        <v>449386.734432405</v>
+        <v>392921.1904821827</v>
       </c>
       <c r="H14" t="n">
-        <v>449798.1704235579</v>
+        <v>418267.5460068831</v>
       </c>
       <c r="I14" t="n">
-        <v>164.6710694826038</v>
+        <v>30394.66755721982</v>
       </c>
       <c r="J14" t="n">
-        <v>164.6710694826038</v>
+        <v>8976.133904358328</v>
       </c>
       <c r="K14" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L14" t="n">
-        <v>0.007612390878211048</v>
+        <v>0.8333903033815636</v>
       </c>
       <c r="M14" t="n">
-        <v>0.08275832592575103</v>
+        <v>11.43096401567053</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>166.1974300769496</v>
       </c>
       <c r="O14" t="n">
-        <v>0.204103545786913</v>
+        <v>8.226699486452729</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>86.77094375114498</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1978.600352402731</v>
       </c>
       <c r="R14" t="n">
-        <v>0.211715936665124</v>
+        <v>20.62287583239531</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9065840741145468</v>
+        <v>263.4272725719095</v>
       </c>
       <c r="T14" t="n">
-        <v>24.40625446512856</v>
+        <v>5134.920701933195</v>
       </c>
       <c r="U14" t="n">
-        <v>15</v>
+        <v>366</v>
       </c>
       <c r="V14" t="n">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X14" t="n">
-        <v>0.4201050485547848</v>
+        <v>1018.623087322053</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.0126570766016854</v>
+        <v>0.3166676795227255</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01270747201495893</v>
+        <v>0.907711305936911</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.006944174061648009</v>
+        <v>295.7894304348903</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.08418849179549825</v>
+        <v>3215.840118232762</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.009534300092644863</v>
+        <v>6.929243315648845</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>-3082.488293451087</v>
       </c>
       <c r="AE14" t="n">
-        <v>-24.80589667011246</v>
+        <v>-369.6021150615225</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>42.84383391256912</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0.1964911549087019</v>
+        <v>-7.393309183071167</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.08275832592575103</v>
+        <v>-75.33997973547447</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>-1812.402922325781</v>
       </c>
     </row>
     <row r="15">
@@ -1883,106 +1883,106 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D15" t="n">
-        <v>9.932388190745478</v>
+        <v>10.47213357773278</v>
       </c>
       <c r="E15" t="n">
-        <v>109.2346726602747</v>
+        <v>117.0189755460205</v>
       </c>
       <c r="F15" t="n">
-        <v>2541.59792883567</v>
+        <v>2623.47866794929</v>
       </c>
       <c r="G15" t="n">
-        <v>449330.6454754928</v>
+        <v>391540.3466699791</v>
       </c>
       <c r="H15" t="n">
-        <v>449798.1704235579</v>
+        <v>425492.9264150987</v>
       </c>
       <c r="I15" t="n">
-        <v>164.6710694826038</v>
+        <v>24953.68076139909</v>
       </c>
       <c r="J15" t="n">
-        <v>164.6710694826038</v>
+        <v>8976.133904358328</v>
       </c>
       <c r="K15" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L15" t="n">
-        <v>0.007612390878211048</v>
+        <v>1.107857924424531</v>
       </c>
       <c r="M15" t="n">
-        <v>0.08275832592575103</v>
+        <v>13.50302829244722</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>169.622179141327</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2189689898748548</v>
+        <v>9.351192945351652</v>
       </c>
       <c r="P15" t="n">
-        <v>0.006455626124561932</v>
+        <v>102.7398862018964</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1796.467174912383</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2265813807530659</v>
+        <v>22.9923893146394</v>
       </c>
       <c r="S15" t="n">
-        <v>0.9130397002391087</v>
+        <v>287.5107320615608</v>
       </c>
       <c r="T15" t="n">
-        <v>24.40625446512856</v>
+        <v>5204.530078997737</v>
       </c>
       <c r="U15" t="n">
-        <v>17</v>
+        <v>403</v>
       </c>
       <c r="V15" t="n">
-        <v>18</v>
+        <v>465</v>
       </c>
       <c r="W15" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="X15" t="n">
-        <v>0.4523480016766298</v>
+        <v>1022.136308600986</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.01580834759698119</v>
+        <v>0.3242500212199959</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.0145272937408192</v>
+        <v>0.9286940488004214</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0100577270501173</v>
+        <v>296.0106186535587</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.0857767320224264</v>
+        <v>3226.22660190858</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.009534300092644863</v>
+        <v>7.66625528406282</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>-82.57812515808473</v>
       </c>
       <c r="AE15" t="n">
-        <v>-24.80589667011246</v>
+        <v>219.7184106082905</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>-261.9604224665916</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0.2113565989966437</v>
+        <v>-8.243335020927127</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.07630269980118909</v>
+        <v>-89.23685790944923</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>-1626.844995771056</v>
       </c>
     </row>
     <row r="16">
@@ -1990,106 +1990,106 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D16" t="n">
-        <v>9.932388190745478</v>
+        <v>10.52004998168837</v>
       </c>
       <c r="E16" t="n">
-        <v>109.2346726602747</v>
+        <v>116.3786657458281</v>
       </c>
       <c r="F16" t="n">
-        <v>2541.695285149893</v>
+        <v>2633.968957232898</v>
       </c>
       <c r="G16" t="n">
-        <v>449330.6454754928</v>
+        <v>393376.4966946444</v>
       </c>
       <c r="H16" t="n">
-        <v>449783.917062412</v>
+        <v>414507.4620966939</v>
       </c>
       <c r="I16" t="n">
-        <v>164.6710694826038</v>
+        <v>33004.10313942834</v>
       </c>
       <c r="J16" t="n">
-        <v>164.6710694826038</v>
+        <v>8826.077514296294</v>
       </c>
       <c r="K16" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.8199963851514861</v>
       </c>
       <c r="M16" t="n">
-        <v>0.08275832592575103</v>
+        <v>7.860783580699463</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>143.8565148084834</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2189689898748548</v>
+        <v>7.869495362647831</v>
       </c>
       <c r="P16" t="n">
-        <v>0.006455626124561932</v>
+        <v>95.76479770004131</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1935.473420326544</v>
       </c>
       <c r="R16" t="n">
-        <v>0.2481715594219878</v>
+        <v>23.61736209353284</v>
       </c>
       <c r="S16" t="n">
-        <v>0.9130397002391087</v>
+        <v>294.842637032991</v>
       </c>
       <c r="T16" t="n">
-        <v>24.40625446512856</v>
+        <v>5409.744488836779</v>
       </c>
       <c r="U16" t="n">
-        <v>18</v>
+        <v>435</v>
       </c>
       <c r="V16" t="n">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X16" t="n">
-        <v>0.4633622741021451</v>
+        <v>1024.535678901276</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.01587311813298796</v>
+        <v>0.3445731751939929</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.0145272937408192</v>
+        <v>0.9835579754856774</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.01167668325763753</v>
+        <v>296.3922073181441</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.0857767320224264</v>
+        <v>3236.070191926099</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.01115485507677245</v>
+        <v>7.733003283552908</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>930.5665827111477</v>
       </c>
       <c r="AE16" t="n">
-        <v>-24.80589667011246</v>
+        <v>-66.76117077552692</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>-349.2502431457059</v>
       </c>
       <c r="AG16" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-7.04949897749635</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.07630269980118909</v>
+        <v>-87.90401411934189</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>-1791.61690551806</v>
       </c>
     </row>
     <row r="17">
@@ -2097,106 +2097,106 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D17" t="n">
-        <v>9.932388190745478</v>
+        <v>10.43177635630219</v>
       </c>
       <c r="E17" t="n">
-        <v>109.2074477395399</v>
+        <v>116.4195822736519</v>
       </c>
       <c r="F17" t="n">
-        <v>2541.695285149893</v>
+        <v>2636.73085861044</v>
       </c>
       <c r="G17" t="n">
-        <v>449420.7744118353</v>
+        <v>395937.1216702434</v>
       </c>
       <c r="H17" t="n">
-        <v>449783.917062412</v>
+        <v>413888.6834073879</v>
       </c>
       <c r="I17" t="n">
-        <v>164.6710694826038</v>
+        <v>34731.52264623069</v>
       </c>
       <c r="J17" t="n">
-        <v>164.6710694826038</v>
+        <v>8826.077514296294</v>
       </c>
       <c r="K17" t="n">
-        <v>164.6710694826038</v>
+        <v>-10078.06321251285</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.111946062086297</v>
       </c>
       <c r="M17" t="n">
-        <v>0.08275832592575103</v>
+        <v>7.880488515688974</v>
       </c>
       <c r="N17" t="n">
-        <v>59.4924179028753</v>
+        <v>108.8432624842059</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2189689898748548</v>
+        <v>9.189478635829966</v>
       </c>
       <c r="P17" t="n">
-        <v>0.006455626124561932</v>
+        <v>98.50721058524194</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>2430.343700884845</v>
       </c>
       <c r="R17" t="n">
-        <v>0.2481715594219878</v>
+        <v>25.66077038312877</v>
       </c>
       <c r="S17" t="n">
-        <v>0.9130397002391087</v>
+        <v>313.61328403453</v>
       </c>
       <c r="T17" t="n">
-        <v>83.89867236800386</v>
+        <v>5970.734258012134</v>
       </c>
       <c r="U17" t="n">
-        <v>19</v>
+        <v>465</v>
       </c>
       <c r="V17" t="n">
-        <v>21</v>
+        <v>530</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="X17" t="n">
-        <v>4.593863068673279</v>
+        <v>1026.022784565902</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.01902329632814332</v>
+        <v>0.3665071340122938</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.01592184590735177</v>
+        <v>0.9933294898347585</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.244819183197026</v>
+        <v>296.5195519851801</v>
       </c>
       <c r="AB17" t="n">
-        <v>0.08723974009269038</v>
+        <v>3245.399276241457</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.01115485507677245</v>
+        <v>7.756348079299044</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>-233.6628454358969</v>
       </c>
       <c r="AE17" t="n">
-        <v>-24.80589667011246</v>
+        <v>300.1741532298902</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>-684.907672352064</v>
       </c>
       <c r="AG17" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-8.077532573743676</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.07630269980118909</v>
+        <v>-90.62672206955298</v>
       </c>
       <c r="AI17" t="n">
-        <v>59.4924179028753</v>
+        <v>-2321.500438400638</v>
       </c>
     </row>
     <row r="18">
@@ -2204,106 +2204,106 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D18" t="n">
-        <v>9.931957967666859</v>
+        <v>10.44775088684252</v>
       </c>
       <c r="E18" t="n">
-        <v>109.2016740255957</v>
+        <v>116.761031730663</v>
       </c>
       <c r="F18" t="n">
-        <v>2541.821094286912</v>
+        <v>2635.444735951334</v>
       </c>
       <c r="G18" t="n">
-        <v>449420.7744118353</v>
+        <v>389563.9484987684</v>
       </c>
       <c r="H18" t="n">
-        <v>449783.917062412</v>
+        <v>413561.534791411</v>
       </c>
       <c r="I18" t="n">
-        <v>183.9287139812832</v>
+        <v>40122.50857129061</v>
       </c>
       <c r="J18" t="n">
-        <v>183.9287139812832</v>
+        <v>17619.5806134451</v>
       </c>
       <c r="K18" t="n">
-        <v>183.9287139812832</v>
+        <v>-7755.898616816266</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.992140335035873</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>7.933297954743326</v>
       </c>
       <c r="N18" t="n">
-        <v>59.4924179028753</v>
+        <v>230.5834671604196</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2189689898748548</v>
+        <v>7.95729798072312</v>
       </c>
       <c r="P18" t="n">
-        <v>0.006455626124561932</v>
+        <v>53.17993329429243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04526276504436452</v>
+        <v>1734.034823290463</v>
       </c>
       <c r="R18" t="n">
-        <v>0.2481715594219878</v>
+        <v>27.36542801440572</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9130397002391087</v>
+        <v>314.1217618375062</v>
       </c>
       <c r="T18" t="n">
-        <v>83.94393513304823</v>
+        <v>6181.855845379342</v>
       </c>
       <c r="U18" t="n">
-        <v>21</v>
+        <v>498</v>
       </c>
       <c r="V18" t="n">
-        <v>22</v>
+        <v>554</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="X18" t="n">
-        <v>4.605395889180572</v>
+        <v>1053.539984603121</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.02060132689412228</v>
+        <v>0.3858388004040815</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.003001250817635</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.246452723805457</v>
+        <v>302.221519473785</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.08723974009269038</v>
+        <v>3254.727635251728</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.01115485507677245</v>
+        <v>9.415489090372434</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>-3129.82945781037</v>
       </c>
       <c r="AE18" t="n">
-        <v>-24.80589667011246</v>
+        <v>-2258.293242180572</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>-0.2025654507005736</v>
       </c>
       <c r="AG18" t="n">
-        <v>-0.1897664203277218</v>
+        <v>-5.965157645687254</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-45.24663533954912</v>
       </c>
       <c r="AI18" t="n">
-        <v>59.44715513783093</v>
+        <v>-1503.451356130042</v>
       </c>
     </row>
     <row r="19">
@@ -2311,106 +2311,106 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>9.931957967666859</v>
+        <v>10.53086477510476</v>
       </c>
       <c r="E19" t="n">
-        <v>109.2016740255957</v>
+        <v>117.9228338490946</v>
       </c>
       <c r="F19" t="n">
-        <v>2541.821094286912</v>
+        <v>2638.754859889357</v>
       </c>
       <c r="G19" t="n">
-        <v>449420.7744118353</v>
+        <v>387885.9585816869</v>
       </c>
       <c r="H19" t="n">
-        <v>449783.917062412</v>
+        <v>406969.1324314345</v>
       </c>
       <c r="I19" t="n">
-        <v>183.9287139812832</v>
+        <v>41023.64757674289</v>
       </c>
       <c r="J19" t="n">
-        <v>183.9287139812832</v>
+        <v>17619.5806134451</v>
       </c>
       <c r="K19" t="n">
-        <v>183.9287139812832</v>
+        <v>-7359.640827481939</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.385944554733979</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>10.18742865537628</v>
       </c>
       <c r="N19" t="n">
-        <v>59.4924179028753</v>
+        <v>213.4070413375156</v>
       </c>
       <c r="O19" t="n">
-        <v>0.2218186181169236</v>
+        <v>9.089527925667811</v>
       </c>
       <c r="P19" t="n">
-        <v>0.006455626124561932</v>
+        <v>86.23458863005985</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.04526276504436452</v>
+        <v>1284.615121395302</v>
       </c>
       <c r="R19" t="n">
-        <v>0.2510211876640567</v>
+        <v>29.07893168025031</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9130397002391087</v>
+        <v>350.2767318872162</v>
       </c>
       <c r="T19" t="n">
-        <v>83.94393513304823</v>
+        <v>6200.042934869585</v>
       </c>
       <c r="U19" t="n">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="V19" t="n">
-        <v>23</v>
+        <v>588</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="X19" t="n">
-        <v>4.615896438618727</v>
+        <v>1061.40443437961</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.02375149172556893</v>
+        <v>0.3985187869286174</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.031275044292527</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.246452723805457</v>
+        <v>303.1330216078215</v>
       </c>
       <c r="AB19" t="n">
-        <v>0.08723974009269038</v>
+        <v>3262.846695029735</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.01115485507677245</v>
+        <v>10.61352640564486</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>97.47219709519777</v>
       </c>
       <c r="AE19" t="n">
-        <v>-24.80589667011246</v>
+        <v>-0.8194286891564388</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>44.12823292694338</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.703583370933838</v>
       </c>
       <c r="AH19" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-76.04715997468358</v>
       </c>
       <c r="AI19" t="n">
-        <v>59.44715513783093</v>
+        <v>-1071.208080057786</v>
       </c>
     </row>
     <row r="20">
@@ -2418,106 +2418,106 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D20" t="n">
-        <v>9.932066785138028</v>
+        <v>10.5653311602356</v>
       </c>
       <c r="E20" t="n">
-        <v>109.2016740255957</v>
+        <v>118.4806656766589</v>
       </c>
       <c r="F20" t="n">
-        <v>2541.821094286912</v>
+        <v>2648.371860863803</v>
       </c>
       <c r="G20" t="n">
-        <v>449420.7744118353</v>
+        <v>380013.6861755698</v>
       </c>
       <c r="H20" t="n">
-        <v>449779.3104759637</v>
+        <v>407256.518459279</v>
       </c>
       <c r="I20" t="n">
-        <v>183.9287139812832</v>
+        <v>44336.89212245062</v>
       </c>
       <c r="J20" t="n">
-        <v>183.9287139812832</v>
+        <v>17268.91629620187</v>
       </c>
       <c r="K20" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L20" t="n">
-        <v>0.02920256954713303</v>
+        <v>1.389317865690596</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>8.485856113105184</v>
       </c>
       <c r="N20" t="n">
-        <v>59.4924179028753</v>
+        <v>168.2149781135884</v>
       </c>
       <c r="O20" t="n">
-        <v>0.2218186181169236</v>
+        <v>8.444569683493683</v>
       </c>
       <c r="P20" t="n">
-        <v>0.006455626124561932</v>
+        <v>94.59145918554</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.04526276504436452</v>
+        <v>1177.005203778731</v>
       </c>
       <c r="R20" t="n">
-        <v>0.2510211876640567</v>
+        <v>29.7547439544804</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9130397002391087</v>
+        <v>358.9173283439183</v>
       </c>
       <c r="T20" t="n">
-        <v>83.94393513304823</v>
+        <v>6300.05699404975</v>
       </c>
       <c r="U20" t="n">
-        <v>22</v>
+        <v>550</v>
       </c>
       <c r="V20" t="n">
-        <v>24</v>
+        <v>619</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="X20" t="n">
-        <v>4.626636080788884</v>
+        <v>1089.602401952697</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.02532207840258646</v>
+        <v>0.4112079852974453</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.01617012088512903</v>
+        <v>1.045837338203907</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.246452723805457</v>
+        <v>311.0972923005434</v>
       </c>
       <c r="AB20" t="n">
-        <v>0.08723974009269038</v>
+        <v>3270.329239483859</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.01280616105080183</v>
+        <v>11.04445735622604</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>-4237.102674786953</v>
       </c>
       <c r="AE20" t="n">
-        <v>-24.80589667011246</v>
+        <v>62.72730116560854</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>-550.7212922742833</v>
       </c>
       <c r="AG20" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.05525181780309</v>
       </c>
       <c r="AH20" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-86.10560307243483</v>
       </c>
       <c r="AI20" t="n">
-        <v>59.44715513783093</v>
+        <v>-1008.790225665141</v>
       </c>
     </row>
     <row r="21">
@@ -2525,106 +2525,106 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D21" t="n">
-        <v>9.932066785138028</v>
+        <v>10.60575058552497</v>
       </c>
       <c r="E21" t="n">
-        <v>109.2016740255957</v>
+        <v>118.2470962469659</v>
       </c>
       <c r="F21" t="n">
-        <v>2535.987289686373</v>
+        <v>2725.541986663385</v>
       </c>
       <c r="G21" t="n">
-        <v>450215.1535063742</v>
+        <v>358738.6824430191</v>
       </c>
       <c r="H21" t="n">
-        <v>449779.3104759637</v>
+        <v>407435.8651067704</v>
       </c>
       <c r="I21" t="n">
-        <v>183.9287139812832</v>
+        <v>54375.10608704867</v>
       </c>
       <c r="J21" t="n">
-        <v>183.9287139812832</v>
+        <v>17268.91629620187</v>
       </c>
       <c r="K21" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.5954616035233995</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>6.498633407191151</v>
       </c>
       <c r="N21" t="n">
-        <v>59.4924179028753</v>
+        <v>159.5669916387692</v>
       </c>
       <c r="O21" t="n">
-        <v>0.2218186181169236</v>
+        <v>7.67470069897412</v>
       </c>
       <c r="P21" t="n">
-        <v>0.006455626124561932</v>
+        <v>102.9920848262839</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.1876553677220388</v>
+        <v>1710.403916083573</v>
       </c>
       <c r="R21" t="n">
-        <v>0.2510211876640567</v>
+        <v>30.60898958128798</v>
       </c>
       <c r="S21" t="n">
-        <v>0.9130397002391087</v>
+        <v>378.74792046287</v>
       </c>
       <c r="T21" t="n">
-        <v>84.0863277357259</v>
+        <v>7274.31801624455</v>
       </c>
       <c r="U21" t="n">
-        <v>23</v>
+        <v>584</v>
       </c>
       <c r="V21" t="n">
-        <v>26</v>
+        <v>644</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="X21" t="n">
-        <v>4.646063654522647</v>
+        <v>1095.424437994748</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.02532207840258646</v>
+        <v>0.4296556458804881</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.01932054319225331</v>
+        <v>1.082508123345061</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.247775649221221</v>
+        <v>311.4307305462162</v>
       </c>
       <c r="AB21" t="n">
-        <v>0.08859466448993168</v>
+        <v>3278.171349928906</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.01280616105080183</v>
+        <v>11.48925558309703</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>839.398080356078</v>
       </c>
       <c r="AE21" t="n">
-        <v>-24.80589667011246</v>
+        <v>176.330668173759</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>-623.0620011338901</v>
       </c>
       <c r="AG21" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-7.079239095450723</v>
       </c>
       <c r="AH21" t="n">
-        <v>-0.006455626124561932</v>
+        <v>-96.49345141909276</v>
       </c>
       <c r="AI21" t="n">
-        <v>59.30476253515326</v>
+        <v>-1550.836924444803</v>
       </c>
     </row>
     <row r="22">
@@ -2632,106 +2632,106 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
-        <v>9.931066122855443</v>
+        <v>10.61258638309419</v>
       </c>
       <c r="E22" t="n">
-        <v>109.2128448101583</v>
+        <v>118.9210643148733</v>
       </c>
       <c r="F22" t="n">
-        <v>2535.987289686373</v>
+        <v>2728.307294907332</v>
       </c>
       <c r="G22" t="n">
-        <v>450221.0739956938</v>
+        <v>350677.0902462129</v>
       </c>
       <c r="H22" t="n">
-        <v>449779.1238194008</v>
+        <v>408579.2239840418</v>
       </c>
       <c r="I22" t="n">
-        <v>183.9287139812832</v>
+        <v>58760.16964785617</v>
       </c>
       <c r="J22" t="n">
-        <v>183.9287139812832</v>
+        <v>20711.20479754353</v>
       </c>
       <c r="K22" t="n">
-        <v>183.9287139812832</v>
+        <v>-7379.583242877678</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02920256954713303</v>
+        <v>0.5693685267233666</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>4.906923341550538</v>
       </c>
       <c r="N22" t="n">
-        <v>59.4924179028753</v>
+        <v>123.5922844568606</v>
       </c>
       <c r="O22" t="n">
-        <v>0.2218186181169236</v>
+        <v>8.704882902049917</v>
       </c>
       <c r="P22" t="n">
-        <v>0.008144068771714582</v>
+        <v>106.0612401849245</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.1876553677220388</v>
+        <v>1798.941241783741</v>
       </c>
       <c r="R22" t="n">
-        <v>0.2510211876640567</v>
+        <v>31.63917178436378</v>
       </c>
       <c r="S22" t="n">
-        <v>0.9147281428862614</v>
+        <v>397.9973892576684</v>
       </c>
       <c r="T22" t="n">
-        <v>84.0863277357259</v>
+        <v>7498.786188360267</v>
       </c>
       <c r="U22" t="n">
-        <v>24</v>
+        <v>614</v>
       </c>
       <c r="V22" t="n">
-        <v>29</v>
+        <v>668</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="X22" t="n">
-        <v>4.677447087514342</v>
+        <v>1100.595207095224</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.0269048454502881</v>
+        <v>0.4496568005318375</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.0210347273254011</v>
+        <v>1.087594095514024</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.247775649221221</v>
+        <v>312.5386890988378</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.09298269197141902</v>
+        <v>3285.00725118496</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.01453621228597342</v>
+        <v>11.51350518669679</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>-470.8835013483256</v>
       </c>
       <c r="AE22" t="n">
-        <v>-24.80589667011246</v>
+        <v>-3989.694507324331</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>109.4002784842628</v>
       </c>
       <c r="AG22" t="n">
-        <v>-0.1926160485697906</v>
+        <v>-8.135514375326553</v>
       </c>
       <c r="AH22" t="n">
-        <v>-0.008144068771714582</v>
+        <v>-101.1543168433739</v>
       </c>
       <c r="AI22" t="n">
-        <v>59.30476253515326</v>
+        <v>-1675.34895732688</v>
       </c>
     </row>
   </sheetData>

--- a/run_merged.xlsx
+++ b/run_merged.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI22"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,60 +534,80 @@
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>fees_collected</t>
+          <t>fees_collected_btc</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
+          <t>fees_collected_eth</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>fees_collected_sol</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>fees_collected_usdc</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>fees_collected_usdt</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
           <t>treasury_balance_btc</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>treasury_balance_eth</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>treasury_balance_sol</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>treasury_balance_usdc</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>treasury_balance_usdt</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>pool_pnl_btc</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>pool_pnl_eth</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>pool_pnl_sol</t>
         </is>
       </c>
-      <c r="AG1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>nominal_exposure_btc</t>
         </is>
       </c>
-      <c r="AH1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>nominal_exposure_eth</t>
         </is>
       </c>
-      <c r="AI1" t="inlineStr">
+      <c r="AM1" t="inlineStr">
         <is>
           <t>nominal_exposure_sol</t>
         </is>
@@ -602,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>10</v>
@@ -698,6 +718,18 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -709,22 +741,22 @@
         <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>9.843431739102003</v>
+        <v>10.18134583279591</v>
       </c>
       <c r="E4" t="n">
-        <v>110.4230247487018</v>
+        <v>111.2779065534815</v>
       </c>
       <c r="F4" t="n">
-        <v>2494.274134427539</v>
+        <v>2530.294759070991</v>
       </c>
       <c r="G4" t="n">
-        <v>448986.8155769293</v>
+        <v>439587.5770872585</v>
       </c>
       <c r="H4" t="n">
-        <v>458055.8918678621</v>
+        <v>441668.966888408</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -736,34 +768,34 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2.931436634837287</v>
+        <v>1.869416693993186</v>
       </c>
       <c r="M4" t="n">
-        <v>5.466311500889892</v>
+        <v>6.016035563527633</v>
       </c>
       <c r="N4" t="n">
-        <v>102.068199064828</v>
+        <v>165.7185966610813</v>
       </c>
       <c r="O4" t="n">
-        <v>1.89817714692128</v>
+        <v>1.826269572274508</v>
       </c>
       <c r="P4" t="n">
-        <v>62.27087628193496</v>
+        <v>53.13036775498339</v>
       </c>
       <c r="Q4" t="n">
-        <v>783.0681516867006</v>
+        <v>17.70002244443703</v>
       </c>
       <c r="R4" t="n">
-        <v>4.829613781758567</v>
+        <v>3.695686266267694</v>
       </c>
       <c r="S4" t="n">
-        <v>67.73718778282486</v>
+        <v>59.14640331851102</v>
       </c>
       <c r="T4" t="n">
-        <v>885.1363507515287</v>
+        <v>183.4186191055183</v>
       </c>
       <c r="U4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V4" t="n">
         <v>50</v>
@@ -772,40 +804,52 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>8.203797569607779</v>
+        <v>0.1037113344357787</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.04599582198174769</v>
+        <v>0.1431468245391052</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05201209937397393</v>
+        <v>15.69690966724916</v>
       </c>
       <c r="AA4" t="n">
-        <v>2.285094018068153</v>
+        <v>0.1948602406234865</v>
       </c>
       <c r="AB4" t="n">
-        <v>3.671538334588626</v>
+        <v>0.1545591668770846</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03978649334265045</v>
+        <v>0.03890753292651068</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>0.04658919953565571</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>4.716777517284272</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>0.04590042787007405</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.033259487916006</v>
+        <v>0.03978149250087228</v>
       </c>
       <c r="AH4" t="n">
-        <v>-56.80456478104507</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>-680.9999526218726</v>
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0.04314712171867884</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-47.11433219145576</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>148.0185742166443</v>
       </c>
     </row>
     <row r="5">
@@ -816,103 +860,115 @@
         <v>30</v>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>9.942011308667622</v>
+        <v>10.24001140601783</v>
       </c>
       <c r="E5" t="n">
-        <v>107.785423501005</v>
+        <v>109.4954769238246</v>
       </c>
       <c r="F5" t="n">
-        <v>2525.940549833143</v>
+        <v>2517.777241550461</v>
       </c>
       <c r="G5" t="n">
-        <v>444809.605989003</v>
+        <v>439011.5551814944</v>
       </c>
       <c r="H5" t="n">
-        <v>464119.0661821073</v>
+        <v>448689.8393567461</v>
       </c>
       <c r="I5" t="n">
-        <v>-2012.462876451146</v>
+        <v>-287.1379577516781</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-1721.965564482371</v>
+        <v>-287.1379577516781</v>
       </c>
       <c r="L5" t="n">
-        <v>2.589410308288805</v>
+        <v>3.045278435906538</v>
       </c>
       <c r="M5" t="n">
-        <v>30.73741338141055</v>
+        <v>11.01045515688308</v>
       </c>
       <c r="N5" t="n">
-        <v>47.15479178148505</v>
+        <v>263.1546744211751</v>
       </c>
       <c r="O5" t="n">
-        <v>5.484848482906291</v>
+        <v>6.203372378400169</v>
       </c>
       <c r="P5" t="n">
-        <v>66.37648065983632</v>
+        <v>97.85225548658869</v>
       </c>
       <c r="Q5" t="n">
-        <v>1360.247935740992</v>
+        <v>151.9778085095693</v>
       </c>
       <c r="R5" t="n">
-        <v>8.946929884579498</v>
+        <v>9.248650814306705</v>
       </c>
       <c r="S5" t="n">
-        <v>97.11389404124687</v>
+        <v>108.8627106434718</v>
       </c>
       <c r="T5" t="n">
-        <v>1475.90791571263</v>
+        <v>450.6293983158802</v>
       </c>
       <c r="U5" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="V5" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="W5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>10.81915380917432</v>
+        <v>0.2648778151603117</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.102318612570884</v>
+        <v>0.3718067951498723</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.3013203673320758</v>
+        <v>39.71475801509553</v>
       </c>
       <c r="AA5" t="n">
-        <v>2.684507799450118</v>
+        <v>0.3074611641852634</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.777180704244</v>
+        <v>0.256821891580012</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.07650324636746274</v>
+        <v>0.08245978504565446</v>
       </c>
       <c r="AD5" t="n">
-        <v>-12.62026419557878</v>
+        <v>0.1095401284550829</v>
       </c>
       <c r="AE5" t="n">
-        <v>-93.58071500868573</v>
+        <v>11.92512444160667</v>
       </c>
       <c r="AF5" t="n">
-        <v>-2900.940533800289</v>
+        <v>0.07956120061713955</v>
       </c>
       <c r="AG5" t="n">
-        <v>-2.895438174617486</v>
+        <v>0.07803214862674328</v>
       </c>
       <c r="AH5" t="n">
-        <v>-35.63906727842576</v>
+        <v>13.56790070004217</v>
       </c>
       <c r="AI5" t="n">
-        <v>-1313.093143959507</v>
+        <v>-82.47196015757345</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>287.1379577516782</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-3.158093942493631</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-86.84180032970559</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>111.1768659116057</v>
       </c>
     </row>
     <row r="6">
@@ -923,103 +979,115 @@
         <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>10.05022961790274</v>
+        <v>10.11922583954843</v>
       </c>
       <c r="E6" t="n">
-        <v>106.25916709291</v>
+        <v>109.1840472315419</v>
       </c>
       <c r="F6" t="n">
-        <v>2568.52343292099</v>
+        <v>2590.744730899696</v>
       </c>
       <c r="G6" t="n">
-        <v>442871.7471257386</v>
+        <v>439309.3977738848</v>
       </c>
       <c r="H6" t="n">
-        <v>461425.2066577948</v>
+        <v>443715.9354373725</v>
       </c>
       <c r="I6" t="n">
-        <v>-3095.877295170013</v>
+        <v>-1148.290609208581</v>
       </c>
       <c r="J6" t="n">
-        <v>259.3289928985826</v>
+        <v>4.646047579679995</v>
       </c>
       <c r="K6" t="n">
-        <v>-1721.965564482371</v>
+        <v>-507.1216945043316</v>
       </c>
       <c r="L6" t="n">
-        <v>2.189704360352939</v>
+        <v>3.110117769182213</v>
       </c>
       <c r="M6" t="n">
-        <v>39.0405740109759</v>
+        <v>11.44473289056768</v>
       </c>
       <c r="N6" t="n">
-        <v>105.0525011273568</v>
+        <v>323.6013958828857</v>
       </c>
       <c r="O6" t="n">
-        <v>5.983900121506616</v>
+        <v>6.747211333111172</v>
       </c>
       <c r="P6" t="n">
-        <v>66.41699459038543</v>
+        <v>98.39895261880596</v>
       </c>
       <c r="Q6" t="n">
-        <v>2046.00165750179</v>
+        <v>261.5762458009872</v>
       </c>
       <c r="R6" t="n">
-        <v>10.04404965941407</v>
+        <v>10.49017494325002</v>
       </c>
       <c r="S6" t="n">
-        <v>120.4628439167821</v>
+        <v>110.4262537323918</v>
       </c>
       <c r="T6" t="n">
-        <v>2234.018896622646</v>
+        <v>622.848591542348</v>
       </c>
       <c r="U6" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="V6" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="W6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>16.43118209328781</v>
+        <v>0.3950903287123809</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1308258170780313</v>
+        <v>0.5066211948519427</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.4055248035010051</v>
+        <v>51.96531379734476</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.13367101945432</v>
+        <v>0.4302967869233022</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.1782563174273</v>
+        <v>0.4109500020306768</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1026203611758296</v>
+        <v>0.1153372714912202</v>
       </c>
       <c r="AD6" t="n">
-        <v>-867.3593302340689</v>
+        <v>0.1458349944155338</v>
       </c>
       <c r="AE6" t="n">
-        <v>-661.4007412496794</v>
+        <v>15.60456993123876</v>
       </c>
       <c r="AF6" t="n">
-        <v>49.67523239241382</v>
+        <v>0.1193420168951381</v>
       </c>
       <c r="AG6" t="n">
-        <v>-3.794195761153676</v>
+        <v>0.1273974189182588</v>
       </c>
       <c r="AH6" t="n">
-        <v>-27.37642057940951</v>
+        <v>-521.6987066255779</v>
       </c>
       <c r="AI6" t="n">
-        <v>-1940.949156374433</v>
+        <v>-473.7453251253332</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>109.7609080217585</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-3.637093563928959</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-86.95421972823826</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>62.02515008189845</v>
       </c>
     </row>
     <row r="7">
@@ -1030,103 +1098,115 @@
         <v>30</v>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>10.10135946723163</v>
+        <v>10.1945601495901</v>
       </c>
       <c r="E7" t="n">
-        <v>106.3904613494421</v>
+        <v>109.7286082443503</v>
       </c>
       <c r="F7" t="n">
-        <v>2546.581379893723</v>
+        <v>2541.182531949089</v>
       </c>
       <c r="G7" t="n">
-        <v>452287.0273109827</v>
+        <v>445093.9353524381</v>
       </c>
       <c r="H7" t="n">
-        <v>459194.8068929985</v>
+        <v>446669.3523776102</v>
       </c>
       <c r="I7" t="n">
-        <v>-9635.689263280612</v>
+        <v>-6720.247221033161</v>
       </c>
       <c r="J7" t="n">
-        <v>259.3289928985826</v>
+        <v>130.4709961735423</v>
       </c>
       <c r="K7" t="n">
-        <v>-3718.050808810182</v>
+        <v>-2427.108996833475</v>
       </c>
       <c r="L7" t="n">
-        <v>1.764066137137765</v>
+        <v>2.543410583477057</v>
       </c>
       <c r="M7" t="n">
-        <v>33.47406905113493</v>
+        <v>7.009524502973396</v>
       </c>
       <c r="N7" t="n">
-        <v>78.92682346694185</v>
+        <v>182.0120025264346</v>
       </c>
       <c r="O7" t="n">
-        <v>7.855301347484646</v>
+        <v>7.429370863622861</v>
       </c>
       <c r="P7" t="n">
-        <v>65.65101806600609</v>
+        <v>102.1229698224801</v>
       </c>
       <c r="Q7" t="n">
-        <v>2435.415860391921</v>
+        <v>814.5702650435171</v>
       </c>
       <c r="R7" t="n">
-        <v>12.56252775912194</v>
+        <v>11.43050407486047</v>
       </c>
       <c r="S7" t="n">
-        <v>127.2383216092635</v>
+        <v>114.6320229092179</v>
       </c>
       <c r="T7" t="n">
-        <v>2630.002663830502</v>
+        <v>1233.033958988445</v>
       </c>
       <c r="U7" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="V7" t="n">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>17.87954950956315</v>
+        <v>0.5239447757684026</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.1566877471516216</v>
+        <v>0.6864658697353573</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.4841660481112962</v>
+        <v>62.13939873449261</v>
       </c>
       <c r="AA7" t="n">
-        <v>4.381801668863203</v>
+        <v>0.533247840668861</v>
       </c>
       <c r="AB7" t="n">
-        <v>1211.257343797968</v>
+        <v>0.4932746013369157</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.148730520534753</v>
+        <v>0.1478974793935806</v>
       </c>
       <c r="AD7" t="n">
-        <v>3630.229544165223</v>
+        <v>0.195814271500819</v>
       </c>
       <c r="AE7" t="n">
-        <v>924.6964557047195</v>
+        <v>18.61384274580447</v>
       </c>
       <c r="AF7" t="n">
-        <v>-373.4566227445665</v>
+        <v>0.1575955035602739</v>
       </c>
       <c r="AG7" t="n">
-        <v>-6.091235210346881</v>
+        <v>0.1977495463414926</v>
       </c>
       <c r="AH7" t="n">
-        <v>-32.17694901487113</v>
+        <v>-857.729442387488</v>
       </c>
       <c r="AI7" t="n">
-        <v>-2356.489036924979</v>
+        <v>-809.1175049589342</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-3.000607475402148</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-4.885960280145803</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-95.11344531950667</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-632.5582625170825</v>
       </c>
     </row>
     <row r="8">
@@ -1137,103 +1217,115 @@
         <v>30</v>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>10.21484236709439</v>
+        <v>10.15532986993831</v>
       </c>
       <c r="E8" t="n">
-        <v>108.0793671982812</v>
+        <v>110.6314183778457</v>
       </c>
       <c r="F8" t="n">
-        <v>2593.760383723056</v>
+        <v>2514.610707500328</v>
       </c>
       <c r="G8" t="n">
-        <v>442397.6329939531</v>
+        <v>441730.8152296845</v>
       </c>
       <c r="H8" t="n">
-        <v>447613.9569775097</v>
+        <v>443271.3762423107</v>
       </c>
       <c r="I8" t="n">
-        <v>-6012.931670070925</v>
+        <v>2665.936574200261</v>
       </c>
       <c r="J8" t="n">
-        <v>5249.947262972824</v>
+        <v>8960.98610296315</v>
       </c>
       <c r="K8" t="n">
-        <v>-3718.050808810182</v>
+        <v>-2427.108996833475</v>
       </c>
       <c r="L8" t="n">
-        <v>1.713094314362787</v>
+        <v>2.587381258034207</v>
       </c>
       <c r="M8" t="n">
-        <v>29.54887087876645</v>
+        <v>20.45182331344767</v>
       </c>
       <c r="N8" t="n">
-        <v>186.3044255197823</v>
+        <v>87.53354868027137</v>
       </c>
       <c r="O8" t="n">
-        <v>6.958050346438795</v>
+        <v>6.825526119599803</v>
       </c>
       <c r="P8" t="n">
-        <v>67.98320423136924</v>
+        <v>85.18573782214166</v>
       </c>
       <c r="Q8" t="n">
-        <v>2262.812606146733</v>
+        <v>950.6969992591067</v>
       </c>
       <c r="R8" t="n">
-        <v>13.86518062543241</v>
+        <v>11.5694774470593</v>
       </c>
       <c r="S8" t="n">
-        <v>138.5529129656768</v>
+        <v>142.473689756844</v>
       </c>
       <c r="T8" t="n">
-        <v>2771.715841651383</v>
+        <v>1447.264294243562</v>
       </c>
       <c r="U8" t="n">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="V8" t="n">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="W8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>33.51033108715487</v>
+        <v>0.6275075231260421</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.1833197333906917</v>
+        <v>1.394967252556748</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.584731725660023</v>
+        <v>65.82112929783678</v>
       </c>
       <c r="AA8" t="n">
-        <v>8.283409825216118</v>
+        <v>0.689036297634255</v>
       </c>
       <c r="AB8" t="n">
-        <v>2180.834115005642</v>
+        <v>0.5352672014766395</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1803418248428608</v>
+        <v>0.1751772916822978</v>
       </c>
       <c r="AD8" t="n">
-        <v>-158.8794166822954</v>
+        <v>0.307426964536337</v>
       </c>
       <c r="AE8" t="n">
-        <v>-324.0861077667383</v>
+        <v>19.56342316939039</v>
       </c>
       <c r="AF8" t="n">
-        <v>-2164.183454705832</v>
+        <v>0.3627870124199976</v>
       </c>
       <c r="AG8" t="n">
-        <v>-5.24495603207601</v>
+        <v>0.3115578337601054</v>
       </c>
       <c r="AH8" t="n">
-        <v>-38.43433335260275</v>
+        <v>-1631.886532755505</v>
       </c>
       <c r="AI8" t="n">
-        <v>-2076.508180626951</v>
+        <v>121.4407973992268</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-1361.301039526727</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-4.238144861565596</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-64.733914508694</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-863.1634505788355</v>
       </c>
     </row>
     <row r="9">
@@ -1244,103 +1336,115 @@
         <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>10.35448846930852</v>
+        <v>10.23242139872544</v>
       </c>
       <c r="E9" t="n">
-        <v>111.8644816397852</v>
+        <v>109.0298060632449</v>
       </c>
       <c r="F9" t="n">
-        <v>2577.316304354341</v>
+        <v>2509.00614524183</v>
       </c>
       <c r="G9" t="n">
-        <v>432335.5204872603</v>
+        <v>440773.5656096587</v>
       </c>
       <c r="H9" t="n">
-        <v>427840.2274599742</v>
+        <v>449542.484662499</v>
       </c>
       <c r="I9" t="n">
-        <v>8152.050702452073</v>
+        <v>236.6034640177215</v>
       </c>
       <c r="J9" t="n">
-        <v>17419.57836276784</v>
+        <v>9541.562873552626</v>
       </c>
       <c r="K9" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3539.240717324648</v>
       </c>
       <c r="L9" t="n">
-        <v>2.089887349714714</v>
+        <v>1.934392074399286</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54681361258973</v>
+        <v>19.22859618634168</v>
       </c>
       <c r="N9" t="n">
-        <v>287.1884855745684</v>
+        <v>156.3989826591794</v>
       </c>
       <c r="O9" t="n">
-        <v>6.511720479073131</v>
+        <v>7.989157447851484</v>
       </c>
       <c r="P9" t="n">
-        <v>76.15855100726436</v>
+        <v>89.81827264517875</v>
       </c>
       <c r="Q9" t="n">
-        <v>1854.925977779084</v>
+        <v>991.6849429415187</v>
       </c>
       <c r="R9" t="n">
-        <v>15.68906678184133</v>
+        <v>13.35517556138897</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1344992003613</v>
+        <v>147.5392659737067</v>
       </c>
       <c r="T9" t="n">
-        <v>3147.872351327647</v>
+        <v>1741.18715469318</v>
       </c>
       <c r="U9" t="n">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="V9" t="n">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="W9" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="X9" t="n">
-        <v>277.5893643532232</v>
+        <v>0.7100988868702032</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2069790186326892</v>
+        <v>1.528595742827275</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.6541673233208515</v>
+        <v>75.44387616024881</v>
       </c>
       <c r="AA9" t="n">
-        <v>79.31619651087459</v>
+        <v>0.7722634906857346</v>
       </c>
       <c r="AB9" t="n">
-        <v>2333.976169942221</v>
+        <v>0.6508368577615369</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.240641237970606</v>
+        <v>0.1969237236876234</v>
       </c>
       <c r="AD9" t="n">
-        <v>-265.2154448024653</v>
+        <v>0.3477921068207697</v>
       </c>
       <c r="AE9" t="n">
-        <v>10071.4188051418</v>
+        <v>21.88752129500655</v>
       </c>
       <c r="AF9" t="n">
-        <v>-920.3318799055849</v>
+        <v>0.8647319218667323</v>
       </c>
       <c r="AG9" t="n">
-        <v>-4.421833129358419</v>
+        <v>0.4347322941363821</v>
       </c>
       <c r="AH9" t="n">
-        <v>-63.61173739467461</v>
+        <v>-123.79460945274</v>
       </c>
       <c r="AI9" t="n">
-        <v>-1567.737492204516</v>
+        <v>-16.23524425939809</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-2232.919588014834</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-6.054765373452199</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-70.58967645883706</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-835.2859602823394</v>
       </c>
     </row>
     <row r="10">
@@ -1351,103 +1455,115 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>10.44817209199018</v>
+        <v>10.23037816347051</v>
       </c>
       <c r="E10" t="n">
-        <v>113.9202034035437</v>
+        <v>109.2131151130838</v>
       </c>
       <c r="F10" t="n">
-        <v>2591.580975062121</v>
+        <v>2610.708949424297</v>
       </c>
       <c r="G10" t="n">
-        <v>415009.4351793636</v>
+        <v>427749.5213933691</v>
       </c>
       <c r="H10" t="n">
-        <v>423264.6915800727</v>
+        <v>441983.0482839231</v>
       </c>
       <c r="I10" t="n">
-        <v>17565.85311104178</v>
+        <v>6531.727839896691</v>
       </c>
       <c r="J10" t="n">
-        <v>17531.99204073843</v>
+        <v>9541.562873552626</v>
       </c>
       <c r="K10" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3365.433607582921</v>
       </c>
       <c r="L10" t="n">
-        <v>2.357086327169701</v>
+        <v>1.804410619121152</v>
       </c>
       <c r="M10" t="n">
-        <v>15.72003093829028</v>
+        <v>13.08248728367574</v>
       </c>
       <c r="N10" t="n">
-        <v>305.850414620586</v>
+        <v>151.9692682132481</v>
       </c>
       <c r="O10" t="n">
-        <v>6.758998085571286</v>
+        <v>7.398161807167828</v>
       </c>
       <c r="P10" t="n">
-        <v>58.45045275006646</v>
+        <v>78.37154183786363</v>
       </c>
       <c r="Q10" t="n">
-        <v>2188.60291486007</v>
+        <v>665.3933110724074</v>
       </c>
       <c r="R10" t="n">
-        <v>16.66954341224413</v>
+        <v>13.7440940663925</v>
       </c>
       <c r="S10" t="n">
-        <v>153.5516587831245</v>
+        <v>150.2780751619408</v>
       </c>
       <c r="T10" t="n">
-        <v>3683.993137493906</v>
+        <v>1887.577498668526</v>
       </c>
       <c r="U10" t="n">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="V10" t="n">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="W10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X10" t="n">
-        <v>286.9163752882691</v>
+        <v>0.8082235281911708</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.2218130893040787</v>
+        <v>1.869275765152513</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7145310406459426</v>
+        <v>82.3502345342675</v>
       </c>
       <c r="AA10" t="n">
-        <v>81.44903252169857</v>
+        <v>0.8679804714523639</v>
       </c>
       <c r="AB10" t="n">
-        <v>2684.553171994336</v>
+        <v>0.757293768864901</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.273021651157655</v>
+        <v>0.2200211921590034</v>
       </c>
       <c r="AD10" t="n">
-        <v>-3968.739298500612</v>
+        <v>0.4054100234449412</v>
       </c>
       <c r="AE10" t="n">
-        <v>-97.91971751881113</v>
+        <v>22.5824053483093</v>
       </c>
       <c r="AF10" t="n">
-        <v>-8161.233355277975</v>
+        <v>1.227020280178986</v>
       </c>
       <c r="AG10" t="n">
-        <v>-4.401911758401586</v>
+        <v>1.561045576286279</v>
       </c>
       <c r="AH10" t="n">
-        <v>-42.73042181177615</v>
+        <v>-1551.170865677709</v>
       </c>
       <c r="AI10" t="n">
-        <v>-1882.752500239483</v>
+        <v>1251.45451933711</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>-2861.25907178167</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-5.593751188046676</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-65.28905455418789</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-513.4240428591595</v>
       </c>
     </row>
     <row r="11">
@@ -1458,103 +1574,115 @@
         <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>10.46532787138565</v>
+        <v>10.31138424572111</v>
       </c>
       <c r="E11" t="n">
-        <v>114.179819450169</v>
+        <v>109.9126333055017</v>
       </c>
       <c r="F11" t="n">
-        <v>2600.533046284677</v>
+        <v>2605.505420020746</v>
       </c>
       <c r="G11" t="n">
-        <v>410133.7147020829</v>
+        <v>412675.4728928361</v>
       </c>
       <c r="H11" t="n">
-        <v>419580.4683955502</v>
+        <v>437956.8827304508</v>
       </c>
       <c r="I11" t="n">
-        <v>23279.34220534558</v>
+        <v>20830.51549606761</v>
       </c>
       <c r="J11" t="n">
-        <v>17531.99204073843</v>
+        <v>9633.265908602129</v>
       </c>
       <c r="K11" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L11" t="n">
-        <v>1.985856853924677</v>
+        <v>2.488974956335392</v>
       </c>
       <c r="M11" t="n">
-        <v>16.98179373800409</v>
+        <v>18.22384729386551</v>
       </c>
       <c r="N11" t="n">
-        <v>364.6082943140486</v>
+        <v>191.1826978026722</v>
       </c>
       <c r="O11" t="n">
-        <v>7.054883825448607</v>
+        <v>7.251074748301422</v>
       </c>
       <c r="P11" t="n">
-        <v>55.62857978306469</v>
+        <v>72.5254799467623</v>
       </c>
       <c r="Q11" t="n">
-        <v>2087.70564266138</v>
+        <v>1024.881494458768</v>
       </c>
       <c r="R11" t="n">
-        <v>17.44986230025173</v>
+        <v>15.32308290055542</v>
       </c>
       <c r="S11" t="n">
-        <v>162.9106757910372</v>
+        <v>171.3120235596964</v>
       </c>
       <c r="T11" t="n">
-        <v>3911.690187579643</v>
+        <v>2464.213397776463</v>
       </c>
       <c r="U11" t="n">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="V11" t="n">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="W11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X11" t="n">
-        <v>320.8615804293453</v>
+        <v>0.8907007852069055</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.2422974815653993</v>
+        <v>2.339233350886015</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7602139781430955</v>
+        <v>91.76918162046881</v>
       </c>
       <c r="AA11" t="n">
-        <v>90.88084567894522</v>
+        <v>0.9610902673826713</v>
       </c>
       <c r="AB11" t="n">
-        <v>2976.253010005516</v>
+        <v>0.8333650970426268</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.902845814020194</v>
+        <v>0.2407395645869428</v>
       </c>
       <c r="AD11" t="n">
-        <v>-3517.58066550584</v>
+        <v>0.4931925476451736</v>
       </c>
       <c r="AE11" t="n">
-        <v>-138.9667064044488</v>
+        <v>24.94251580964718</v>
       </c>
       <c r="AF11" t="n">
-        <v>-7886.294928267356</v>
+        <v>1.769545111872959</v>
       </c>
       <c r="AG11" t="n">
-        <v>-5.069026971523932</v>
+        <v>1.592078302543835</v>
       </c>
       <c r="AH11" t="n">
-        <v>-38.64678604506057</v>
+        <v>12.03357335335761</v>
       </c>
       <c r="AI11" t="n">
-        <v>-1723.097348347331</v>
+        <v>-2356.663053552434</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>539.9820917440807</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>-4.762099791966029</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-54.30163265289679</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-833.6987966560964</v>
       </c>
     </row>
     <row r="12">
@@ -1565,103 +1693,115 @@
         <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>10.50394224736602</v>
+        <v>10.42871320458988</v>
       </c>
       <c r="E12" t="n">
-        <v>117.3273738181994</v>
+        <v>114.3531415835095</v>
       </c>
       <c r="F12" t="n">
-        <v>2607.44798005299</v>
+        <v>2611.775179030877</v>
       </c>
       <c r="G12" t="n">
-        <v>392459.881536991</v>
+        <v>398752.6990381446</v>
       </c>
       <c r="H12" t="n">
-        <v>409717.3532928825</v>
+        <v>435923.266428931</v>
       </c>
       <c r="I12" t="n">
-        <v>38569.90593126529</v>
+        <v>17213.91538773937</v>
       </c>
       <c r="J12" t="n">
-        <v>17531.99204073843</v>
+        <v>10373.41642233852</v>
       </c>
       <c r="K12" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L12" t="n">
-        <v>1.528866563554375</v>
+        <v>2.292890549893353</v>
       </c>
       <c r="M12" t="n">
-        <v>20.40522803422638</v>
+        <v>10.5238371454473</v>
       </c>
       <c r="N12" t="n">
-        <v>364.6082943140486</v>
+        <v>200.514220396638</v>
       </c>
       <c r="O12" t="n">
-        <v>8.675199889657796</v>
+        <v>7.68853477560411</v>
       </c>
       <c r="P12" t="n">
-        <v>72.23711779806096</v>
+        <v>91.58691380055049</v>
       </c>
       <c r="Q12" t="n">
-        <v>1651.674696256777</v>
+        <v>1706.73877438282</v>
       </c>
       <c r="R12" t="n">
-        <v>19.52527426848709</v>
+        <v>16.32688287484969</v>
       </c>
       <c r="S12" t="n">
-        <v>198.3570188751589</v>
+        <v>191.3584863005261</v>
       </c>
       <c r="T12" t="n">
-        <v>4088.812412962917</v>
+        <v>3175.056262170034</v>
       </c>
       <c r="U12" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="V12" t="n">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="W12" t="n">
         <v>21</v>
       </c>
       <c r="X12" t="n">
-        <v>327.6822675593097</v>
+        <v>0.9398903552978469</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.2779500790995986</v>
+        <v>2.554863149353971</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.8154539447115674</v>
+        <v>95.50362704862762</v>
       </c>
       <c r="AA12" t="n">
-        <v>90.90740065679044</v>
+        <v>1.01439373657006</v>
       </c>
       <c r="AB12" t="n">
-        <v>3062.316047016877</v>
+        <v>0.9187827754813997</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.76707643452636</v>
+        <v>0.2575751161358809</v>
       </c>
       <c r="AD12" t="n">
-        <v>-836.1612567545649</v>
+        <v>0.5523755742596439</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1808.290643948916</v>
+        <v>26.0652218175444</v>
       </c>
       <c r="AF12" t="n">
-        <v>-7823.927648286389</v>
+        <v>1.78439169445041</v>
       </c>
       <c r="AG12" t="n">
-        <v>-7.146333326103424</v>
+        <v>1.619902917208909</v>
       </c>
       <c r="AH12" t="n">
-        <v>-51.83188976383457</v>
+        <v>1102.89703407282</v>
       </c>
       <c r="AI12" t="n">
-        <v>-1287.066401942728</v>
+        <v>-1254.069871952503</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>3.35346640539214</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>-5.395644225710758</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>-81.06307665510316</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-1506.224553986182</v>
       </c>
     </row>
     <row r="13">
@@ -1672,103 +1812,115 @@
         <v>30</v>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>10.54285187517593</v>
+        <v>10.52610087859865</v>
       </c>
       <c r="E13" t="n">
-        <v>117.8056082339394</v>
+        <v>114.2065507656762</v>
       </c>
       <c r="F13" t="n">
-        <v>2570.046258130489</v>
+        <v>2565.189188713765</v>
       </c>
       <c r="G13" t="n">
-        <v>395845.5041235676</v>
+        <v>399753.9871891991</v>
       </c>
       <c r="H13" t="n">
-        <v>415718.7034833329</v>
+        <v>425262.2381008395</v>
       </c>
       <c r="I13" t="n">
-        <v>31462.41131381543</v>
+        <v>29508.55136913203</v>
       </c>
       <c r="J13" t="n">
-        <v>16873.38681005483</v>
+        <v>14303.13655617064</v>
       </c>
       <c r="K13" t="n">
-        <v>-10078.06321251285</v>
+        <v>-3267.391415574923</v>
       </c>
       <c r="L13" t="n">
-        <v>1.555306402691264</v>
+        <v>2.177811185465315</v>
       </c>
       <c r="M13" t="n">
-        <v>15.38748308720499</v>
+        <v>11.14651797650283</v>
       </c>
       <c r="N13" t="n">
-        <v>282.1896979393197</v>
+        <v>95.91716953409775</v>
       </c>
       <c r="O13" t="n">
-        <v>8.859582971517085</v>
+        <v>8.128582467308055</v>
       </c>
       <c r="P13" t="n">
-        <v>88.07985975142445</v>
+        <v>73.96126319578845</v>
       </c>
       <c r="Q13" t="n">
-        <v>2280.604377061798</v>
+        <v>1693.395584187122</v>
       </c>
       <c r="R13" t="n">
-        <v>19.92741102730383</v>
+        <v>17.14509739461553</v>
       </c>
       <c r="S13" t="n">
-        <v>242.987990968609</v>
+        <v>195.0693180749193</v>
       </c>
       <c r="T13" t="n">
-        <v>4895.617214167629</v>
+        <v>3183.654087893397</v>
       </c>
       <c r="U13" t="n">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="V13" t="n">
-        <v>410</v>
+        <v>443</v>
       </c>
       <c r="W13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X13" t="n">
-        <v>1009.309473251063</v>
+        <v>0.9702741355440293</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2977208055788586</v>
+        <v>2.811904900863905</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.8491498480280936</v>
+        <v>97.60471782743268</v>
       </c>
       <c r="AA13" t="n">
-        <v>294.743885433922</v>
+        <v>1.107977620072111</v>
       </c>
       <c r="AB13" t="n">
-        <v>3204.529976452763</v>
+        <v>0.9915210869573022</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.343395900783733</v>
+        <v>0.2724634872190396</v>
       </c>
       <c r="AD13" t="n">
-        <v>-78.54837235045318</v>
+        <v>0.5696001543669896</v>
       </c>
       <c r="AE13" t="n">
-        <v>993.1152151046458</v>
+        <v>26.64550746736813</v>
       </c>
       <c r="AF13" t="n">
-        <v>-8828.839649341477</v>
+        <v>1.852470345617122</v>
       </c>
       <c r="AG13" t="n">
-        <v>-7.304276568825824</v>
+        <v>1.705877216689719</v>
       </c>
       <c r="AH13" t="n">
-        <v>-72.69237666421947</v>
+        <v>138.3383177384089</v>
       </c>
       <c r="AI13" t="n">
-        <v>-1998.414679122478</v>
+        <v>-201.49758904445</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>-417.3424561608717</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>-5.950771281842741</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>-62.81474521928561</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-1597.478414653025</v>
       </c>
     </row>
     <row r="14">
@@ -1779,103 +1931,115 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>10.51845573916798</v>
+        <v>10.51937570452211</v>
       </c>
       <c r="E14" t="n">
-        <v>116.6407329147643</v>
+        <v>114.2496260104246</v>
       </c>
       <c r="F14" t="n">
-        <v>2618.511243898545</v>
+        <v>2561.952363467662</v>
       </c>
       <c r="G14" t="n">
-        <v>392921.1904821827</v>
+        <v>404020.7361028022</v>
       </c>
       <c r="H14" t="n">
-        <v>418267.5460068831</v>
+        <v>419411.6787843613</v>
       </c>
       <c r="I14" t="n">
-        <v>30394.66755721982</v>
+        <v>31698.48906509621</v>
       </c>
       <c r="J14" t="n">
-        <v>8976.133904358328</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K14" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L14" t="n">
-        <v>0.8333903033815636</v>
+        <v>2.160981948734069</v>
       </c>
       <c r="M14" t="n">
-        <v>11.43096401567053</v>
+        <v>9.379899073513299</v>
       </c>
       <c r="N14" t="n">
-        <v>166.1974300769496</v>
+        <v>96.16835881638609</v>
       </c>
       <c r="O14" t="n">
-        <v>8.226699486452729</v>
+        <v>5.322456445316017</v>
       </c>
       <c r="P14" t="n">
-        <v>86.77094375114498</v>
+        <v>64.05082320105316</v>
       </c>
       <c r="Q14" t="n">
-        <v>1978.600352402731</v>
+        <v>1292.375907428511</v>
       </c>
       <c r="R14" t="n">
-        <v>20.62287583239531</v>
+        <v>17.29470279742663</v>
       </c>
       <c r="S14" t="n">
-        <v>263.4272725719095</v>
+        <v>205.5877014322433</v>
       </c>
       <c r="T14" t="n">
-        <v>5134.920701933195</v>
+        <v>3233.423299545467</v>
       </c>
       <c r="U14" t="n">
-        <v>366</v>
+        <v>344</v>
       </c>
       <c r="V14" t="n">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="W14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="X14" t="n">
-        <v>1018.623087322053</v>
+        <v>1.053844774463666</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.3166676795227255</v>
+        <v>3.083380566658847</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.907711305936911</v>
+        <v>103.3071604783074</v>
       </c>
       <c r="AA14" t="n">
-        <v>295.7894304348903</v>
+        <v>1.240502715053421</v>
       </c>
       <c r="AB14" t="n">
-        <v>3215.840118232762</v>
+        <v>1.022335188989703</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.929243315648845</v>
+        <v>0.2896273422922128</v>
       </c>
       <c r="AD14" t="n">
-        <v>-3082.488293451087</v>
+        <v>0.590074384537088</v>
       </c>
       <c r="AE14" t="n">
-        <v>-369.6021150615225</v>
+        <v>27.05973540697687</v>
       </c>
       <c r="AF14" t="n">
-        <v>42.84383391256912</v>
+        <v>1.966532393191972</v>
       </c>
       <c r="AG14" t="n">
-        <v>-7.393309183071167</v>
+        <v>3.006197590043774</v>
       </c>
       <c r="AH14" t="n">
-        <v>-75.33997973547447</v>
+        <v>-6243.758131956007</v>
       </c>
       <c r="AI14" t="n">
-        <v>-1812.402922325781</v>
+        <v>353.2953979583981</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>44.15155095339077</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>-3.161474496581948</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>-54.67092412753987</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>-1196.207548612126</v>
       </c>
     </row>
     <row r="15">
@@ -1886,103 +2050,115 @@
         <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>10.47213357773278</v>
+        <v>10.61148274363982</v>
       </c>
       <c r="E15" t="n">
-        <v>117.0189755460205</v>
+        <v>114.4969321927957</v>
       </c>
       <c r="F15" t="n">
-        <v>2623.47866794929</v>
+        <v>2551.5090728952</v>
       </c>
       <c r="G15" t="n">
-        <v>391540.3466699791</v>
+        <v>402374.816033115</v>
       </c>
       <c r="H15" t="n">
-        <v>425492.9264150987</v>
+        <v>418699.82538634</v>
       </c>
       <c r="I15" t="n">
-        <v>24953.68076139909</v>
+        <v>30927.10899308557</v>
       </c>
       <c r="J15" t="n">
-        <v>8976.133904358328</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K15" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L15" t="n">
-        <v>1.107857924424531</v>
+        <v>1.817989276993447</v>
       </c>
       <c r="M15" t="n">
-        <v>13.50302829244722</v>
+        <v>9.419975889257605</v>
       </c>
       <c r="N15" t="n">
-        <v>169.622179141327</v>
+        <v>88.05992759841639</v>
       </c>
       <c r="O15" t="n">
-        <v>9.351192945351652</v>
+        <v>7.001887378552367</v>
       </c>
       <c r="P15" t="n">
-        <v>102.7398862018964</v>
+        <v>103.4258539090425</v>
       </c>
       <c r="Q15" t="n">
-        <v>1796.467174912383</v>
+        <v>1591.93612713938</v>
       </c>
       <c r="R15" t="n">
-        <v>22.9923893146394</v>
+        <v>19.01517418134755</v>
       </c>
       <c r="S15" t="n">
-        <v>287.5107320615608</v>
+        <v>246.524869178965</v>
       </c>
       <c r="T15" t="n">
-        <v>5204.530078997737</v>
+        <v>3712.07541094363</v>
       </c>
       <c r="U15" t="n">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="V15" t="n">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="W15" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="X15" t="n">
-        <v>1022.136308600986</v>
+        <v>1.084997027632607</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.3242500212199959</v>
+        <v>3.173246513997133</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.9286940488004214</v>
+        <v>106.1431417342553</v>
       </c>
       <c r="AA15" t="n">
-        <v>296.0106186535587</v>
+        <v>1.321845271619378</v>
       </c>
       <c r="AB15" t="n">
-        <v>3226.22660190858</v>
+        <v>1.154844798029503</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.66625528406282</v>
+        <v>0.3015356444584359</v>
       </c>
       <c r="AD15" t="n">
-        <v>-82.57812515808473</v>
+        <v>0.6096695562102988</v>
       </c>
       <c r="AE15" t="n">
-        <v>219.7184106082905</v>
+        <v>27.4101015330883</v>
       </c>
       <c r="AF15" t="n">
-        <v>-261.9604224665916</v>
+        <v>2.000432769416709</v>
       </c>
       <c r="AG15" t="n">
-        <v>-8.243335020927127</v>
+        <v>3.541683100486424</v>
       </c>
       <c r="AH15" t="n">
-        <v>-89.23685790944923</v>
+        <v>-38.79140051905802</v>
       </c>
       <c r="AI15" t="n">
-        <v>-1626.844995771056</v>
+        <v>47.72688063736382</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>741.4358788217885</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-5.183898101558921</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-94.00587801978492</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-1503.876199540963</v>
       </c>
     </row>
     <row r="16">
@@ -1993,103 +2169,115 @@
         <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>10.52004998168837</v>
+        <v>10.61427373735652</v>
       </c>
       <c r="E16" t="n">
-        <v>116.3786657458281</v>
+        <v>114.7861445195017</v>
       </c>
       <c r="F16" t="n">
-        <v>2633.968957232898</v>
+        <v>2548.22409665303</v>
       </c>
       <c r="G16" t="n">
-        <v>393376.4966946444</v>
+        <v>402307.8609940596</v>
       </c>
       <c r="H16" t="n">
-        <v>414507.4620966939</v>
+        <v>421849.2990340008</v>
       </c>
       <c r="I16" t="n">
-        <v>33004.10313942834</v>
+        <v>27299.1523993884</v>
       </c>
       <c r="J16" t="n">
-        <v>8826.077514296294</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K16" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7544.565951440592</v>
       </c>
       <c r="L16" t="n">
-        <v>0.8199963851514861</v>
+        <v>1.847373446186503</v>
       </c>
       <c r="M16" t="n">
-        <v>7.860783580699463</v>
+        <v>10.25088446981127</v>
       </c>
       <c r="N16" t="n">
-        <v>143.8565148084834</v>
+        <v>88.17582597320946</v>
       </c>
       <c r="O16" t="n">
-        <v>7.869495362647831</v>
+        <v>6.258228432825433</v>
       </c>
       <c r="P16" t="n">
-        <v>95.76479770004131</v>
+        <v>95.7386269500175</v>
       </c>
       <c r="Q16" t="n">
-        <v>1935.473420326544</v>
+        <v>1319.527962900055</v>
       </c>
       <c r="R16" t="n">
-        <v>23.61736209353284</v>
+        <v>19.32696419831531</v>
       </c>
       <c r="S16" t="n">
-        <v>294.842637032991</v>
+        <v>247.8030732918299</v>
       </c>
       <c r="T16" t="n">
-        <v>5409.744488836779</v>
+        <v>3737.964430604053</v>
       </c>
       <c r="U16" t="n">
-        <v>435</v>
+        <v>400</v>
       </c>
       <c r="V16" t="n">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="W16" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X16" t="n">
-        <v>1024.535678901276</v>
+        <v>1.161720419064896</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.3445731751939929</v>
+        <v>3.359127511226549</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.9835579754856774</v>
+        <v>109.2471997816387</v>
       </c>
       <c r="AA16" t="n">
-        <v>296.3922073181441</v>
+        <v>1.434293161123701</v>
       </c>
       <c r="AB16" t="n">
-        <v>3236.070191926099</v>
+        <v>1.278664386320006</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.733003283552908</v>
+        <v>0.322962496309922</v>
       </c>
       <c r="AD16" t="n">
-        <v>930.5665827111477</v>
+        <v>0.6401425056504438</v>
       </c>
       <c r="AE16" t="n">
-        <v>-66.76117077552692</v>
+        <v>27.45780994807661</v>
       </c>
       <c r="AF16" t="n">
-        <v>-349.2502431457059</v>
+        <v>2.127992579605659</v>
       </c>
       <c r="AG16" t="n">
-        <v>-7.04949897749635</v>
+        <v>4.395394048169531</v>
       </c>
       <c r="AH16" t="n">
-        <v>-87.90401411934189</v>
+        <v>5.677629479433108</v>
       </c>
       <c r="AI16" t="n">
-        <v>-1791.61690551806</v>
+        <v>169.3247280580565</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>47.1888528517093</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>-4.410854986638931</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>-85.48774248020624</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>-1231.352136926846</v>
       </c>
     </row>
     <row r="17">
@@ -2100,103 +2288,115 @@
         <v>30</v>
       </c>
       <c r="C17" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>10.43177635630219</v>
+        <v>10.6023469633512</v>
       </c>
       <c r="E17" t="n">
-        <v>116.4195822736519</v>
+        <v>114.8184887693308</v>
       </c>
       <c r="F17" t="n">
-        <v>2636.73085861044</v>
+        <v>2510.257584441275</v>
       </c>
       <c r="G17" t="n">
-        <v>395937.1216702434</v>
+        <v>405926.4534960717</v>
       </c>
       <c r="H17" t="n">
-        <v>413888.6834073879</v>
+        <v>423219.936012344</v>
       </c>
       <c r="I17" t="n">
-        <v>34731.52264623069</v>
+        <v>28243.42609645792</v>
       </c>
       <c r="J17" t="n">
-        <v>8826.077514296294</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K17" t="n">
-        <v>-10078.06321251285</v>
+        <v>-7553.358966383371</v>
       </c>
       <c r="L17" t="n">
-        <v>1.111946062086297</v>
+        <v>1.793829561133238</v>
       </c>
       <c r="M17" t="n">
-        <v>7.880488515688974</v>
+        <v>8.440006052131206</v>
       </c>
       <c r="N17" t="n">
-        <v>108.8432624842059</v>
+        <v>77.87405304761583</v>
       </c>
       <c r="O17" t="n">
-        <v>9.189478635829966</v>
+        <v>7.49562484258337</v>
       </c>
       <c r="P17" t="n">
-        <v>98.50721058524194</v>
+        <v>106.2821580588817</v>
       </c>
       <c r="Q17" t="n">
-        <v>2430.343700884845</v>
+        <v>1032.91082971834</v>
       </c>
       <c r="R17" t="n">
-        <v>25.66077038312877</v>
+        <v>22.0050197567495</v>
       </c>
       <c r="S17" t="n">
-        <v>313.61328403453</v>
+        <v>260.7087996389029</v>
       </c>
       <c r="T17" t="n">
-        <v>5970.734258012134</v>
+        <v>3829.639464986581</v>
       </c>
       <c r="U17" t="n">
-        <v>465</v>
+        <v>428</v>
       </c>
       <c r="V17" t="n">
-        <v>530</v>
+        <v>582</v>
       </c>
       <c r="W17" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="X17" t="n">
-        <v>1026.022784565902</v>
+        <v>1.267336132861995</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.3665071340122938</v>
+        <v>3.519208920457781</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.9933294898347585</v>
+        <v>113.2037306689706</v>
       </c>
       <c r="AA17" t="n">
-        <v>296.5195519851801</v>
+        <v>1.53595574055351</v>
       </c>
       <c r="AB17" t="n">
-        <v>3245.399276241457</v>
+        <v>1.329931630332336</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.756348079299044</v>
+        <v>0.3502718135353965</v>
       </c>
       <c r="AD17" t="n">
-        <v>-233.6628454358969</v>
+        <v>0.6760607921537857</v>
       </c>
       <c r="AE17" t="n">
-        <v>300.1741532298902</v>
+        <v>27.51198836357578</v>
       </c>
       <c r="AF17" t="n">
-        <v>-684.907672352064</v>
+        <v>3.06628085483654</v>
       </c>
       <c r="AG17" t="n">
-        <v>-8.077532573743676</v>
+        <v>4.652247103851357</v>
       </c>
       <c r="AH17" t="n">
-        <v>-90.62672206955298</v>
+        <v>-5930.011451943426</v>
       </c>
       <c r="AI17" t="n">
-        <v>-2321.500438400638</v>
+        <v>-951.6977293490174</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>909.9182280510236</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>-5.701795281450131</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>-97.84215200675052</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-955.036776670725</v>
       </c>
     </row>
     <row r="18">
@@ -2207,103 +2407,115 @@
         <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>10.44775088684252</v>
+        <v>10.57441312608655</v>
       </c>
       <c r="E18" t="n">
-        <v>116.761031730663</v>
+        <v>114.9134381931953</v>
       </c>
       <c r="F18" t="n">
-        <v>2635.444735951334</v>
+        <v>2519.903871231321</v>
       </c>
       <c r="G18" t="n">
-        <v>389563.9484987684</v>
+        <v>404212.523304916</v>
       </c>
       <c r="H18" t="n">
-        <v>413561.534791411</v>
+        <v>424422.6259812755</v>
       </c>
       <c r="I18" t="n">
-        <v>40122.50857129061</v>
+        <v>28197.25800874751</v>
       </c>
       <c r="J18" t="n">
-        <v>17619.5806134451</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K18" t="n">
-        <v>-7755.898616816266</v>
+        <v>-7538.885059856301</v>
       </c>
       <c r="L18" t="n">
-        <v>1.992140335035873</v>
+        <v>1.534058718677581</v>
       </c>
       <c r="M18" t="n">
-        <v>7.933297954743326</v>
+        <v>5.478849511864888</v>
       </c>
       <c r="N18" t="n">
-        <v>230.5834671604196</v>
+        <v>87.25099050776576</v>
       </c>
       <c r="O18" t="n">
-        <v>7.95729798072312</v>
+        <v>8.934796397013033</v>
       </c>
       <c r="P18" t="n">
-        <v>53.17993329429243</v>
+        <v>107.7696618286752</v>
       </c>
       <c r="Q18" t="n">
-        <v>1734.034823290463</v>
+        <v>961.1363194592351</v>
       </c>
       <c r="R18" t="n">
-        <v>27.36542801440572</v>
+        <v>23.83796922962313</v>
       </c>
       <c r="S18" t="n">
-        <v>314.1217618375062</v>
+        <v>262.3106535383731</v>
       </c>
       <c r="T18" t="n">
-        <v>6181.855845379342</v>
+        <v>3886.889984987616</v>
       </c>
       <c r="U18" t="n">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="V18" t="n">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="W18" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X18" t="n">
-        <v>1053.539984603121</v>
+        <v>1.332938629352797</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.3858388004040815</v>
+        <v>3.612545029390098</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.003001250817635</v>
+        <v>115.1612065068135</v>
       </c>
       <c r="AA18" t="n">
-        <v>302.221519473785</v>
+        <v>1.629081657534843</v>
       </c>
       <c r="AB18" t="n">
-        <v>3254.727635251728</v>
+        <v>1.432709685826687</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.415489090372434</v>
+        <v>0.3639524498682786</v>
       </c>
       <c r="AD18" t="n">
-        <v>-3129.82945781037</v>
+        <v>0.7102342612368523</v>
       </c>
       <c r="AE18" t="n">
-        <v>-2258.293242180572</v>
+        <v>27.75089364011599</v>
       </c>
       <c r="AF18" t="n">
-        <v>-0.2025654507005736</v>
+        <v>3.094703457258056</v>
       </c>
       <c r="AG18" t="n">
-        <v>-5.965157645687254</v>
+        <v>5.030760644196219</v>
       </c>
       <c r="AH18" t="n">
-        <v>-45.24663533954912</v>
+        <v>70.51325653666981</v>
       </c>
       <c r="AI18" t="n">
-        <v>-1503.451356130042</v>
+        <v>-700.2895422884012</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>-7.963391997984957</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>-7.400737678335452</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>-102.2908123168103</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-873.8853289514698</v>
       </c>
     </row>
     <row r="19">
@@ -2314,103 +2526,115 @@
         <v>30</v>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>10.53086477510476</v>
+        <v>10.6282376615674</v>
       </c>
       <c r="E19" t="n">
-        <v>117.9228338490946</v>
+        <v>111.8950517189497</v>
       </c>
       <c r="F19" t="n">
-        <v>2638.754859889357</v>
+        <v>2567.14897319383</v>
       </c>
       <c r="G19" t="n">
-        <v>387885.9585816869</v>
+        <v>402346.0862718241</v>
       </c>
       <c r="H19" t="n">
-        <v>406969.1324314345</v>
+        <v>424498.3826465832</v>
       </c>
       <c r="I19" t="n">
-        <v>41023.64757674289</v>
+        <v>30523.06248458755</v>
       </c>
       <c r="J19" t="n">
-        <v>17619.5806134451</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K19" t="n">
-        <v>-7359.640827481939</v>
+        <v>-7538.885059856301</v>
       </c>
       <c r="L19" t="n">
-        <v>1.385944554733979</v>
+        <v>1.22065648911664</v>
       </c>
       <c r="M19" t="n">
-        <v>10.18742865537628</v>
+        <v>8.964874950545251</v>
       </c>
       <c r="N19" t="n">
-        <v>213.4070413375156</v>
+        <v>88.6377191309072</v>
       </c>
       <c r="O19" t="n">
-        <v>9.089527925667811</v>
+        <v>9.119235604447393</v>
       </c>
       <c r="P19" t="n">
-        <v>86.23458863005985</v>
+        <v>102.3312991576946</v>
       </c>
       <c r="Q19" t="n">
-        <v>1284.615121395302</v>
+        <v>944.1640915258038</v>
       </c>
       <c r="R19" t="n">
-        <v>29.07893168025031</v>
+        <v>24.41383742681164</v>
       </c>
       <c r="S19" t="n">
-        <v>350.2767318872162</v>
+        <v>271.904133405262</v>
       </c>
       <c r="T19" t="n">
-        <v>6200.042934869585</v>
+        <v>3892.523657019864</v>
       </c>
       <c r="U19" t="n">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="V19" t="n">
-        <v>588</v>
+        <v>646</v>
       </c>
       <c r="W19" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X19" t="n">
-        <v>1061.40443437961</v>
+        <v>1.372608784425193</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.3985187869286174</v>
+        <v>4.054223755963108</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.031275044292527</v>
+        <v>115.4989005875776</v>
       </c>
       <c r="AA19" t="n">
-        <v>303.1330216078215</v>
+        <v>1.732256484087411</v>
       </c>
       <c r="AB19" t="n">
-        <v>3262.846695029735</v>
+        <v>1.504985759991026</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.61352640564486</v>
+        <v>0.374457096066189</v>
       </c>
       <c r="AD19" t="n">
-        <v>97.47219709519777</v>
+        <v>0.807425372411432</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.8194286891564388</v>
+        <v>27.79083527332424</v>
       </c>
       <c r="AF19" t="n">
-        <v>44.12823292694338</v>
+        <v>3.192376316956905</v>
       </c>
       <c r="AG19" t="n">
-        <v>-7.703583370933838</v>
+        <v>5.083798552854526</v>
       </c>
       <c r="AH19" t="n">
-        <v>-76.04715997468358</v>
+        <v>-401.7107801072962</v>
       </c>
       <c r="AI19" t="n">
-        <v>-1071.208080057786</v>
+        <v>-47.60324316820925</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>-196.1737106077961</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>-7.898579115330755</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>-93.36642420714934</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-855.526372394897</v>
       </c>
     </row>
     <row r="20">
@@ -2421,103 +2645,115 @@
         <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>10.5653311602356</v>
+        <v>10.61938820322059</v>
       </c>
       <c r="E20" t="n">
-        <v>118.4806656766589</v>
+        <v>113.5438432031328</v>
       </c>
       <c r="F20" t="n">
-        <v>2648.371860863803</v>
+        <v>2595.02105500766</v>
       </c>
       <c r="G20" t="n">
-        <v>380013.6861755698</v>
+        <v>397622.2064680613</v>
       </c>
       <c r="H20" t="n">
-        <v>407256.518459279</v>
+        <v>406466.3936025446</v>
       </c>
       <c r="I20" t="n">
-        <v>44336.89212245062</v>
+        <v>44693.61893886674</v>
       </c>
       <c r="J20" t="n">
-        <v>17268.91629620187</v>
+        <v>14828.1475843743</v>
       </c>
       <c r="K20" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7508.496668764988</v>
       </c>
       <c r="L20" t="n">
-        <v>1.389317865690596</v>
+        <v>1.141840636658923</v>
       </c>
       <c r="M20" t="n">
-        <v>8.485856113105184</v>
+        <v>6.525295855397931</v>
       </c>
       <c r="N20" t="n">
-        <v>168.2149781135884</v>
+        <v>146.2504039726653</v>
       </c>
       <c r="O20" t="n">
-        <v>8.444569683493683</v>
+        <v>6.691817816523151</v>
       </c>
       <c r="P20" t="n">
-        <v>94.59145918554</v>
+        <v>66.8026740199716</v>
       </c>
       <c r="Q20" t="n">
-        <v>1177.005203778731</v>
+        <v>1528.575306387607</v>
       </c>
       <c r="R20" t="n">
-        <v>29.7547439544804</v>
+        <v>24.62223535919051</v>
       </c>
       <c r="S20" t="n">
-        <v>358.9173283439183</v>
+        <v>279.9542760133959</v>
       </c>
       <c r="T20" t="n">
-        <v>6300.05699404975</v>
+        <v>4555.688536617764</v>
       </c>
       <c r="U20" t="n">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="V20" t="n">
-        <v>619</v>
+        <v>679</v>
       </c>
       <c r="W20" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="X20" t="n">
-        <v>1089.602401952697</v>
+        <v>1.443561036344688</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.4112079852974453</v>
+        <v>4.541273954965429</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.045837338203907</v>
+        <v>122.6793415175465</v>
       </c>
       <c r="AA20" t="n">
-        <v>311.0972923005434</v>
+        <v>1.865906141768355</v>
       </c>
       <c r="AB20" t="n">
-        <v>3270.329239483859</v>
+        <v>1.63107619941741</v>
       </c>
       <c r="AC20" t="n">
-        <v>11.04445735622604</v>
+        <v>0.3834182912478188</v>
       </c>
       <c r="AD20" t="n">
-        <v>-4237.102674786953</v>
+        <v>0.8292306449477098</v>
       </c>
       <c r="AE20" t="n">
-        <v>62.72730116560854</v>
+        <v>29.94774012317392</v>
       </c>
       <c r="AF20" t="n">
-        <v>-550.7212922742833</v>
+        <v>3.267426945367709</v>
       </c>
       <c r="AG20" t="n">
-        <v>-7.05525181780309</v>
+        <v>5.220531650275547</v>
       </c>
       <c r="AH20" t="n">
-        <v>-86.10560307243483</v>
+        <v>-351.5290828622672</v>
       </c>
       <c r="AI20" t="n">
-        <v>-1008.790225665141</v>
+        <v>-1250.504216650468</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>27.65514579052508</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>-5.549977179864228</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>-60.27737816457368</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-1382.324902414942</v>
       </c>
     </row>
     <row r="21">
@@ -2528,103 +2764,115 @@
         <v>30</v>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>10.60575058552497</v>
+        <v>10.60925231016511</v>
       </c>
       <c r="E21" t="n">
-        <v>118.2470962469659</v>
+        <v>113.9921202729461</v>
       </c>
       <c r="F21" t="n">
-        <v>2725.541986663385</v>
+        <v>2591.719584749997</v>
       </c>
       <c r="G21" t="n">
-        <v>358738.6824430191</v>
+        <v>391990.1142649456</v>
       </c>
       <c r="H21" t="n">
-        <v>407435.8651067704</v>
+        <v>408822.0019136232</v>
       </c>
       <c r="I21" t="n">
-        <v>54375.10608704867</v>
+        <v>47443.69491625723</v>
       </c>
       <c r="J21" t="n">
-        <v>17268.91629620187</v>
+        <v>15241.89667830019</v>
       </c>
       <c r="K21" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7508.496668764988</v>
       </c>
       <c r="L21" t="n">
-        <v>0.5954616035233995</v>
+        <v>1.141840636658923</v>
       </c>
       <c r="M21" t="n">
-        <v>6.498633407191151</v>
+        <v>6.514122786356847</v>
       </c>
       <c r="N21" t="n">
-        <v>159.5669916387692</v>
+        <v>136.5256573684555</v>
       </c>
       <c r="O21" t="n">
-        <v>7.67470069897412</v>
+        <v>8.04276045249402</v>
       </c>
       <c r="P21" t="n">
-        <v>102.9920848262839</v>
+        <v>69.51664341789885</v>
       </c>
       <c r="Q21" t="n">
-        <v>1710.403916083573</v>
+        <v>2174.352099339324</v>
       </c>
       <c r="R21" t="n">
-        <v>30.60898958128798</v>
+        <v>26.04454743081506</v>
       </c>
       <c r="S21" t="n">
-        <v>378.74792046287</v>
+        <v>288.2749109965895</v>
       </c>
       <c r="T21" t="n">
-        <v>7274.31801624455</v>
+        <v>5334.410213205101</v>
       </c>
       <c r="U21" t="n">
-        <v>584</v>
+        <v>543</v>
       </c>
       <c r="V21" t="n">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="W21" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X21" t="n">
-        <v>1095.424437994748</v>
+        <v>1.511855272024291</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.4296556458804881</v>
+        <v>4.61768867347537</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.082508123345061</v>
+        <v>125.6681713334089</v>
       </c>
       <c r="AA21" t="n">
-        <v>311.4307305462162</v>
+        <v>1.939038934205133</v>
       </c>
       <c r="AB21" t="n">
-        <v>3278.171349928906</v>
+        <v>1.691986642835098</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.48925558309703</v>
+        <v>0.3982911733358008</v>
       </c>
       <c r="AD21" t="n">
-        <v>839.398080356078</v>
+        <v>0.8405994273181453</v>
       </c>
       <c r="AE21" t="n">
-        <v>176.330668173759</v>
+        <v>30.49985977519959</v>
       </c>
       <c r="AF21" t="n">
-        <v>-623.0620011338901</v>
+        <v>3.644730485058164</v>
       </c>
       <c r="AG21" t="n">
-        <v>-7.079239095450723</v>
+        <v>5.245141395872938</v>
       </c>
       <c r="AH21" t="n">
-        <v>-96.49345141909276</v>
+        <v>-429.7046315232232</v>
       </c>
       <c r="AI21" t="n">
-        <v>-1550.836924444803</v>
+        <v>-123.8035173468845</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>43.73047329020687</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>-6.900919815835097</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>-63.00252063154198</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>-2037.826441970869</v>
       </c>
     </row>
     <row r="22">
@@ -2635,103 +2883,115 @@
         <v>30</v>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>10.61258638309419</v>
+        <v>10.53378994053169</v>
       </c>
       <c r="E22" t="n">
-        <v>118.9210643148733</v>
+        <v>114.1705087154545</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.307294907332</v>
+        <v>2581.181699456177</v>
       </c>
       <c r="G22" t="n">
-        <v>350677.0902462129</v>
+        <v>391049.6515388258</v>
       </c>
       <c r="H22" t="n">
-        <v>408579.2239840418</v>
+        <v>407171.3995622597</v>
       </c>
       <c r="I22" t="n">
-        <v>58760.16964785617</v>
+        <v>54158.23729690172</v>
       </c>
       <c r="J22" t="n">
-        <v>20711.20479754353</v>
+        <v>15241.89667830019</v>
       </c>
       <c r="K22" t="n">
-        <v>-7379.583242877678</v>
+        <v>-7523.59055099697</v>
       </c>
       <c r="L22" t="n">
-        <v>0.5693685267233666</v>
+        <v>0.1039847359247313</v>
       </c>
       <c r="M22" t="n">
-        <v>4.906923341550538</v>
+        <v>21.09248062405064</v>
       </c>
       <c r="N22" t="n">
-        <v>123.5922844568606</v>
+        <v>60.65027340436704</v>
       </c>
       <c r="O22" t="n">
-        <v>8.704882902049917</v>
+        <v>9.131559325098277</v>
       </c>
       <c r="P22" t="n">
-        <v>106.0612401849245</v>
+        <v>72.61147120334671</v>
       </c>
       <c r="Q22" t="n">
-        <v>1798.941241783741</v>
+        <v>1764.463267678493</v>
       </c>
       <c r="R22" t="n">
-        <v>31.63917178436378</v>
+        <v>27.1364086558114</v>
       </c>
       <c r="S22" t="n">
-        <v>397.9973892576684</v>
+        <v>307.4367551292295</v>
       </c>
       <c r="T22" t="n">
-        <v>7498.786188360267</v>
+        <v>5436.02071158629</v>
       </c>
       <c r="U22" t="n">
-        <v>614</v>
+        <v>569</v>
       </c>
       <c r="V22" t="n">
-        <v>668</v>
+        <v>726</v>
       </c>
       <c r="W22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="X22" t="n">
-        <v>1100.595207095224</v>
+        <v>1.555984103903278</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.4496568005318375</v>
+        <v>5.061296332627824</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.087594095514024</v>
+        <v>239.7536175378711</v>
       </c>
       <c r="AA22" t="n">
-        <v>312.5386890988378</v>
+        <v>2.04212158736725</v>
       </c>
       <c r="AB22" t="n">
-        <v>3285.00725118496</v>
+        <v>1.723073296591769</v>
       </c>
       <c r="AC22" t="n">
-        <v>11.51350518669679</v>
+        <v>0.408174307111277</v>
       </c>
       <c r="AD22" t="n">
-        <v>-470.8835013483256</v>
+        <v>0.9770414810946364</v>
       </c>
       <c r="AE22" t="n">
-        <v>-3989.694507324331</v>
+        <v>63.20162733227492</v>
       </c>
       <c r="AF22" t="n">
-        <v>109.4002784842628</v>
+        <v>3.666151358549035</v>
       </c>
       <c r="AG22" t="n">
-        <v>-8.135514375326553</v>
+        <v>6.787833378478488</v>
       </c>
       <c r="AH22" t="n">
-        <v>-101.1543168433739</v>
+        <v>-329.6307758614116</v>
       </c>
       <c r="AI22" t="n">
-        <v>-1675.34895732688</v>
+        <v>-1119.693911757655</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>-61.96843495973599</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>-9.027574589173545</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>-51.51899057929605</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>-1703.812994274127</v>
       </c>
     </row>
   </sheetData>

--- a/run_merged.xlsx
+++ b/run_merged.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,155 +469,145 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>max_pnl_traders</t>
+          <t>oi_long_btc</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>min_pnl_traders</t>
+          <t>oi_long_eth</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>oi_long_btc</t>
+          <t>oi_long_sol</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>oi_long_eth</t>
+          <t>oi_short_btc</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>oi_long_sol</t>
+          <t>oi_short_eth</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>oi_short_btc</t>
+          <t>oi_short_sol</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>oi_short_eth</t>
+          <t>volume_btc</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>oi_short_sol</t>
+          <t>volume_eth</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>volume_btc</t>
+          <t>volume_sol</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>volume_eth</t>
+          <t>num_of_longs</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>volume_sol</t>
+          <t>num_of_shorts</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>num_of_longs</t>
+          <t>num_of_swaps</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>num_of_shorts</t>
+          <t>number_of_liquidations</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>num_of_swaps</t>
+          <t>fees_collected_btc</t>
         </is>
       </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>number_of_liquidations</t>
+          <t>fees_collected_eth</t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>fees_collected_btc</t>
+          <t>fees_collected_sol</t>
         </is>
       </c>
       <c r="AA1" t="inlineStr">
         <is>
-          <t>fees_collected_eth</t>
+          <t>fees_collected_usdc</t>
         </is>
       </c>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>fees_collected_sol</t>
+          <t>fees_collected_usdt</t>
         </is>
       </c>
       <c r="AC1" t="inlineStr">
         <is>
-          <t>fees_collected_usdc</t>
+          <t>treasury_balance_btc</t>
         </is>
       </c>
       <c r="AD1" t="inlineStr">
         <is>
-          <t>fees_collected_usdt</t>
+          <t>treasury_balance_eth</t>
         </is>
       </c>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>treasury_balance_btc</t>
+          <t>treasury_balance_sol</t>
         </is>
       </c>
       <c r="AF1" t="inlineStr">
         <is>
-          <t>treasury_balance_eth</t>
+          <t>treasury_balance_usdc</t>
         </is>
       </c>
       <c r="AG1" t="inlineStr">
         <is>
-          <t>treasury_balance_sol</t>
+          <t>treasury_balance_usdt</t>
         </is>
       </c>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>treasury_balance_usdc</t>
+          <t>pool_pnl_btc</t>
         </is>
       </c>
       <c r="AI1" t="inlineStr">
         <is>
-          <t>treasury_balance_usdt</t>
+          <t>pool_pnl_eth</t>
         </is>
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>pool_pnl_btc</t>
+          <t>pool_pnl_sol</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>pool_pnl_eth</t>
+          <t>nominal_exposure_btc</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>pool_pnl_sol</t>
+          <t>nominal_exposure_eth</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
-        <is>
-          <t>nominal_exposure_btc</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>nominal_exposure_eth</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
         <is>
           <t>nominal_exposure_sol</t>
         </is>
@@ -632,7 +622,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
@@ -740,12 +730,6 @@
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -757,121 +741,115 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>100.5038749224246</v>
+        <v>100.1718868073973</v>
       </c>
       <c r="E4" t="n">
-        <v>10.11807814883019</v>
+        <v>9.939631349722204</v>
       </c>
       <c r="F4" t="n">
-        <v>111.1747263542306</v>
+        <v>109.9574176448915</v>
       </c>
       <c r="G4" t="n">
-        <v>2548.488906184862</v>
+        <v>2514.462741805661</v>
       </c>
       <c r="H4" t="n">
-        <v>451663.736064829</v>
+        <v>451326.202615164</v>
       </c>
       <c r="I4" t="n">
-        <v>447847.7912283594</v>
+        <v>452864.848444538</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.101520210866781</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.736803748348708</v>
       </c>
       <c r="M4" t="n">
-        <v>3.695797777801049</v>
+        <v>127.6529764002356</v>
       </c>
       <c r="N4" t="n">
-        <v>8.771328380189402</v>
+        <v>2.735017553013878</v>
       </c>
       <c r="O4" t="n">
-        <v>181.2270753516281</v>
+        <v>9.058681744216099</v>
       </c>
       <c r="P4" t="n">
-        <v>1.31443716032748</v>
+        <v>90.10426667040268</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.67832574088475</v>
+        <v>3.836537763880659</v>
       </c>
       <c r="R4" t="n">
-        <v>106.0821953322296</v>
+        <v>12.79548549256481</v>
       </c>
       <c r="S4" t="n">
-        <v>5.010234938128528</v>
+        <v>217.7572430706383</v>
       </c>
       <c r="T4" t="n">
-        <v>21.44965412107415</v>
+        <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>287.3092706838577</v>
+        <v>17</v>
       </c>
       <c r="V4" t="n">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="W4" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>0.07266105328916221</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>0.0732637229270732</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08086431416176021</v>
+        <v>0.166124544865536</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2549342231641614</v>
+        <v>0.09780425765775048</v>
       </c>
       <c r="AB4" t="n">
-        <v>22.89603443582947</v>
+        <v>0.09722767695248953</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.09760924222876936</v>
+        <v>0.02220162146747567</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.1083420215846238</v>
+        <v>0.02223846083313241</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.02445490241455321</v>
+        <v>0.049609623658357</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.07689170131331147</v>
+        <v>0.02907107116537775</v>
       </c>
       <c r="AG4" t="n">
-        <v>7.039449650986731</v>
+        <v>0.02907474064713209</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.02907096095010844</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.03213218257412859</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>0.7145418145923162</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1.34128240152977</v>
       </c>
       <c r="AM4" t="n">
-        <v>2.38136061747357</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>-3.906997360695346</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>75.1448800193984</v>
+        <v>127.3621378219362</v>
       </c>
     </row>
     <row r="5">
@@ -882,121 +860,115 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>100.8578034843422</v>
+        <v>100.3902140464563</v>
       </c>
       <c r="E5" t="n">
-        <v>10.45764914110724</v>
+        <v>10.21407544704054</v>
       </c>
       <c r="F5" t="n">
-        <v>110.489113628202</v>
+        <v>109.8190534548452</v>
       </c>
       <c r="G5" t="n">
-        <v>2561.3741108965</v>
+        <v>2475.258801136957</v>
       </c>
       <c r="H5" t="n">
-        <v>446137.6270610343</v>
+        <v>442954.0022520028</v>
       </c>
       <c r="I5" t="n">
-        <v>451633.2858106701</v>
+        <v>462783.9696437969</v>
       </c>
       <c r="J5" t="n">
-        <v>-4277.498100256402</v>
+        <v>-2280.804013834905</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.1130761561470324</v>
       </c>
       <c r="L5" t="n">
-        <v>-4277.498100256402</v>
+        <v>15.11817169076729</v>
       </c>
       <c r="M5" t="n">
-        <v>0.9915712321704322</v>
+        <v>362.0613552693769</v>
       </c>
       <c r="N5" t="n">
-        <v>13.50403414239744</v>
+        <v>5.101048165625524</v>
       </c>
       <c r="O5" t="n">
-        <v>181.2270753516281</v>
+        <v>22.89455488466527</v>
       </c>
       <c r="P5" t="n">
-        <v>5.549329258979967</v>
+        <v>500.3502579779669</v>
       </c>
       <c r="Q5" t="n">
-        <v>32.1728416789374</v>
+        <v>6.26303549026311</v>
       </c>
       <c r="R5" t="n">
-        <v>285.0719561747729</v>
+        <v>38.01272657543256</v>
       </c>
       <c r="S5" t="n">
-        <v>9.261044086584025</v>
+        <v>974.3606916496295</v>
       </c>
       <c r="T5" t="n">
-        <v>45.67687582133484</v>
+        <v>23</v>
       </c>
       <c r="U5" t="n">
-        <v>466.299031526401</v>
+        <v>40</v>
       </c>
       <c r="V5" t="n">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="W5" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>68</v>
+        <v>0.1646070720827982</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0.1272280279690226</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1858512467084233</v>
+        <v>1.304090032188522</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.4064293718537779</v>
+        <v>0.23653815675622</v>
       </c>
       <c r="AB5" t="n">
-        <v>23.25351163035842</v>
+        <v>0.190060942102739</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1795414847496317</v>
+        <v>0.05031349280634892</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2224484040932233</v>
+        <v>0.03868219656877168</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.05621685211214349</v>
+        <v>0.3964957891417679</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.12280278252807</v>
+        <v>0.07038789901957594</v>
       </c>
       <c r="AG5" t="n">
-        <v>7.371753908501186</v>
+        <v>0.0566119015005908</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.05355365748697945</v>
+        <v>-141.2551137639337</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.06579282283549472</v>
+        <v>-0.3789436764211835</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4125.653798783726</v>
+        <v>139.457121363117</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>-1.072870264446151</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>9.359656928301767</v>
       </c>
       <c r="AM5" t="n">
-        <v>-4.557758026809535</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>-18.66880753653996</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>-103.8448808231449</v>
+        <v>188.9951779092583</v>
       </c>
     </row>
     <row r="6">
@@ -1007,121 +979,115 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>101.2719181877742</v>
+        <v>100.6332218261952</v>
       </c>
       <c r="E6" t="n">
-        <v>10.54119311182859</v>
+        <v>10.33127060712746</v>
       </c>
       <c r="F6" t="n">
-        <v>112.2056580454612</v>
+        <v>109.8670192149424</v>
       </c>
       <c r="G6" t="n">
-        <v>2589.927822028417</v>
+        <v>2465.754510020412</v>
       </c>
       <c r="H6" t="n">
-        <v>445005.7348314032</v>
+        <v>445476.5589155392</v>
       </c>
       <c r="I6" t="n">
-        <v>451920.0092806926</v>
+        <v>463258.8763198786</v>
       </c>
       <c r="J6" t="n">
-        <v>-4399.492419751371</v>
+        <v>-4029.661383742764</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.6354793316611387</v>
       </c>
       <c r="L6" t="n">
-        <v>-4277.498100256402</v>
+        <v>24.14853462951258</v>
       </c>
       <c r="M6" t="n">
-        <v>2.504029210352961</v>
+        <v>183.1672924758572</v>
       </c>
       <c r="N6" t="n">
-        <v>25.55256171300445</v>
+        <v>5.606635782032344</v>
       </c>
       <c r="O6" t="n">
-        <v>289.5847053534504</v>
+        <v>37.91966154996389</v>
       </c>
       <c r="P6" t="n">
-        <v>5.657025074305915</v>
+        <v>628.7121027601667</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.63475443201452</v>
+        <v>7.528763809942165</v>
       </c>
       <c r="R6" t="n">
-        <v>435.5269432621341</v>
+        <v>62.06819617947647</v>
       </c>
       <c r="S6" t="n">
-        <v>11.05224163049833</v>
+        <v>1143.455199699523</v>
       </c>
       <c r="T6" t="n">
-        <v>80.18731614501895</v>
+        <v>37</v>
       </c>
       <c r="U6" t="n">
-        <v>735.1454407755605</v>
+        <v>53</v>
       </c>
       <c r="V6" t="n">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="W6" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>96</v>
+        <v>0.2340453460297094</v>
       </c>
       <c r="Y6" t="n">
-        <v>1</v>
+        <v>0.2013495682456583</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2535767609890874</v>
+        <v>3.658695127334135</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.7798255702764892</v>
+        <v>84.07752152729427</v>
       </c>
       <c r="AB6" t="n">
-        <v>40.14016276235348</v>
+        <v>0.2726505548520815</v>
       </c>
       <c r="AC6" t="n">
-        <v>25.30843856709421</v>
+        <v>0.07119177382885987</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.2997633766296724</v>
+        <v>0.0614898015176601</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.07707827499045765</v>
+        <v>1.125999038584667</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.2350497695460159</v>
+        <v>20.44625953475862</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.56825780703151</v>
+        <v>0.08109501358835343</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.418478667810056</v>
+        <v>-11.55990264952152</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.0887443282664772</v>
+        <v>-64.53919592395798</v>
       </c>
       <c r="AJ6" t="n">
-        <v>319.8237624822477</v>
+        <v>98.64294955242906</v>
       </c>
       <c r="AK6" t="n">
-        <v>109.1025722873237</v>
+        <v>-1.052308173048381</v>
       </c>
       <c r="AL6" t="n">
-        <v>273.2415585337737</v>
+        <v>3.55768686663372</v>
       </c>
       <c r="AM6" t="n">
-        <v>-3.152995863952954</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>-29.08219271901006</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>-145.9422379086837</v>
+        <v>-112.3318929250445</v>
       </c>
     </row>
     <row r="7">
@@ -1132,121 +1098,115 @@
         <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>101.5844987060325</v>
+        <v>101.14071188752</v>
       </c>
       <c r="E7" t="n">
-        <v>10.65757106413156</v>
+        <v>10.45642238430333</v>
       </c>
       <c r="F7" t="n">
-        <v>111.9703186481133</v>
+        <v>110.5986337468933</v>
       </c>
       <c r="G7" t="n">
-        <v>2685.615892297833</v>
+        <v>2474.030945108719</v>
       </c>
       <c r="H7" t="n">
-        <v>442870.3518273953</v>
+        <v>452240.8270113819</v>
       </c>
       <c r="I7" t="n">
-        <v>450177.462531301</v>
+        <v>462443.6330119895</v>
       </c>
       <c r="J7" t="n">
-        <v>-11992.24467248126</v>
+        <v>-9087.258186410001</v>
       </c>
       <c r="K7" t="n">
-        <v>741.8960355270235</v>
+        <v>0.6349366355401747</v>
       </c>
       <c r="L7" t="n">
-        <v>-4277.498100256402</v>
+        <v>11.00285975726768</v>
       </c>
       <c r="M7" t="n">
-        <v>2.2978348350635</v>
+        <v>283.743505157293</v>
       </c>
       <c r="N7" t="n">
-        <v>23.74263446454054</v>
+        <v>5.964933332942397</v>
       </c>
       <c r="O7" t="n">
-        <v>110.4450142574586</v>
+        <v>37.07277374616351</v>
       </c>
       <c r="P7" t="n">
-        <v>5.953937133217829</v>
+        <v>647.8921882371452</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.94960114583318</v>
+        <v>8.482778837219728</v>
       </c>
       <c r="R7" t="n">
-        <v>528.2285272179025</v>
+        <v>67.21358216785231</v>
       </c>
       <c r="S7" t="n">
-        <v>12.65058624725298</v>
+        <v>1263.211497857937</v>
       </c>
       <c r="T7" t="n">
-        <v>84.44091094186705</v>
+        <v>49</v>
       </c>
       <c r="U7" t="n">
-        <v>856.1780228591284</v>
+        <v>65</v>
       </c>
       <c r="V7" t="n">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="W7" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="X7" t="n">
-        <v>130</v>
+        <v>0.3277660027762958</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>0.4457693563290898</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.3466136111577209</v>
+        <v>3.927490961986821</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.9128960031689167</v>
+        <v>217.3832213614502</v>
       </c>
       <c r="AB7" t="n">
-        <v>44.27844388767873</v>
+        <v>0.3341706578580207</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.7966701196443</v>
+        <v>0.09914882719049257</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.3563604285394941</v>
+        <v>0.1359501763368433</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.1051632586324427</v>
+        <v>1.23326388416067</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.2752135508018545</v>
+        <v>89.52956680546281</v>
       </c>
       <c r="AG7" t="n">
-        <v>13.83211815113002</v>
+        <v>0.09953277589457844</v>
       </c>
       <c r="AH7" t="n">
-        <v>30.40487321589165</v>
+        <v>27.86931858836749</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.1055803577466779</v>
+        <v>2223.885972905823</v>
       </c>
       <c r="AJ7" t="n">
-        <v>592.2841464814337</v>
+        <v>-156.1471722834308</v>
       </c>
       <c r="AK7" t="n">
-        <v>984.079335611752</v>
+        <v>-1.38975612587275</v>
       </c>
       <c r="AL7" t="n">
-        <v>-79.9448172036241</v>
+        <v>-8.741100201810792</v>
       </c>
       <c r="AM7" t="n">
-        <v>-3.656102298154329</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>-34.20696668129263</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>-417.783512960444</v>
+        <v>-30.93576572058721</v>
       </c>
     </row>
     <row r="8">
@@ -1257,121 +1217,115 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>102.0953650342726</v>
+        <v>101.4285463720905</v>
       </c>
       <c r="E8" t="n">
-        <v>10.83127388273225</v>
+        <v>10.37834105298256</v>
       </c>
       <c r="F8" t="n">
-        <v>113.1074670257101</v>
+        <v>110.6002534765961</v>
       </c>
       <c r="G8" t="n">
-        <v>2715.019791249013</v>
+        <v>2509.535533454152</v>
       </c>
       <c r="H8" t="n">
-        <v>433344.3841948528</v>
+        <v>461020.6155450159</v>
       </c>
       <c r="I8" t="n">
-        <v>458079.9116801339</v>
+        <v>463617.2808217652</v>
       </c>
       <c r="J8" t="n">
-        <v>-12743.44662942632</v>
+        <v>-14699.7761779233</v>
       </c>
       <c r="K8" t="n">
-        <v>3992.519515601797</v>
+        <v>0.9538171095177974</v>
       </c>
       <c r="L8" t="n">
-        <v>-4277.498100256402</v>
+        <v>8.705567463541611</v>
       </c>
       <c r="M8" t="n">
-        <v>1.667356696992079</v>
+        <v>110.1104569858712</v>
       </c>
       <c r="N8" t="n">
-        <v>23.46686750594201</v>
+        <v>6.103553169399076</v>
       </c>
       <c r="O8" t="n">
-        <v>110.4450142574586</v>
+        <v>46.82423990485397</v>
       </c>
       <c r="P8" t="n">
-        <v>6.161082089220478</v>
+        <v>745.8838868868154</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.12366515903121</v>
+        <v>8.96103337073135</v>
       </c>
       <c r="R8" t="n">
-        <v>539.3972553961612</v>
+        <v>79.1518032022922</v>
       </c>
       <c r="S8" t="n">
-        <v>13.38236397226087</v>
+        <v>1466.211787051586</v>
       </c>
       <c r="T8" t="n">
-        <v>112.7276102005701</v>
+        <v>61</v>
       </c>
       <c r="U8" t="n">
-        <v>937.1515403374776</v>
+        <v>81</v>
       </c>
       <c r="V8" t="n">
-        <v>34</v>
+        <v>167</v>
       </c>
       <c r="W8" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="X8" t="n">
-        <v>158</v>
+        <v>0.3697220553787011</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>0.5144227286199403</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.4233707236960015</v>
+        <v>5.893912415536763</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.304865746036751</v>
+        <v>348.4832155066746</v>
       </c>
       <c r="AB8" t="n">
-        <v>45.24256782067147</v>
+        <v>28.32415817323481</v>
       </c>
       <c r="AC8" t="n">
-        <v>691.6033720698458</v>
+        <v>0.1119593825162937</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.4178002604217553</v>
+        <v>0.1564770723439879</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.1282791020845142</v>
+        <v>1.836274469965516</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.3925873129221939</v>
+        <v>142.4357847173075</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.75104195946574</v>
+        <v>4.367724053197215</v>
       </c>
       <c r="AH8" t="n">
-        <v>30.67718856098115</v>
+        <v>78.19330338523127</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.1239595732982045</v>
+        <v>128.6027695010023</v>
       </c>
       <c r="AJ8" t="n">
-        <v>-6871.735813806343</v>
+        <v>-1180.339453171759</v>
       </c>
       <c r="AK8" t="n">
-        <v>165.7062324288991</v>
+        <v>-1.052305371834049</v>
       </c>
       <c r="AL8" t="n">
-        <v>-1640.308329576927</v>
+        <v>-18.60583084192604</v>
       </c>
       <c r="AM8" t="n">
-        <v>-4.493725392228399</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>-40.6567976530892</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>-428.9522411387027</v>
+        <v>-258.8776983716772</v>
       </c>
     </row>
     <row r="9">
@@ -1382,121 +1336,115 @@
         <v>20</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>102.3953384538224</v>
+        <v>101.6725425040968</v>
       </c>
       <c r="E9" t="n">
-        <v>10.84381265331796</v>
+        <v>10.44279086497219</v>
       </c>
       <c r="F9" t="n">
-        <v>115.0696604927492</v>
+        <v>110.6931289347869</v>
       </c>
       <c r="G9" t="n">
-        <v>2759.228242515</v>
+        <v>2519.643190221271</v>
       </c>
       <c r="H9" t="n">
-        <v>433251.2443782678</v>
+        <v>455868.9821558222</v>
       </c>
       <c r="I9" t="n">
-        <v>454265.4581058427</v>
+        <v>468368.6721378226</v>
       </c>
       <c r="J9" t="n">
-        <v>-14938.27268159434</v>
+        <v>-13891.76040177088</v>
       </c>
       <c r="K9" t="n">
-        <v>3992.519515601797</v>
+        <v>0.9692591045932942</v>
       </c>
       <c r="L9" t="n">
-        <v>-5459.990614522182</v>
+        <v>7.995453113466611</v>
       </c>
       <c r="M9" t="n">
-        <v>1.952357359876112</v>
+        <v>467.3181621623786</v>
       </c>
       <c r="N9" t="n">
-        <v>13.49753453910545</v>
+        <v>6.04983661127886</v>
       </c>
       <c r="O9" t="n">
-        <v>108.3576300018224</v>
+        <v>41.23637670551631</v>
       </c>
       <c r="P9" t="n">
-        <v>6.007029466666603</v>
+        <v>563.8739281247398</v>
       </c>
       <c r="Q9" t="n">
-        <v>100.9432733416993</v>
+        <v>9.493182895788557</v>
       </c>
       <c r="R9" t="n">
-        <v>417.6646904885336</v>
+        <v>88.64361970533142</v>
       </c>
       <c r="S9" t="n">
-        <v>14.30821380962374</v>
+        <v>1855.061025288403</v>
       </c>
       <c r="T9" t="n">
-        <v>149.8819292545149</v>
+        <v>67</v>
       </c>
       <c r="U9" t="n">
-        <v>971.9955013375551</v>
+        <v>87</v>
       </c>
       <c r="V9" t="n">
-        <v>39</v>
+        <v>189</v>
       </c>
       <c r="W9" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="X9" t="n">
-        <v>184</v>
+        <v>0.4195182621848692</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>0.5712302431974036</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.4524396753758522</v>
+        <v>7.289515384293621</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.491272119891306</v>
+        <v>1060.869655054211</v>
       </c>
       <c r="AB9" t="n">
-        <v>45.30945031963169</v>
+        <v>86.70939795008394</v>
       </c>
       <c r="AC9" t="n">
-        <v>1057.146821188201</v>
+        <v>0.1277262647481623</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.5049321869429575</v>
+        <v>0.173979832332374</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.1371106641991467</v>
+        <v>2.257043287683219</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.4481832724694113</v>
+        <v>143.0663294189294</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.77117098304017</v>
+        <v>36.03721227080098</v>
       </c>
       <c r="AH9" t="n">
-        <v>76.8986381367109</v>
+        <v>1552.49330381935</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.1498355582241548</v>
+        <v>-17.46729589497636</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-9784.736263997595</v>
+        <v>-871.0090097166656</v>
       </c>
       <c r="AK9" t="n">
-        <v>-2509.639280873591</v>
+        <v>-0.9831468186383355</v>
       </c>
       <c r="AL9" t="n">
-        <v>-416.533522547718</v>
+        <v>-4.455020161251017</v>
       </c>
       <c r="AM9" t="n">
-        <v>-4.05467210679049</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>-87.44573880259387</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>-309.3070604867113</v>
+        <v>280.3399655669057</v>
       </c>
     </row>
     <row r="10">
@@ -1507,121 +1455,115 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>102.6874794508211</v>
+        <v>101.8664660947523</v>
       </c>
       <c r="E10" t="n">
-        <v>10.97681793032261</v>
+        <v>10.5941041169611</v>
       </c>
       <c r="F10" t="n">
-        <v>114.8040814783402</v>
+        <v>113.2703723373382</v>
       </c>
       <c r="G10" t="n">
-        <v>2781.569922337187</v>
+        <v>2510.685052926541</v>
       </c>
       <c r="H10" t="n">
-        <v>429890.3978247565</v>
+        <v>453681.2477834333</v>
       </c>
       <c r="I10" t="n">
-        <v>455078.7480375116</v>
+        <v>469178.4145282091</v>
       </c>
       <c r="J10" t="n">
-        <v>-10970.97049396925</v>
+        <v>-22077.79325266708</v>
       </c>
       <c r="K10" t="n">
-        <v>8356.403123553539</v>
+        <v>0.4408284791810788</v>
       </c>
       <c r="L10" t="n">
-        <v>-5663.323048066535</v>
+        <v>5.567901400886226</v>
       </c>
       <c r="M10" t="n">
-        <v>2.310177559831165</v>
+        <v>122.0232158536792</v>
       </c>
       <c r="N10" t="n">
-        <v>10.95278595287182</v>
+        <v>6.464215598908367</v>
       </c>
       <c r="O10" t="n">
-        <v>167.6672611919923</v>
+        <v>42.87361574505626</v>
       </c>
       <c r="P10" t="n">
-        <v>4.132335337076729</v>
+        <v>585.4162428299137</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.3740226137085</v>
+        <v>10.1482176774715</v>
       </c>
       <c r="R10" t="n">
-        <v>690.8474704773404</v>
+        <v>90.37442172330952</v>
       </c>
       <c r="S10" t="n">
-        <v>15.05098659295363</v>
+        <v>1916.17245028637</v>
       </c>
       <c r="T10" t="n">
-        <v>160.9027497932251</v>
+        <v>78</v>
       </c>
       <c r="U10" t="n">
-        <v>1343.231087538981</v>
+        <v>100</v>
       </c>
       <c r="V10" t="n">
-        <v>48</v>
+        <v>211</v>
       </c>
       <c r="W10" t="n">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="X10" t="n">
-        <v>215</v>
+        <v>0.4742233923926838</v>
       </c>
       <c r="Y10" t="n">
-        <v>16</v>
+        <v>0.6235060810188122</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.5130578079877071</v>
+        <v>9.169547353982834</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.765305752643435</v>
+        <v>1126.606149250699</v>
       </c>
       <c r="AB10" t="n">
-        <v>55.41529261619298</v>
+        <v>129.1787232663497</v>
       </c>
       <c r="AC10" t="n">
-        <v>1934.953333700244</v>
+        <v>0.1449856362277236</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.25228395614262</v>
+        <v>0.192611689422756</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.155301135358832</v>
+        <v>2.827102000603158</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.5291617607121967</v>
+        <v>143.9621991593577</v>
       </c>
       <c r="AG10" t="n">
-        <v>17.83755139688578</v>
+        <v>47.95483834169022</v>
       </c>
       <c r="AH10" t="n">
-        <v>76.93782025501758</v>
+        <v>265.5400906119252</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.1982684789237371</v>
+        <v>-2521.065280868095</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-8846.013173548268</v>
+        <v>469.7461087459706</v>
       </c>
       <c r="AK10" t="n">
-        <v>-684.8218810907952</v>
+        <v>-1.485485756757001</v>
       </c>
       <c r="AL10" t="n">
-        <v>1297.132722220871</v>
+        <v>-8.478481267498989</v>
       </c>
       <c r="AM10" t="n">
-        <v>-1.822157777245562</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>-93.4212366608367</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>-523.1802092853482</v>
+        <v>-83.05080117559135</v>
       </c>
     </row>
     <row r="11">
@@ -1632,121 +1574,115 @@
         <v>20</v>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>103.1556357528465</v>
+        <v>102.1541506982907</v>
       </c>
       <c r="E11" t="n">
-        <v>11.0476089934037</v>
+        <v>10.74444456675616</v>
       </c>
       <c r="F11" t="n">
-        <v>115.4711489543338</v>
+        <v>113.8873821847502</v>
       </c>
       <c r="G11" t="n">
-        <v>2783.635862143582</v>
+        <v>2518.667495228005</v>
       </c>
       <c r="H11" t="n">
-        <v>430916.5774297701</v>
+        <v>451879.1252705344</v>
       </c>
       <c r="I11" t="n">
-        <v>456660.8491810913</v>
+        <v>470556.4834897429</v>
       </c>
       <c r="J11" t="n">
-        <v>-8896.665990386226</v>
+        <v>-25388.86847587764</v>
       </c>
       <c r="K11" t="n">
-        <v>8356.403123553539</v>
+        <v>0.1583116247330888</v>
       </c>
       <c r="L11" t="n">
-        <v>-5640.119118667785</v>
+        <v>4.240996840084542</v>
       </c>
       <c r="M11" t="n">
-        <v>2.706969021090718</v>
+        <v>158.7548319422687</v>
       </c>
       <c r="N11" t="n">
-        <v>10.90540297594377</v>
+        <v>6.666110903107523</v>
       </c>
       <c r="O11" t="n">
-        <v>137.786549849514</v>
+        <v>100.6808343794911</v>
       </c>
       <c r="P11" t="n">
-        <v>4.139854736010889</v>
+        <v>632.6046471971656</v>
       </c>
       <c r="Q11" t="n">
-        <v>104.3740226137085</v>
+        <v>10.58881480495952</v>
       </c>
       <c r="R11" t="n">
-        <v>940.8097827034992</v>
+        <v>152.925002778041</v>
       </c>
       <c r="S11" t="n">
-        <v>15.45529745314734</v>
+        <v>2017.406291342772</v>
       </c>
       <c r="T11" t="n">
-        <v>160.9027497932251</v>
+        <v>91</v>
       </c>
       <c r="U11" t="n">
-        <v>1690.057884137169</v>
+        <v>116</v>
       </c>
       <c r="V11" t="n">
-        <v>52</v>
+        <v>233</v>
       </c>
       <c r="W11" t="n">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="X11" t="n">
-        <v>235</v>
+        <v>0.522966818557287</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>0.6867549734771164</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.5587206346595336</v>
+        <v>9.423075391251734</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.803289043464752</v>
+        <v>1258.567151344118</v>
       </c>
       <c r="AB11" t="n">
-        <v>55.82451597737123</v>
+        <v>177.6657118424732</v>
       </c>
       <c r="AC11" t="n">
-        <v>2153.713345081122</v>
+        <v>0.1604477552305837</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.32011408459308</v>
+        <v>0.2111366830851858</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.1692365619181483</v>
+        <v>2.915896820659281</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.5424885349886576</v>
+        <v>184.5635986010419</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.95996546313751</v>
+        <v>63.4427664010154</v>
       </c>
       <c r="AH11" t="n">
-        <v>157.5048657806736</v>
+        <v>485.133624955521</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.2179062287042456</v>
+        <v>280.7331541722525</v>
       </c>
       <c r="AJ11" t="n">
-        <v>765.140486061091</v>
+        <v>-877.0219952289403</v>
       </c>
       <c r="AK11" t="n">
-        <v>-128.9871226323794</v>
+        <v>-1.648947580938112</v>
       </c>
       <c r="AL11" t="n">
-        <v>-274.4020365633151</v>
+        <v>-15.00278199303987</v>
       </c>
       <c r="AM11" t="n">
-        <v>-1.432885714920171</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>-93.46861963776475</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>-803.0232328539852</v>
+        <v>-93.36243726238784</v>
       </c>
     </row>
     <row r="12">
@@ -1757,121 +1693,115 @@
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>103.4511450894512</v>
+        <v>102.6109398775664</v>
       </c>
       <c r="E12" t="n">
-        <v>11.1742040581588</v>
+        <v>10.83377496525806</v>
       </c>
       <c r="F12" t="n">
-        <v>117.0545293696283</v>
+        <v>113.7570112909131</v>
       </c>
       <c r="G12" t="n">
-        <v>2800.348115338365</v>
+        <v>2530.38886712224</v>
       </c>
       <c r="H12" t="n">
-        <v>430716.3947333698</v>
+        <v>454233.0736806333</v>
       </c>
       <c r="I12" t="n">
-        <v>454826.4609289135</v>
+        <v>474406.9789630602</v>
       </c>
       <c r="J12" t="n">
-        <v>-11099.02821406875</v>
+        <v>-26790.26436988042</v>
       </c>
       <c r="K12" t="n">
-        <v>8356.403123553539</v>
+        <v>-0.02176968056453742</v>
       </c>
       <c r="L12" t="n">
-        <v>-5640.119118667785</v>
+        <v>-17.72633230484027</v>
       </c>
       <c r="M12" t="n">
-        <v>2.720948453224691</v>
+        <v>80.5731393755315</v>
       </c>
       <c r="N12" t="n">
-        <v>6.07970241728728</v>
+        <v>6.213533114835149</v>
       </c>
       <c r="O12" t="n">
-        <v>208.9306683732895</v>
+        <v>106.6642474060374</v>
       </c>
       <c r="P12" t="n">
-        <v>4.294321778865859</v>
+        <v>630.6169625394674</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.580407272961</v>
+        <v>10.83793480513014</v>
       </c>
       <c r="R12" t="n">
-        <v>1684.689578176801</v>
+        <v>140.7791634105501</v>
       </c>
       <c r="S12" t="n">
-        <v>15.62374392813629</v>
+        <v>2005.863336281092</v>
       </c>
       <c r="T12" t="n">
-        <v>162.7387958346683</v>
+        <v>103</v>
       </c>
       <c r="U12" t="n">
-        <v>2551.960772346254</v>
+        <v>127</v>
       </c>
       <c r="V12" t="n">
-        <v>56</v>
+        <v>261</v>
       </c>
       <c r="W12" t="n">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="X12" t="n">
-        <v>254</v>
+        <v>0.5807895551822225</v>
       </c>
       <c r="Y12" t="n">
-        <v>16</v>
+        <v>0.6018492785410418</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.5783529836651558</v>
+        <v>10.16854586931647</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.9037640275329</v>
+        <v>1511.225220069077</v>
       </c>
       <c r="AB12" t="n">
-        <v>70.22512377262332</v>
+        <v>185.8711658789437</v>
       </c>
       <c r="AC12" t="n">
-        <v>2234.676627635775</v>
+        <v>0.1785854140748573</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.36731237330067</v>
+        <v>0.1834082966353685</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.1753719303288858</v>
+        <v>3.14242031572195</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.5730231830944646</v>
+        <v>301.1951093939107</v>
       </c>
       <c r="AG12" t="n">
-        <v>22.32977675950884</v>
+        <v>63.47045006275041</v>
       </c>
       <c r="AH12" t="n">
-        <v>187.4763622652678</v>
+        <v>155.0276500387981</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.2319447081764028</v>
+        <v>-108.2515917221833</v>
       </c>
       <c r="AJ12" t="n">
-        <v>212.6767105768393</v>
+        <v>221.3210752063551</v>
       </c>
       <c r="AK12" t="n">
-        <v>354.9526713672967</v>
+        <v>-1.227779276613074</v>
       </c>
       <c r="AL12" t="n">
-        <v>177.6258842856251</v>
+        <v>-23.028599633034</v>
       </c>
       <c r="AM12" t="n">
-        <v>-1.573373325641167</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>-98.50070485567372</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>-1475.758909803512</v>
+        <v>-130.9493278059539</v>
       </c>
     </row>
     <row r="13">
@@ -1882,121 +1812,115 @@
         <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>103.9158682090191</v>
+        <v>102.7668751492</v>
       </c>
       <c r="E13" t="n">
-        <v>11.09796118998313</v>
+        <v>10.8941894224786</v>
       </c>
       <c r="F13" t="n">
-        <v>117.2137552167309</v>
+        <v>112.947885997581</v>
       </c>
       <c r="G13" t="n">
-        <v>2927.693940799048</v>
+        <v>2529.672202113841</v>
       </c>
       <c r="H13" t="n">
-        <v>429314.0381771678</v>
+        <v>454703.3253272982</v>
       </c>
       <c r="I13" t="n">
-        <v>455423.0040134978</v>
+        <v>473870.8686667508</v>
       </c>
       <c r="J13" t="n">
-        <v>-8520.290483225288</v>
+        <v>-23673.5133520852</v>
       </c>
       <c r="K13" t="n">
-        <v>8356.403123553539</v>
+        <v>0.566163107270651</v>
       </c>
       <c r="L13" t="n">
-        <v>-5681.982903822082</v>
+        <v>-17.62492248664685</v>
       </c>
       <c r="M13" t="n">
-        <v>2.667605354472236</v>
+        <v>70.56008117572368</v>
       </c>
       <c r="N13" t="n">
-        <v>4.783888889573344</v>
+        <v>5.987507873806339</v>
       </c>
       <c r="O13" t="n">
-        <v>274.3308510216515</v>
+        <v>109.5189070852063</v>
       </c>
       <c r="P13" t="n">
-        <v>3.6207903639746</v>
+        <v>878.6096084139147</v>
       </c>
       <c r="Q13" t="n">
-        <v>111.7634211881287</v>
+        <v>11.5209433080046</v>
       </c>
       <c r="R13" t="n">
-        <v>1839.830996610325</v>
+        <v>152.9884796718227</v>
       </c>
       <c r="S13" t="n">
-        <v>15.64046536766604</v>
+        <v>2334.465974778566</v>
       </c>
       <c r="T13" t="n">
-        <v>170.202372667881</v>
+        <v>119</v>
       </c>
       <c r="U13" t="n">
-        <v>2876.700259372198</v>
+        <v>142</v>
       </c>
       <c r="V13" t="n">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="W13" t="n">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="X13" t="n">
-        <v>271</v>
+        <v>0.6339289892240642</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>0.6654251858996871</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.6000906815536942</v>
+        <v>10.28844243031238</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.951340188443482</v>
+        <v>1984.220974255246</v>
       </c>
       <c r="AB13" t="n">
-        <v>118.1044712080817</v>
+        <v>221.1812868470786</v>
       </c>
       <c r="AC13" t="n">
-        <v>2574.044868566723</v>
+        <v>0.1959847441859912</v>
       </c>
       <c r="AD13" t="n">
-        <v>19.84824209021642</v>
+        <v>0.2017494132436199</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.1819443221237476</v>
+        <v>3.178141401567638</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.5887384982514151</v>
+        <v>301.4840097170679</v>
       </c>
       <c r="AG13" t="n">
-        <v>36.85273555769282</v>
+        <v>63.60745895030919</v>
       </c>
       <c r="AH13" t="n">
-        <v>187.6202639341056</v>
+        <v>72.41219465679438</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.2569587153885485</v>
+        <v>-61.58370980989199</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-1300.321154618119</v>
+        <v>582.0406229917896</v>
       </c>
       <c r="AK13" t="n">
-        <v>313.9040759697391</v>
+        <v>0.03027762198369438</v>
       </c>
       <c r="AL13" t="n">
-        <v>-403.6663789566096</v>
+        <v>-23.73221048232294</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.9531850095023636</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>-106.9795322985554</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>-1565.500145588674</v>
+        <v>-374.2683061646019</v>
       </c>
     </row>
     <row r="14">
@@ -2007,121 +1931,115 @@
         <v>20</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>104.1683590565673</v>
+        <v>103.039895963121</v>
       </c>
       <c r="E14" t="n">
-        <v>11.19757768160893</v>
+        <v>11.00077490389093</v>
       </c>
       <c r="F14" t="n">
-        <v>116.95572104648</v>
+        <v>113.0140687569275</v>
       </c>
       <c r="G14" t="n">
-        <v>2955.272099367726</v>
+        <v>2532.462856181338</v>
       </c>
       <c r="H14" t="n">
-        <v>428848.9311702812</v>
+        <v>450424.7827742068</v>
       </c>
       <c r="I14" t="n">
-        <v>458250.5844359481</v>
+        <v>478660.8606191596</v>
       </c>
       <c r="J14" t="n">
-        <v>-9850.524668890217</v>
+        <v>-23776.59883239843</v>
       </c>
       <c r="K14" t="n">
-        <v>7684.344425885022</v>
+        <v>0.3922134493724636</v>
       </c>
       <c r="L14" t="n">
-        <v>-6026.667321655103</v>
+        <v>-16.25809306085469</v>
       </c>
       <c r="M14" t="n">
-        <v>2.033111166590059</v>
+        <v>38.27289970362681</v>
       </c>
       <c r="N14" t="n">
-        <v>1.129283803165874</v>
+        <v>5.397263057743618</v>
       </c>
       <c r="O14" t="n">
-        <v>275.4943712858345</v>
+        <v>119.3093000544176</v>
       </c>
       <c r="P14" t="n">
-        <v>3.82527802692216</v>
+        <v>1192.437729907872</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.33847636973034</v>
+        <v>11.92947633931533</v>
       </c>
       <c r="R14" t="n">
-        <v>1661.371845464084</v>
+        <v>172.3371291797128</v>
       </c>
       <c r="S14" t="n">
-        <v>16.21440357496616</v>
+        <v>2730.21229806788</v>
       </c>
       <c r="T14" t="n">
-        <v>177.2930394851322</v>
+        <v>130</v>
       </c>
       <c r="U14" t="n">
-        <v>2933.154546685271</v>
+        <v>155</v>
       </c>
       <c r="V14" t="n">
-        <v>66</v>
+        <v>327</v>
       </c>
       <c r="W14" t="n">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="X14" t="n">
-        <v>296</v>
+        <v>0.7111879742580665</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>0.7620979577737967</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.65465954412276</v>
+        <v>10.53013455135642</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.332493909106073</v>
+        <v>2698.491669137056</v>
       </c>
       <c r="AB14" t="n">
-        <v>118.3064905548928</v>
+        <v>282.1845909326588</v>
       </c>
       <c r="AC14" t="n">
-        <v>2977.093655808303</v>
+        <v>0.2198146379694023</v>
       </c>
       <c r="AD14" t="n">
-        <v>1233.246281277457</v>
+        <v>0.2296256565921985</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.1982601201081253</v>
+        <v>3.25116783775617</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.7031028806256104</v>
+        <v>301.7627901856271</v>
       </c>
       <c r="AG14" t="n">
-        <v>36.9136734455879</v>
+        <v>84.93960577577084</v>
       </c>
       <c r="AH14" t="n">
-        <v>188.3478835202585</v>
+        <v>189.7586435037988</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.382715635524955</v>
+        <v>-93.67221174460394</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-26.72719966833074</v>
+        <v>580.5026498116695</v>
       </c>
       <c r="AK14" t="n">
-        <v>-387.3898247087</v>
+        <v>0.4950123803900962</v>
       </c>
       <c r="AL14" t="n">
-        <v>-459.6070043073946</v>
+        <v>-31.19309336809548</v>
       </c>
       <c r="AM14" t="n">
-        <v>-1.7921668603321</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>-79.20919256656447</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>-1385.87747417825</v>
+        <v>-711.1668221344762</v>
       </c>
     </row>
     <row r="15">
@@ -2132,121 +2050,115 @@
         <v>20</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>104.3199831739296</v>
+        <v>103.1905505147787</v>
       </c>
       <c r="E15" t="n">
-        <v>11.27108964057473</v>
+        <v>11.04037381189972</v>
       </c>
       <c r="F15" t="n">
-        <v>117.0113156033707</v>
+        <v>113.4235265545595</v>
       </c>
       <c r="G15" t="n">
-        <v>2961.87209453293</v>
+        <v>2538.322449990335</v>
       </c>
       <c r="H15" t="n">
-        <v>430415.6367554717</v>
+        <v>453103.1155917345</v>
       </c>
       <c r="I15" t="n">
-        <v>443779.5460337293</v>
+        <v>477739.2102767606</v>
       </c>
       <c r="J15" t="n">
-        <v>3769.564551976337</v>
+        <v>-26350.36697679007</v>
       </c>
       <c r="K15" t="n">
-        <v>9241.661958066472</v>
+        <v>-0.6648166378199385</v>
       </c>
       <c r="L15" t="n">
-        <v>-6215.490672364808</v>
+        <v>-17.2567022401792</v>
       </c>
       <c r="M15" t="n">
-        <v>2.105572818726099</v>
+        <v>62.59466869164049</v>
       </c>
       <c r="N15" t="n">
-        <v>3.838578254861097</v>
+        <v>6.134205272460222</v>
       </c>
       <c r="O15" t="n">
-        <v>275.4943712858345</v>
+        <v>123.5818022900174</v>
       </c>
       <c r="P15" t="n">
-        <v>3.103532339228783</v>
+        <v>964.3662343788715</v>
       </c>
       <c r="Q15" t="n">
-        <v>50.90949288806694</v>
+        <v>12.69231893137363</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.137436337094</v>
+        <v>182.1207635480119</v>
       </c>
       <c r="S15" t="n">
-        <v>16.41954634361059</v>
+        <v>2784.275879987375</v>
       </c>
       <c r="T15" t="n">
-        <v>182.834542032186</v>
+        <v>141</v>
       </c>
       <c r="U15" t="n">
-        <v>2985.865328043223</v>
+        <v>169</v>
       </c>
       <c r="V15" t="n">
-        <v>71</v>
+        <v>356</v>
       </c>
       <c r="W15" t="n">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="X15" t="n">
-        <v>318</v>
+        <v>0.763029140095505</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>0.8762867985919357</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.6882146060432046</v>
+        <v>10.58730165387437</v>
       </c>
       <c r="AA15" t="n">
-        <v>2.389186580694133</v>
+        <v>3251.205324578676</v>
       </c>
       <c r="AB15" t="n">
-        <v>118.3628120878523</v>
+        <v>282.2509250304352</v>
       </c>
       <c r="AC15" t="n">
-        <v>3342.787143637501</v>
+        <v>0.2351571531046344</v>
       </c>
       <c r="AD15" t="n">
-        <v>2388.050206180664</v>
+        <v>0.2637252257693598</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.2082210672004449</v>
+        <v>3.268429615542341</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.7200991081976834</v>
+        <v>302.5680988722939</v>
       </c>
       <c r="AG15" t="n">
-        <v>36.93067536519272</v>
+        <v>84.95959826253163</v>
       </c>
       <c r="AH15" t="n">
-        <v>188.4814501082333</v>
+        <v>-934.6785094452596</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.6606850494326472</v>
+        <v>-5.950326301456187</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-25.5505805922119</v>
+        <v>92.67567258397526</v>
       </c>
       <c r="AK15" t="n">
-        <v>-11084.83596899487</v>
+        <v>-1.242745261375122</v>
       </c>
       <c r="AL15" t="n">
-        <v>362.9975814076965</v>
+        <v>-35.51744267296183</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.9979595205026831</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>-47.07091463320583</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>-1346.64306505126</v>
+        <v>-458.7735576174624</v>
       </c>
     </row>
     <row r="16">
@@ -2257,121 +2169,115 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>104.8064828441859</v>
+        <v>103.366839657612</v>
       </c>
       <c r="E16" t="n">
-        <v>11.18551910179299</v>
+        <v>11.02772864907349</v>
       </c>
       <c r="F16" t="n">
-        <v>119.6341830128622</v>
+        <v>114.3059618800882</v>
       </c>
       <c r="G16" t="n">
-        <v>2930.052708477418</v>
+        <v>2558.998394449437</v>
       </c>
       <c r="H16" t="n">
-        <v>427158.8248169036</v>
+        <v>447319.5538530251</v>
       </c>
       <c r="I16" t="n">
-        <v>455308.2279756662</v>
+        <v>482421.5637025967</v>
       </c>
       <c r="J16" t="n">
-        <v>6681.108144567494</v>
+        <v>-26833.93994399816</v>
       </c>
       <c r="K16" t="n">
-        <v>9241.661958066472</v>
+        <v>-0.2481050939771984</v>
       </c>
       <c r="L16" t="n">
-        <v>-6182.813549431889</v>
+        <v>-19.54708813230705</v>
       </c>
       <c r="M16" t="n">
-        <v>1.904364386833313</v>
+        <v>136.9433084685137</v>
       </c>
       <c r="N16" t="n">
-        <v>3.838578254861097</v>
+        <v>5.92277759742158</v>
       </c>
       <c r="O16" t="n">
-        <v>249.1342263386369</v>
+        <v>125.199362391308</v>
       </c>
       <c r="P16" t="n">
-        <v>3.458710735542303</v>
+        <v>517.8620097034708</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.06334551839133</v>
+        <v>13.14325033316785</v>
       </c>
       <c r="R16" t="n">
-        <v>1964.633155276272</v>
+        <v>185.5246589077715</v>
       </c>
       <c r="S16" t="n">
-        <v>16.94826012952413</v>
+        <v>2867.258637042155</v>
       </c>
       <c r="T16" t="n">
-        <v>183.3207600831597</v>
+        <v>159</v>
       </c>
       <c r="U16" t="n">
-        <v>3607.699159896598</v>
+        <v>179</v>
       </c>
       <c r="V16" t="n">
-        <v>72</v>
+        <v>383</v>
       </c>
       <c r="W16" t="n">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="X16" t="n">
-        <v>339</v>
+        <v>0.8214164992282951</v>
       </c>
       <c r="Y16" t="n">
-        <v>19</v>
+        <v>0.9518607309486</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.7162605774949214</v>
+        <v>10.70599014471833</v>
       </c>
       <c r="AA16" t="n">
-        <v>2.429297935927805</v>
+        <v>4040.797073417912</v>
       </c>
       <c r="AB16" t="n">
-        <v>119.0680397572448</v>
+        <v>310.8964008360721</v>
       </c>
       <c r="AC16" t="n">
-        <v>4132.982269023343</v>
+        <v>0.2525241800343199</v>
       </c>
       <c r="AD16" t="n">
-        <v>2676.1289961394</v>
+        <v>0.2865131404406464</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.2165866355750524</v>
+        <v>3.304316383845715</v>
       </c>
       <c r="AF16" t="n">
-        <v>0.7355225324727503</v>
+        <v>303.9474683798321</v>
       </c>
       <c r="AG16" t="n">
-        <v>37.14231750433834</v>
+        <v>86.821197945414</v>
       </c>
       <c r="AH16" t="n">
-        <v>189.3517465734162</v>
+        <v>32.17990556312343</v>
       </c>
       <c r="AI16" t="n">
-        <v>95.08041151801982</v>
+        <v>-8.76065796601074</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-26.0875043015547</v>
+        <v>2.546274710313015</v>
       </c>
       <c r="AK16" t="n">
-        <v>-988.2395466786008</v>
+        <v>-0.2917688087008574</v>
       </c>
       <c r="AL16" t="n">
-        <v>-78.52124409426239</v>
+        <v>-39.40685983344142</v>
       </c>
       <c r="AM16" t="n">
-        <v>-1.55434634870899</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>-32.22476726353023</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>-1715.498928937636</v>
+        <v>63.61924819977893</v>
       </c>
     </row>
     <row r="17">
@@ -2382,121 +2288,115 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>105.1510860192137</v>
+        <v>103.5028035738255</v>
       </c>
       <c r="E17" t="n">
-        <v>11.20750554656695</v>
+        <v>11.09148499773197</v>
       </c>
       <c r="F17" t="n">
-        <v>119.6840112729881</v>
+        <v>114.3318573026558</v>
       </c>
       <c r="G17" t="n">
-        <v>2945.645919521848</v>
+        <v>2559.189614593322</v>
       </c>
       <c r="H17" t="n">
-        <v>422559.5439205884</v>
+        <v>447288.4627736189</v>
       </c>
       <c r="I17" t="n">
-        <v>461190.0451665798</v>
+        <v>483414.9811385078</v>
       </c>
       <c r="J17" t="n">
-        <v>10892.6725389039</v>
+        <v>-27846.01454814625</v>
       </c>
       <c r="K17" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.063150424115451</v>
       </c>
       <c r="L17" t="n">
-        <v>-6182.813549431889</v>
+        <v>-18.96504297813395</v>
       </c>
       <c r="M17" t="n">
-        <v>1.911425410826855</v>
+        <v>193.4296829186875</v>
       </c>
       <c r="N17" t="n">
-        <v>4.064524880855704</v>
+        <v>6.941378809627421</v>
       </c>
       <c r="O17" t="n">
-        <v>292.2933432835289</v>
+        <v>117.8465710159306</v>
       </c>
       <c r="P17" t="n">
-        <v>8.671323329154644</v>
+        <v>979.8423007065294</v>
       </c>
       <c r="Q17" t="n">
-        <v>109.8881987424108</v>
+        <v>14.16243664171231</v>
       </c>
       <c r="R17" t="n">
-        <v>1965.633104527569</v>
+        <v>188.1200158853004</v>
       </c>
       <c r="S17" t="n">
-        <v>22.76978389190717</v>
+        <v>3389.980810867723</v>
       </c>
       <c r="T17" t="n">
-        <v>257.6588878275224</v>
+        <v>167</v>
       </c>
       <c r="U17" t="n">
-        <v>3774.77008310028</v>
+        <v>194</v>
       </c>
       <c r="V17" t="n">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="W17" t="n">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="X17" t="n">
-        <v>353</v>
+        <v>0.8695590520326659</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>1.00552614295321</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.7368034034387299</v>
+        <v>10.86709284298536</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.463727288065493</v>
+        <v>4452.228979428628</v>
       </c>
       <c r="AB17" t="n">
-        <v>126.6022101946317</v>
+        <v>339.7046497287544</v>
       </c>
       <c r="AC17" t="n">
-        <v>4572.214458779136</v>
+        <v>0.2671594197446244</v>
       </c>
       <c r="AD17" t="n">
-        <v>2720.903142404973</v>
+        <v>0.3022605875452082</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.2228753668474353</v>
+        <v>3.352706600948989</v>
       </c>
       <c r="AF17" t="n">
-        <v>0.752717128803711</v>
+        <v>303.9841126413004</v>
       </c>
       <c r="AG17" t="n">
-        <v>39.41735336963361</v>
+        <v>88.51770586377391</v>
       </c>
       <c r="AH17" t="n">
-        <v>189.7319594791019</v>
+        <v>54.32293851751155</v>
       </c>
       <c r="AI17" t="n">
-        <v>139.81875478728</v>
+        <v>0.5674634109908538</v>
       </c>
       <c r="AJ17" t="n">
-        <v>98.46799903614605</v>
+        <v>12.7779608205972</v>
       </c>
       <c r="AK17" t="n">
-        <v>190.3223237024057</v>
+        <v>-1.760474612015627</v>
       </c>
       <c r="AL17" t="n">
-        <v>19.66759079515657</v>
+        <v>-30.48019630290785</v>
       </c>
       <c r="AM17" t="n">
-        <v>-6.759897918327789</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>-105.8236738615551</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>-1673.339761244041</v>
+        <v>-320.1069474855922</v>
       </c>
     </row>
     <row r="18">
@@ -2507,121 +2407,115 @@
         <v>20</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>105.4583361101137</v>
+        <v>103.6297128948809</v>
       </c>
       <c r="E18" t="n">
-        <v>11.30480667314384</v>
+        <v>11.09196006778159</v>
       </c>
       <c r="F18" t="n">
-        <v>120.3428032254699</v>
+        <v>114.6299954374788</v>
       </c>
       <c r="G18" t="n">
-        <v>2942.942339825753</v>
+        <v>2558.759144488998</v>
       </c>
       <c r="H18" t="n">
-        <v>426032.203042427</v>
+        <v>448304.3110193665</v>
       </c>
       <c r="I18" t="n">
-        <v>464586.919783538</v>
+        <v>484386.8337713773</v>
       </c>
       <c r="J18" t="n">
-        <v>5877.454766573113</v>
+        <v>-28136.27270938157</v>
       </c>
       <c r="K18" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.059559442639544</v>
       </c>
       <c r="L18" t="n">
-        <v>-11014.53888615015</v>
+        <v>-18.35820191670754</v>
       </c>
       <c r="M18" t="n">
-        <v>1.484990955892949</v>
+        <v>39.99105589005364</v>
       </c>
       <c r="N18" t="n">
-        <v>6.130604356139568</v>
+        <v>7.15944021554059</v>
       </c>
       <c r="O18" t="n">
-        <v>293.2429454206075</v>
+        <v>122.7096627044377</v>
       </c>
       <c r="P18" t="n">
-        <v>8.716770643726889</v>
+        <v>1124.916632474078</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.5181110927218</v>
+        <v>14.46914265707002</v>
       </c>
       <c r="R18" t="n">
-        <v>1592.61608395684</v>
+        <v>193.7324913508663</v>
       </c>
       <c r="S18" t="n">
-        <v>22.98553862054242</v>
+        <v>3547.214383533268</v>
       </c>
       <c r="T18" t="n">
-        <v>264.2095556003704</v>
+        <v>175</v>
       </c>
       <c r="U18" t="n">
-        <v>3933.744433327053</v>
+        <v>209</v>
       </c>
       <c r="V18" t="n">
-        <v>81</v>
+        <v>427</v>
       </c>
       <c r="W18" t="n">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="X18" t="n">
-        <v>375</v>
+        <v>0.9221151539745901</v>
       </c>
       <c r="Y18" t="n">
-        <v>20</v>
+        <v>1.04590161405326</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.8032632812759934</v>
+        <v>12.12385111551943</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.5319271835484</v>
+        <v>4484.013433947706</v>
       </c>
       <c r="AB18" t="n">
-        <v>127.6309451107402</v>
+        <v>339.8709408385934</v>
       </c>
       <c r="AC18" t="n">
-        <v>5366.818927891022</v>
+        <v>0.2829648121065578</v>
       </c>
       <c r="AD18" t="n">
-        <v>2865.178003659143</v>
+        <v>0.3143424148213159</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.2427609469346331</v>
+        <v>3.73508664367715</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.7738608239271449</v>
+        <v>304.035894490875</v>
       </c>
       <c r="AG18" t="n">
-        <v>39.7264687835434</v>
+        <v>88.53130601820658</v>
       </c>
       <c r="AH18" t="n">
-        <v>191.323388738112</v>
+        <v>-11.86488964811099</v>
       </c>
       <c r="AI18" t="n">
-        <v>171.3525407936083</v>
+        <v>42.31798682941087</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-26.50468750044246</v>
+        <v>16.68483911475801</v>
       </c>
       <c r="AK18" t="n">
-        <v>-215.3884536823373</v>
+        <v>-1.963982693373878</v>
       </c>
       <c r="AL18" t="n">
-        <v>-53.40404699791452</v>
+        <v>-33.07910879530236</v>
       </c>
       <c r="AM18" t="n">
-        <v>-7.23177968783394</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>-106.3875067365822</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>-1299.373138536233</v>
+        <v>-490.104755030703</v>
       </c>
     </row>
     <row r="19">
@@ -2632,121 +2526,115 @@
         <v>20</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>105.7235307386951</v>
+        <v>103.7828684672084</v>
       </c>
       <c r="E19" t="n">
-        <v>11.32481896906493</v>
+        <v>11.13787078384529</v>
       </c>
       <c r="F19" t="n">
-        <v>120.9779787503647</v>
+        <v>114.5836791160177</v>
       </c>
       <c r="G19" t="n">
-        <v>2946.314025455059</v>
+        <v>2569.003118644172</v>
       </c>
       <c r="H19" t="n">
-        <v>420626.0912757341</v>
+        <v>450963.1461929597</v>
       </c>
       <c r="I19" t="n">
-        <v>471948.221831174</v>
+        <v>483650.5171680038</v>
       </c>
       <c r="J19" t="n">
-        <v>7750.223330400864</v>
+        <v>-30121.82712733743</v>
       </c>
       <c r="K19" t="n">
-        <v>9241.661958066472</v>
+        <v>-1.421591691372126</v>
       </c>
       <c r="L19" t="n">
-        <v>-11014.53888615015</v>
+        <v>-20.17430742567997</v>
       </c>
       <c r="M19" t="n">
-        <v>0.2899734651093345</v>
+        <v>19.94884098158248</v>
       </c>
       <c r="N19" t="n">
-        <v>7.155908948800151</v>
+        <v>6.593040005678319</v>
       </c>
       <c r="O19" t="n">
-        <v>292.505742499525</v>
+        <v>106.382774798836</v>
       </c>
       <c r="P19" t="n">
-        <v>10.05571246168115</v>
+        <v>1387.514777930911</v>
       </c>
       <c r="Q19" t="n">
-        <v>91.49527869424621</v>
+        <v>14.71463173036978</v>
       </c>
       <c r="R19" t="n">
-        <v>1411.731622857</v>
+        <v>192.1604385381005</v>
       </c>
       <c r="S19" t="n">
-        <v>24.48530371424424</v>
+        <v>3885.403207183153</v>
       </c>
       <c r="T19" t="n">
-        <v>266.1860974651286</v>
+        <v>192</v>
       </c>
       <c r="U19" t="n">
-        <v>3933.744433327053</v>
+        <v>220</v>
       </c>
       <c r="V19" t="n">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="W19" t="n">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="X19" t="n">
-        <v>393</v>
+        <v>0.9726627931584978</v>
       </c>
       <c r="Y19" t="n">
-        <v>20</v>
+        <v>1.058856867760434</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.8317839172286636</v>
+        <v>12.24684356290333</v>
       </c>
       <c r="AA19" t="n">
-        <v>2.588009463573751</v>
+        <v>5452.147893045052</v>
       </c>
       <c r="AB19" t="n">
-        <v>127.6844831029128</v>
+        <v>346.2568935282927</v>
       </c>
       <c r="AC19" t="n">
-        <v>6396.837889613683</v>
+        <v>0.2979590309465739</v>
       </c>
       <c r="AD19" t="n">
-        <v>2915.720160237379</v>
+        <v>0.3185448221246817</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.2511845782419843</v>
+        <v>3.772464430146733</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.7909193305485599</v>
+        <v>304.2974119195387</v>
       </c>
       <c r="AG19" t="n">
-        <v>39.74264476017738</v>
+        <v>88.56273620681903</v>
       </c>
       <c r="AH19" t="n">
-        <v>191.951673278682</v>
+        <v>-190.1137368238551</v>
       </c>
       <c r="AI19" t="n">
-        <v>221.8665761274938</v>
+        <v>17.66312372090812</v>
       </c>
       <c r="AJ19" t="n">
-        <v>455.931852054337</v>
+        <v>-152.9156111908453</v>
       </c>
       <c r="AK19" t="n">
-        <v>-1945.570303324741</v>
+        <v>-1.708143159482424</v>
       </c>
       <c r="AL19" t="n">
-        <v>-36.93886887526351</v>
+        <v>-16.0460329906012</v>
       </c>
       <c r="AM19" t="n">
-        <v>-9.765738996571812</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>-84.33936974544604</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>-1119.225880357475</v>
+        <v>-751.6421383322572</v>
       </c>
     </row>
     <row r="20">
@@ -2757,121 +2645,115 @@
         <v>20</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>105.9018687220079</v>
+        <v>103.9142923901194</v>
       </c>
       <c r="E20" t="n">
-        <v>11.3143613433062</v>
+        <v>11.06593596631541</v>
       </c>
       <c r="F20" t="n">
-        <v>121.5903216482443</v>
+        <v>114.6121852090516</v>
       </c>
       <c r="G20" t="n">
-        <v>2923.22379607985</v>
+        <v>2547.169881096374</v>
       </c>
       <c r="H20" t="n">
-        <v>414509.2657992952</v>
+        <v>456134.8345994006</v>
       </c>
       <c r="I20" t="n">
-        <v>472380.1801043245</v>
+        <v>488255.0551310779</v>
       </c>
       <c r="J20" t="n">
-        <v>20715.24725150369</v>
+        <v>-31370.80556476877</v>
       </c>
       <c r="K20" t="n">
-        <v>9960.143816495853</v>
+        <v>-1.458909623287447</v>
       </c>
       <c r="L20" t="n">
-        <v>-11014.53888615015</v>
+        <v>-30.14937023602711</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3932734883226719</v>
+        <v>163.6175864063645</v>
       </c>
       <c r="N20" t="n">
-        <v>6.657246514898213</v>
+        <v>6.952920627330372</v>
       </c>
       <c r="O20" t="n">
-        <v>223.382772144116</v>
+        <v>106.7725733033162</v>
       </c>
       <c r="P20" t="n">
-        <v>10.77434788015484</v>
+        <v>1534.498346010907</v>
       </c>
       <c r="Q20" t="n">
-        <v>87.98347599691307</v>
+        <v>15.12611004916181</v>
       </c>
       <c r="R20" t="n">
-        <v>717.4811973794816</v>
+        <v>184.9742234360464</v>
       </c>
       <c r="S20" t="n">
-        <v>25.56541257287164</v>
+        <v>4200.767646894911</v>
       </c>
       <c r="T20" t="n">
-        <v>279.4098839918822</v>
+        <v>200</v>
       </c>
       <c r="U20" t="n">
-        <v>3934.114636363275</v>
+        <v>236</v>
       </c>
       <c r="V20" t="n">
-        <v>84</v>
+        <v>476</v>
       </c>
       <c r="W20" t="n">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="X20" t="n">
-        <v>414</v>
+        <v>1.034018200812064</v>
       </c>
       <c r="Y20" t="n">
-        <v>21</v>
+        <v>1.027253173951742</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.8695223180100264</v>
+        <v>12.80268489363586</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.694821640929847</v>
+        <v>5454.707692934654</v>
       </c>
       <c r="AB20" t="n">
-        <v>128.4224131337716</v>
+        <v>351.7880015215553</v>
       </c>
       <c r="AC20" t="n">
-        <v>7935.398940991999</v>
+        <v>0.3172046412163378</v>
       </c>
       <c r="AD20" t="n">
-        <v>2975.961947835205</v>
+        <v>0.3094820157119754</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.2624113901621055</v>
+        <v>3.938400137389138</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.8233084400803387</v>
+        <v>304.3234815155797</v>
       </c>
       <c r="AG20" t="n">
-        <v>39.96420565459417</v>
+        <v>88.58368499190948</v>
       </c>
       <c r="AH20" t="n">
-        <v>194.0405088787545</v>
+        <v>-198.5245750946245</v>
       </c>
       <c r="AI20" t="n">
-        <v>222.1733249580328</v>
+        <v>1412.411315287995</v>
       </c>
       <c r="AJ20" t="n">
-        <v>49.66633342142268</v>
+        <v>30.20069679947164</v>
       </c>
       <c r="AK20" t="n">
-        <v>-1198.154746107196</v>
+        <v>-2.137507279885269</v>
       </c>
       <c r="AL20" t="n">
-        <v>-1065.57633888949</v>
+        <v>-18.69327342876627</v>
       </c>
       <c r="AM20" t="n">
-        <v>-10.38107439183217</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>-81.32622948201484</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-494.0984252353658</v>
+        <v>-888.6242315268141</v>
       </c>
     </row>
     <row r="21">
@@ -2882,121 +2764,115 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>106.0077226452962</v>
+        <v>104.0801277579057</v>
       </c>
       <c r="E21" t="n">
-        <v>11.34315215242731</v>
+        <v>11.12919160199701</v>
       </c>
       <c r="F21" t="n">
-        <v>122.1588728914166</v>
+        <v>113.8135388108608</v>
       </c>
       <c r="G21" t="n">
-        <v>2925.759178820526</v>
+        <v>2557.960810055117</v>
       </c>
       <c r="H21" t="n">
-        <v>412725.172556477</v>
+        <v>458142.5706133089</v>
       </c>
       <c r="I21" t="n">
-        <v>473132.6122854883</v>
+        <v>488297.9667476661</v>
       </c>
       <c r="J21" t="n">
-        <v>21007.65298313052</v>
+        <v>-31635.04264717796</v>
       </c>
       <c r="K21" t="n">
-        <v>9960.143816495853</v>
+        <v>-1.262875626156105</v>
       </c>
       <c r="L21" t="n">
-        <v>-11014.53888615015</v>
+        <v>-30.46195792056629</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3932734883226719</v>
+        <v>149.8091678533978</v>
       </c>
       <c r="N21" t="n">
-        <v>3.912276309701314</v>
+        <v>6.590959062844884</v>
       </c>
       <c r="O21" t="n">
-        <v>104.5928114342752</v>
+        <v>107.8844280828911</v>
       </c>
       <c r="P21" t="n">
-        <v>10.92640946081432</v>
+        <v>1458.32884436532</v>
       </c>
       <c r="Q21" t="n">
-        <v>86.93638356669304</v>
+        <v>15.3483027543786</v>
       </c>
       <c r="R21" t="n">
-        <v>692.4970836181453</v>
+        <v>186.2530150849861</v>
       </c>
       <c r="S21" t="n">
-        <v>25.71747415353112</v>
+        <v>4264.059883695879</v>
       </c>
       <c r="T21" t="n">
-        <v>278.5590879127592</v>
+        <v>211</v>
       </c>
       <c r="U21" t="n">
-        <v>3981.881203441066</v>
+        <v>251</v>
       </c>
       <c r="V21" t="n">
-        <v>86</v>
+        <v>502</v>
       </c>
       <c r="W21" t="n">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="X21" t="n">
-        <v>428</v>
+        <v>1.085720044669822</v>
       </c>
       <c r="Y21" t="n">
-        <v>22</v>
+        <v>1.080129127194329</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.8907688130808764</v>
+        <v>13.16482887990667</v>
       </c>
       <c r="AA21" t="n">
-        <v>2.756515674509219</v>
+        <v>5788.04020824006</v>
       </c>
       <c r="AB21" t="n">
-        <v>129.6427437568954</v>
+        <v>356.8551088460757</v>
       </c>
       <c r="AC21" t="n">
-        <v>8052.715627158245</v>
+        <v>0.3318972315443779</v>
       </c>
       <c r="AD21" t="n">
-        <v>2976.018723781858</v>
+        <v>0.3270403342293041</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.2687236210446607</v>
+        <v>4.044623186468647</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.8421051740212846</v>
+        <v>317.1851665283024</v>
       </c>
       <c r="AG21" t="n">
-        <v>40.33140743435089</v>
+        <v>88.59758713710761</v>
       </c>
       <c r="AH21" t="n">
-        <v>214.2084904019549</v>
+        <v>-370.2984523863299</v>
       </c>
       <c r="AI21" t="n">
-        <v>222.1898126818125</v>
+        <v>20.43632446583763</v>
       </c>
       <c r="AJ21" t="n">
-        <v>145.0646890014577</v>
+        <v>-131.6667575971601</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.6623299660400335</v>
+        <v>-1.55425180841431</v>
       </c>
       <c r="AL21" t="n">
-        <v>-847.8387799629936</v>
+        <v>-19.03270008562581</v>
       </c>
       <c r="AM21" t="n">
-        <v>-10.53313597249164</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>-83.0241072569917</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>-587.9042721838704</v>
+        <v>-820.8571016680014</v>
       </c>
     </row>
     <row r="22">
@@ -3007,121 +2883,115 @@
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>106.1549270962739</v>
+        <v>104.3346351744085</v>
       </c>
       <c r="E22" t="n">
-        <v>11.34607091047242</v>
+        <v>11.30975503963886</v>
       </c>
       <c r="F22" t="n">
-        <v>122.6087980429151</v>
+        <v>114.2492870863051</v>
       </c>
       <c r="G22" t="n">
-        <v>2929.633150246637</v>
+        <v>2563.933119006824</v>
       </c>
       <c r="H22" t="n">
-        <v>404760.3562233775</v>
+        <v>454533.6582345346</v>
       </c>
       <c r="I22" t="n">
-        <v>481696.9567218355</v>
+        <v>487535.5138936783</v>
       </c>
       <c r="J22" t="n">
-        <v>23735.33008252746</v>
+        <v>-31685.99954082584</v>
       </c>
       <c r="K22" t="n">
-        <v>9856.315100814203</v>
+        <v>-1.258736698509748</v>
       </c>
       <c r="L22" t="n">
-        <v>-9161.598642002347</v>
+        <v>-31.09050154814122</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3137308643333981</v>
+        <v>95.28342025936013</v>
       </c>
       <c r="N22" t="n">
-        <v>4.717247185900745</v>
+        <v>7.045194968774501</v>
       </c>
       <c r="O22" t="n">
-        <v>117.521725793788</v>
+        <v>138.8385187943632</v>
       </c>
       <c r="P22" t="n">
-        <v>8.882998328148407</v>
+        <v>1572.732646456509</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.53739374040748</v>
+        <v>16.01902228146692</v>
       </c>
       <c r="R22" t="n">
-        <v>843.7175586364804</v>
+        <v>220.3306212738403</v>
       </c>
       <c r="S22" t="n">
-        <v>25.71747415353112</v>
+        <v>4341.821152477276</v>
       </c>
       <c r="T22" t="n">
-        <v>283.1689964045165</v>
+        <v>227</v>
       </c>
       <c r="U22" t="n">
-        <v>4151.720280517797</v>
+        <v>266</v>
       </c>
       <c r="V22" t="n">
-        <v>91</v>
+        <v>526</v>
       </c>
       <c r="W22" t="n">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="X22" t="n">
-        <v>439</v>
+        <v>1.19301226244078</v>
       </c>
       <c r="Y22" t="n">
-        <v>24</v>
+        <v>1.109805789849841</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.9080343975415877</v>
+        <v>13.39047505712402</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.851704947335361</v>
+        <v>5898.833313147759</v>
       </c>
       <c r="AB22" t="n">
-        <v>131.1088069750212</v>
+        <v>358.9510198964631</v>
       </c>
       <c r="AC22" t="n">
-        <v>9294.142455256082</v>
+        <v>0.362252755475695</v>
       </c>
       <c r="AD22" t="n">
-        <v>3547.426899624077</v>
+        <v>0.3374686250558122</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.273463424344912</v>
+        <v>4.111808911932927</v>
       </c>
       <c r="AF22" t="n">
-        <v>0.8710177872795279</v>
+        <v>327.4645376146351</v>
       </c>
       <c r="AG22" t="n">
-        <v>40.7721443218597</v>
+        <v>88.61437963149113</v>
       </c>
       <c r="AH22" t="n">
-        <v>214.3071880028748</v>
+        <v>-92.15534297391218</v>
       </c>
       <c r="AI22" t="n">
-        <v>222.206494218649</v>
+        <v>13.55380241424609</v>
       </c>
       <c r="AJ22" t="n">
-        <v>-5487.778125233489</v>
+        <v>-1671.276423669221</v>
       </c>
       <c r="AK22" t="n">
-        <v>-75.98910205491165</v>
+        <v>-1.868828328200577</v>
       </c>
       <c r="AL22" t="n">
-        <v>-1169.720021379941</v>
+        <v>-50.01836866458946</v>
       </c>
       <c r="AM22" t="n">
-        <v>-8.569267463815008</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>-53.82014655450669</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>-726.1958328426927</v>
+        <v>-831.2390435135956</v>
       </c>
     </row>
   </sheetData>

--- a/run_merged.xlsx
+++ b/run_merged.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Traction charts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pool charts" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26,12 +28,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="000000FF"/>
+        <bgColor rgb="000000FF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +66,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -122,6 +145,920 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>number_of_liquidity_providers</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="00FF00"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$C$3:$C$30</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>LPs</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>number_of_traders</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="00FF00"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$3:$B$30</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Trads</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>pool_balance_btc</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$E$3:$E$30</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>BTC</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>pool_balance_eth</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <val>
+            <numRef>
+              <f>'Sheet'!$F$3:$F$30</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>ETH</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>pool_balance_sol</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="00FF00"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="00FF00"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$G$3:$G$30</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>SOL</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>pool_balance_usdc</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$H$3:$H$30</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>USDC</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>pool_balance_usdt</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <areaChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <val>
+            <numRef>
+              <f>'Sheet'!$I$3:$I$30</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </areaChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>USDT</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,22 +1697,22 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>100.2755224955175</v>
+        <v>100.2376452362495</v>
       </c>
       <c r="E4" t="n">
-        <v>4.973741336926092</v>
+        <v>5.08848781330457</v>
       </c>
       <c r="F4" t="n">
-        <v>74.01499072808843</v>
+        <v>74.43859930455157</v>
       </c>
       <c r="G4" t="n">
-        <v>7564.939907617088</v>
+        <v>7642.317170932033</v>
       </c>
       <c r="H4" t="n">
-        <v>152265.6797544386</v>
+        <v>144040.5562366764</v>
       </c>
       <c r="I4" t="n">
-        <v>152819.7414484453</v>
+        <v>154585.1379672579</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -787,91 +1724,91 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.08714049592408157</v>
+        <v>1.92325592021922</v>
       </c>
       <c r="N4" t="n">
-        <v>10.71669888441983</v>
+        <v>13.26162177733768</v>
       </c>
       <c r="O4" t="n">
-        <v>1122.391459808171</v>
+        <v>1648.019454842863</v>
       </c>
       <c r="P4" t="n">
-        <v>0.07483487331068484</v>
+        <v>0.03404071193896419</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.05291819435174044</v>
       </c>
       <c r="R4" t="n">
-        <v>4167.814137739986</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.6504671249099855</v>
+        <v>2.174477664061149</v>
       </c>
       <c r="T4" t="n">
-        <v>16.79798359187722</v>
+        <v>17.24844953519803</v>
       </c>
       <c r="U4" t="n">
-        <v>6179.494127904245</v>
+        <v>2091.87821404041</v>
       </c>
       <c r="V4" t="n">
         <v>4</v>
       </c>
       <c r="W4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X4" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.05812101959819305</v>
+        <v>0.04215106040797702</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06487650602950081</v>
+        <v>0.03417083529756441</v>
       </c>
       <c r="AB4" t="n">
-        <v>12.76753238858353</v>
+        <v>25.23001111144956</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.03633149364054014</v>
+        <v>0.03593693108241276</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.04130248269728885</v>
+        <v>0.03168181425327447</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.058822817379889</v>
+        <v>5.041805062145253</v>
       </c>
       <c r="AF4" t="n">
-        <v>75.06552148404973</v>
+        <v>75.03435903949682</v>
       </c>
       <c r="AG4" t="n">
-        <v>7512.705750105811</v>
+        <v>7524.940610412578</v>
       </c>
       <c r="AH4" t="n">
-        <v>150000.0359530764</v>
+        <v>150000.0369777183</v>
       </c>
       <c r="AI4" t="n">
-        <v>150000.0407690277</v>
+        <v>150000.0310240189</v>
       </c>
       <c r="AJ4" t="n">
-        <v>3.984881756775339</v>
+        <v>22.92976198973913</v>
       </c>
       <c r="AK4" t="n">
-        <v>3.066675484896577</v>
+        <v>45.38984935387975</v>
       </c>
       <c r="AL4" t="n">
-        <v>134.3825383233631</v>
+        <v>-51.52260594586213</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01230562261339674</v>
+        <v>1.889215208280256</v>
       </c>
       <c r="AN4" t="n">
-        <v>10.71669888441983</v>
+        <v>13.20870358298594</v>
       </c>
       <c r="AO4" t="n">
-        <v>-3045.422677931815</v>
+        <v>1648.019454842863</v>
       </c>
     </row>
     <row r="5">
@@ -885,22 +1822,22 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>100.541332713585</v>
+        <v>100.3929206001736</v>
       </c>
       <c r="E5" t="n">
-        <v>5.173169049476995</v>
+        <v>5.185067153628724</v>
       </c>
       <c r="F5" t="n">
-        <v>73.11987259266741</v>
+        <v>74.59624300520078</v>
       </c>
       <c r="G5" t="n">
-        <v>7489.329731300402</v>
+        <v>7469.562098623548</v>
       </c>
       <c r="H5" t="n">
-        <v>150753.7273470243</v>
+        <v>148577.318869659</v>
       </c>
       <c r="I5" t="n">
-        <v>155214.9182131145</v>
+        <v>152407.7440348693</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -912,91 +1849,91 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3.106885178139556</v>
+        <v>1.92325592021922</v>
       </c>
       <c r="N5" t="n">
-        <v>11.10029625306991</v>
+        <v>32.98874756538459</v>
       </c>
       <c r="O5" t="n">
-        <v>1590.996392183525</v>
+        <v>1817.165983433273</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07496740116918722</v>
+        <v>0.3687678145572815</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>7.827540110135387</v>
       </c>
       <c r="R5" t="n">
-        <v>4227.059513467489</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.955295629734426</v>
+        <v>2.670635539470163</v>
       </c>
       <c r="T5" t="n">
-        <v>24.14158085016169</v>
+        <v>44.80895411671157</v>
       </c>
       <c r="U5" t="n">
-        <v>7257.634484103909</v>
+        <v>2652.077777611053</v>
       </c>
       <c r="V5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X5" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.09591305826122574</v>
+        <v>0.06301370148785618</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1531958818638641</v>
+        <v>0.05954451754372973</v>
       </c>
       <c r="AB5" t="n">
-        <v>17.68504424235121</v>
+        <v>26.9622371897198</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1035911263927807</v>
+        <v>0.08751417842333566</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.06693596194382741</v>
+        <v>0.06295820702208674</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.096222195040783</v>
+        <v>5.062308067412093</v>
       </c>
       <c r="AF5" t="n">
-        <v>75.15546833244569</v>
+        <v>75.05983008680111</v>
       </c>
       <c r="AG5" t="n">
-        <v>7517.636278267389</v>
+        <v>7526.682026097754</v>
       </c>
       <c r="AH5" t="n">
-        <v>150000.1029773454</v>
+        <v>150000.0889006931</v>
       </c>
       <c r="AI5" t="n">
-        <v>150000.0657996501</v>
+        <v>150000.0619545451</v>
       </c>
       <c r="AJ5" t="n">
-        <v>272.2500569015992</v>
+        <v>167.5817459081283</v>
       </c>
       <c r="AK5" t="n">
-        <v>-4.800002514638138</v>
+        <v>-17.28990478254479</v>
       </c>
       <c r="AL5" t="n">
-        <v>21.29807664069127</v>
+        <v>39.77404503800083</v>
       </c>
       <c r="AM5" t="n">
-        <v>3.031917776970368</v>
+        <v>1.554488105661939</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.10029625306991</v>
+        <v>25.1612074552492</v>
       </c>
       <c r="AO5" t="n">
-        <v>-2636.063121283963</v>
+        <v>1817.165983433273</v>
       </c>
     </row>
     <row r="6">
@@ -1004,28 +1941,28 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>100.6293534159457</v>
+        <v>102.2124147431598</v>
       </c>
       <c r="E6" t="n">
-        <v>5.179209076232093</v>
+        <v>5.189967527323352</v>
       </c>
       <c r="F6" t="n">
-        <v>73.37310507252037</v>
+        <v>74.66706290682949</v>
       </c>
       <c r="G6" t="n">
-        <v>7489.329731300402</v>
+        <v>8104.867865853168</v>
       </c>
       <c r="H6" t="n">
-        <v>150753.7273470243</v>
+        <v>148577.318869659</v>
       </c>
       <c r="I6" t="n">
-        <v>155214.9182131145</v>
+        <v>152407.7440348693</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1037,91 +1974,91 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3.106885178139556</v>
+        <v>1.92325592021922</v>
       </c>
       <c r="N6" t="n">
-        <v>11.10029625306991</v>
+        <v>32.98874756538459</v>
       </c>
       <c r="O6" t="n">
-        <v>1590.996392183525</v>
+        <v>1817.165983433273</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07496740116918722</v>
+        <v>0.3687678145572815</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>7.827540110135387</v>
       </c>
       <c r="R6" t="n">
-        <v>4227.059513467489</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.955295629734426</v>
+        <v>2.670635539470163</v>
       </c>
       <c r="T6" t="n">
-        <v>24.14158085016169</v>
+        <v>44.80895411671157</v>
       </c>
       <c r="U6" t="n">
-        <v>7257.634484103909</v>
+        <v>2652.077777611053</v>
       </c>
       <c r="V6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.09606037598695984</v>
+        <v>0.06313322279748125</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1593722838114975</v>
+        <v>0.06127183221760068</v>
       </c>
       <c r="AB6" t="n">
-        <v>17.68504424235121</v>
+        <v>37.53059875748578</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1035911263927807</v>
+        <v>0.08751417842333566</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.06693596194382741</v>
+        <v>0.06295820702208674</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.096369512766517</v>
+        <v>5.062427588721718</v>
       </c>
       <c r="AF6" t="n">
-        <v>75.16164473439332</v>
+        <v>75.06155740147497</v>
       </c>
       <c r="AG6" t="n">
-        <v>7517.636278267389</v>
+        <v>7537.25038766552</v>
       </c>
       <c r="AH6" t="n">
-        <v>150000.1029773454</v>
+        <v>150000.0889006931</v>
       </c>
       <c r="AI6" t="n">
-        <v>150000.0657996501</v>
+        <v>150000.0619545451</v>
       </c>
       <c r="AJ6" t="n">
-        <v>272.2500569015992</v>
+        <v>167.5817459081283</v>
       </c>
       <c r="AK6" t="n">
-        <v>-4.800002514638138</v>
+        <v>-17.28990478254479</v>
       </c>
       <c r="AL6" t="n">
-        <v>21.29807664069127</v>
+        <v>39.77404503800083</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.031917776970368</v>
+        <v>1.554488105661939</v>
       </c>
       <c r="AN6" t="n">
-        <v>11.10029625306991</v>
+        <v>25.1612074552492</v>
       </c>
       <c r="AO6" t="n">
-        <v>-2636.063121283963</v>
+        <v>1817.165983433273</v>
       </c>
     </row>
     <row r="7">
@@ -1129,124 +2066,124 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>100.8271867435803</v>
+        <v>102.5621378487604</v>
       </c>
       <c r="E7" t="n">
-        <v>5.273101327193733</v>
+        <v>5.159765729735428</v>
       </c>
       <c r="F7" t="n">
-        <v>73.5429103531919</v>
+        <v>77.36530564362529</v>
       </c>
       <c r="G7" t="n">
-        <v>7499.116358187938</v>
+        <v>7885.411836653033</v>
       </c>
       <c r="H7" t="n">
-        <v>149333.5146834711</v>
+        <v>155222.5839657394</v>
       </c>
       <c r="I7" t="n">
-        <v>156052.5773178083</v>
+        <v>150844.8164938883</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-399.3476307348294</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.1914784276230515</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-399.5391091624525</v>
       </c>
       <c r="M7" t="n">
-        <v>3.106885178139556</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>21.73105514717629</v>
+        <v>32.98874756538459</v>
       </c>
       <c r="O7" t="n">
-        <v>2108.286149272213</v>
+        <v>2165.466016962862</v>
       </c>
       <c r="P7" t="n">
-        <v>0.07496740116918722</v>
+        <v>0.3687678145572815</v>
       </c>
       <c r="Q7" t="n">
-        <v>28.29098643498192</v>
+        <v>11.96998045972417</v>
       </c>
       <c r="R7" t="n">
-        <v>5053.462788999556</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.087035524159571</v>
+        <v>4.999591059315828</v>
       </c>
       <c r="T7" t="n">
-        <v>65.00868223270666</v>
+        <v>54.19403947525476</v>
       </c>
       <c r="U7" t="n">
-        <v>9210.433503371391</v>
+        <v>3762.488265246156</v>
       </c>
       <c r="V7" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1324866159008688</v>
+        <v>0.1487972642528503</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1929663233141628</v>
+        <v>0.124097183951066</v>
       </c>
       <c r="AB7" t="n">
-        <v>34.15557297589687</v>
+        <v>41.98388220683077</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1602010478827703</v>
+        <v>0.1403925126324972</v>
       </c>
       <c r="AD7" t="n">
-        <v>58.55762914456368</v>
+        <v>0.1099445726560688</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.132111122874064</v>
+        <v>5.147649052168277</v>
       </c>
       <c r="AF7" t="n">
-        <v>75.19576750492419</v>
+        <v>75.12309681760114</v>
       </c>
       <c r="AG7" t="n">
-        <v>7534.160768696695</v>
+        <v>7541.567254490813</v>
       </c>
       <c r="AH7" t="n">
-        <v>150000.1597641671</v>
+        <v>150000.1405336639</v>
       </c>
       <c r="AI7" t="n">
-        <v>150056.9830329295</v>
+        <v>150000.1087567261</v>
       </c>
       <c r="AJ7" t="n">
-        <v>283.3823714776822</v>
+        <v>55.43289601832303</v>
       </c>
       <c r="AK7" t="n">
-        <v>-64.33004009490141</v>
+        <v>430.137273025047</v>
       </c>
       <c r="AL7" t="n">
-        <v>176.8643619021262</v>
+        <v>235.0491808221686</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.031917776970368</v>
+        <v>-0.3687678145572815</v>
       </c>
       <c r="AN7" t="n">
-        <v>-6.559931287805631</v>
+        <v>21.01876710566042</v>
       </c>
       <c r="AO7" t="n">
-        <v>-2945.176639727343</v>
+        <v>2165.466016962862</v>
       </c>
     </row>
     <row r="8">
@@ -1254,124 +2191,124 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>101.2108424797662</v>
+        <v>103.0657262132393</v>
       </c>
       <c r="E8" t="n">
-        <v>5.587066031503483</v>
+        <v>5.307309150516959</v>
       </c>
       <c r="F8" t="n">
-        <v>72.71286018384383</v>
+        <v>76.53237485156637</v>
       </c>
       <c r="G8" t="n">
-        <v>7481.843112537187</v>
+        <v>8105.842407467439</v>
       </c>
       <c r="H8" t="n">
-        <v>146624.624974845</v>
+        <v>150444.5265913286</v>
       </c>
       <c r="I8" t="n">
-        <v>156932.4912470633</v>
+        <v>153232.3086909376</v>
       </c>
       <c r="J8" t="n">
-        <v>-886.7050273342149</v>
+        <v>-768.6386683651481</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-886.7050273342149</v>
+        <v>-399.5391091624525</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6783244399746385</v>
+        <v>1.159753173005337</v>
       </c>
       <c r="N8" t="n">
-        <v>26.50677396504429</v>
+        <v>33.8272593410279</v>
       </c>
       <c r="O8" t="n">
-        <v>2214.546170140019</v>
+        <v>2648.535092961423</v>
       </c>
       <c r="P8" t="n">
-        <v>2.731571126604752</v>
+        <v>0.7734087865756676</v>
       </c>
       <c r="Q8" t="n">
-        <v>31.6720249370719</v>
+        <v>11.96998045972417</v>
       </c>
       <c r="R8" t="n">
-        <v>5087.645991141997</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>10.58981674278881</v>
+        <v>6.744431029673954</v>
       </c>
       <c r="T8" t="n">
-        <v>75.95807811821375</v>
+        <v>57.76514658496707</v>
       </c>
       <c r="U8" t="n">
-        <v>9599.533079789682</v>
+        <v>8478.985156711056</v>
       </c>
       <c r="V8" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.2235660666817289</v>
+        <v>0.1651348961566161</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2276408162709627</v>
+        <v>0.1756567769214779</v>
       </c>
       <c r="AB8" t="n">
-        <v>35.43353813282931</v>
+        <v>151.0608417873309</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.1963079978155713</v>
+        <v>0.1763919651806804</v>
       </c>
       <c r="AD8" t="n">
-        <v>58.59381049405881</v>
+        <v>0.1456561088700292</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.218953852200599</v>
+        <v>5.163676286192422</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.23122549324547</v>
+        <v>75.17406734363816</v>
       </c>
       <c r="AG8" t="n">
-        <v>7535.445143617108</v>
+        <v>7646.01574776227</v>
       </c>
       <c r="AH8" t="n">
-        <v>150000.1964529915</v>
+        <v>150000.1764586855</v>
       </c>
       <c r="AI8" t="n">
-        <v>150057.0181046633</v>
+        <v>150000.1439409703</v>
       </c>
       <c r="AJ8" t="n">
-        <v>135.3261053058535</v>
+        <v>231.0565219403907</v>
       </c>
       <c r="AK8" t="n">
-        <v>458.5872504387316</v>
+        <v>729.1519639479753</v>
       </c>
       <c r="AL8" t="n">
-        <v>1076.584610171958</v>
+        <v>197.794261552697</v>
       </c>
       <c r="AM8" t="n">
-        <v>-2.053246686630113</v>
+        <v>0.3863443864296697</v>
       </c>
       <c r="AN8" t="n">
-        <v>-5.165250972027605</v>
+        <v>21.85727888130372</v>
       </c>
       <c r="AO8" t="n">
-        <v>-2873.099821001977</v>
+        <v>2648.535092961422</v>
       </c>
     </row>
     <row r="9">
@@ -1379,124 +2316,124 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>102.6512421729243</v>
+        <v>103.1147007205403</v>
       </c>
       <c r="E9" t="n">
-        <v>5.604256625366404</v>
+        <v>5.310834719373156</v>
       </c>
       <c r="F9" t="n">
-        <v>72.84079921007111</v>
+        <v>76.67231744144442</v>
       </c>
       <c r="G9" t="n">
-        <v>7966.626220347937</v>
+        <v>8105.842407467439</v>
       </c>
       <c r="H9" t="n">
-        <v>146624.624974845</v>
+        <v>150444.5265913286</v>
       </c>
       <c r="I9" t="n">
-        <v>156932.4912470633</v>
+        <v>153232.3086909376</v>
       </c>
       <c r="J9" t="n">
-        <v>-886.7050273342149</v>
+        <v>-768.6386683651481</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-886.7050273342149</v>
+        <v>-399.5391091624525</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6783244399746385</v>
+        <v>1.159753173005337</v>
       </c>
       <c r="N9" t="n">
-        <v>26.50677396504429</v>
+        <v>33.8272593410279</v>
       </c>
       <c r="O9" t="n">
-        <v>2214.546170140019</v>
+        <v>2648.535092961423</v>
       </c>
       <c r="P9" t="n">
-        <v>2.731571126604752</v>
+        <v>0.7734087865756676</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.6720249370719</v>
+        <v>11.96998045972417</v>
       </c>
       <c r="R9" t="n">
-        <v>5087.645991141997</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>10.58981674278881</v>
+        <v>6.744431029673954</v>
       </c>
       <c r="T9" t="n">
-        <v>75.95807811821375</v>
+        <v>57.76514658496707</v>
       </c>
       <c r="U9" t="n">
-        <v>9599.533079789682</v>
+        <v>8478.985156711056</v>
       </c>
       <c r="V9" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="W9" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.2237809329414975</v>
+        <v>0.1652208856409136</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.2307612803252867</v>
+        <v>0.1790700108209423</v>
       </c>
       <c r="AB9" t="n">
-        <v>42.40982459734528</v>
+        <v>151.0608417873309</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.1963079978155713</v>
+        <v>0.1763919651806804</v>
       </c>
       <c r="AD9" t="n">
-        <v>58.59381049405881</v>
+        <v>0.1456561088700292</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.219168718460367</v>
+        <v>5.16376227567672</v>
       </c>
       <c r="AF9" t="n">
-        <v>75.23434595729979</v>
+        <v>75.17748057753764</v>
       </c>
       <c r="AG9" t="n">
-        <v>7542.421430081625</v>
+        <v>7646.01574776227</v>
       </c>
       <c r="AH9" t="n">
-        <v>150000.1964529915</v>
+        <v>150000.1764586855</v>
       </c>
       <c r="AI9" t="n">
-        <v>150057.0181046633</v>
+        <v>150000.1439409703</v>
       </c>
       <c r="AJ9" t="n">
-        <v>135.3261053058535</v>
+        <v>231.0565219403907</v>
       </c>
       <c r="AK9" t="n">
-        <v>458.5872504387316</v>
+        <v>729.1519639479753</v>
       </c>
       <c r="AL9" t="n">
-        <v>1076.584610171958</v>
+        <v>197.794261552697</v>
       </c>
       <c r="AM9" t="n">
-        <v>-2.053246686630113</v>
+        <v>0.3863443864296697</v>
       </c>
       <c r="AN9" t="n">
-        <v>-5.165250972027605</v>
+        <v>21.85727888130372</v>
       </c>
       <c r="AO9" t="n">
-        <v>-2873.099821001977</v>
+        <v>2648.535092961422</v>
       </c>
     </row>
     <row r="10">
@@ -1507,121 +2444,121 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>102.8765959024626</v>
+        <v>103.2649641153675</v>
       </c>
       <c r="E10" t="n">
-        <v>5.689862148793813</v>
+        <v>5.425381575529879</v>
       </c>
       <c r="F10" t="n">
-        <v>70.99795060837839</v>
+        <v>75.43802766456631</v>
       </c>
       <c r="G10" t="n">
-        <v>7940.435820967617</v>
+        <v>8124.351393278258</v>
       </c>
       <c r="H10" t="n">
-        <v>140601.0096490848</v>
+        <v>146323.4293771005</v>
       </c>
       <c r="I10" t="n">
-        <v>168056.9905691933</v>
+        <v>158390.4103887808</v>
       </c>
       <c r="J10" t="n">
-        <v>-888.9054927687332</v>
+        <v>-768.6386683651481</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-886.7050273342149</v>
+        <v>-399.5391091624525</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7628078386639487</v>
+        <v>1.159753173005337</v>
       </c>
       <c r="N10" t="n">
-        <v>35.88451164808493</v>
+        <v>53.45117348956374</v>
       </c>
       <c r="O10" t="n">
-        <v>2299.708138266537</v>
+        <v>2648.535092961423</v>
       </c>
       <c r="P10" t="n">
-        <v>2.731571126604752</v>
+        <v>1.10200862660311</v>
       </c>
       <c r="Q10" t="n">
-        <v>31.6720249370719</v>
+        <v>11.96998045972417</v>
       </c>
       <c r="R10" t="n">
-        <v>5093.492020798532</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>11.21445455125125</v>
+        <v>7.19977418112094</v>
       </c>
       <c r="T10" t="n">
-        <v>90.44838137599177</v>
+        <v>81.18499900561144</v>
       </c>
       <c r="U10" t="n">
-        <v>10153.91234231484</v>
+        <v>8904.414380424427</v>
       </c>
       <c r="V10" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="W10" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="X10" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.2803859084233251</v>
+        <v>0.2013153994605734</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.3067312374479056</v>
+        <v>0.2494046031136059</v>
       </c>
       <c r="AB10" t="n">
-        <v>43.47555812833051</v>
+        <v>151.0975586629274</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.2319063735891916</v>
+        <v>0.2251034086895522</v>
       </c>
       <c r="AD10" t="n">
-        <v>58.64496570119538</v>
+        <v>0.2022978195409699</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.272852581117302</v>
+        <v>5.198746778026665</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.31355135593628</v>
+        <v>75.24767728957571</v>
       </c>
       <c r="AG10" t="n">
-        <v>7543.449866983761</v>
+        <v>7646.050951475853</v>
       </c>
       <c r="AH10" t="n">
-        <v>150000.2337172018</v>
+        <v>150000.2260269363</v>
       </c>
       <c r="AI10" t="n">
-        <v>150057.0654245462</v>
+        <v>150000.1984823902</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-177.9535741157932</v>
+        <v>88.22686812838194</v>
       </c>
       <c r="AK10" t="n">
-        <v>420.8333693354863</v>
+        <v>674.0146512558644</v>
       </c>
       <c r="AL10" t="n">
-        <v>1076.14354096742</v>
+        <v>263.2477053170613</v>
       </c>
       <c r="AM10" t="n">
-        <v>-1.968763287940803</v>
+        <v>0.0577445464022272</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.212486711013034</v>
+        <v>41.48119302983957</v>
       </c>
       <c r="AO10" t="n">
-        <v>-2793.783882531995</v>
+        <v>2648.535092961422</v>
       </c>
     </row>
     <row r="11">
@@ -1632,121 +2569,121 @@
         <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>103.8644220467614</v>
+        <v>103.6271381224352</v>
       </c>
       <c r="E11" t="n">
-        <v>5.70908386821707</v>
+        <v>5.217228501861227</v>
       </c>
       <c r="F11" t="n">
-        <v>70.57004229316314</v>
+        <v>74.95619008198931</v>
       </c>
       <c r="G11" t="n">
-        <v>8411.955992692911</v>
+        <v>8341.527538689423</v>
       </c>
       <c r="H11" t="n">
-        <v>139278.0339155046</v>
+        <v>153679.5871189109</v>
       </c>
       <c r="I11" t="n">
-        <v>168196.1973735971</v>
+        <v>157174.7826732016</v>
       </c>
       <c r="J11" t="n">
-        <v>-953.952278978569</v>
+        <v>-966.084175864903</v>
       </c>
       <c r="K11" t="n">
-        <v>7.663769686159394</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-886.7050273342149</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7628078386639487</v>
+        <v>1.227071433866953</v>
       </c>
       <c r="N11" t="n">
-        <v>35.14751267446479</v>
+        <v>41.2823981011118</v>
       </c>
       <c r="O11" t="n">
-        <v>1831.103205891183</v>
+        <v>2658.692281105464</v>
       </c>
       <c r="P11" t="n">
-        <v>2.656933609851895</v>
+        <v>1.10200862660311</v>
       </c>
       <c r="Q11" t="n">
-        <v>31.6720249370719</v>
+        <v>12.82277298449721</v>
       </c>
       <c r="R11" t="n">
-        <v>5093.492020798532</v>
+        <v>2616.640738998897</v>
       </c>
       <c r="S11" t="n">
-        <v>11.4524427670716</v>
+        <v>7.550702194051313</v>
       </c>
       <c r="T11" t="n">
-        <v>105.1812636765055</v>
+        <v>100.6957775526182</v>
       </c>
       <c r="U11" t="n">
-        <v>11473.86247531032</v>
+        <v>11781.55348850606</v>
       </c>
       <c r="V11" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="W11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X11" t="n">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.305914590261833</v>
+        <v>0.232099518042439</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.5003416356790997</v>
+        <v>0.8702714348162777</v>
       </c>
       <c r="AB11" t="n">
-        <v>64.23017564849683</v>
+        <v>151.305088788754</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.2783956918285729</v>
+        <v>0.2728869929463483</v>
       </c>
       <c r="AD11" t="n">
-        <v>58.67249344636965</v>
+        <v>0.2232239967508989</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.297097400028841</v>
+        <v>5.229544619650067</v>
       </c>
       <c r="AF11" t="n">
-        <v>75.51630456922115</v>
+        <v>75.87280095638972</v>
       </c>
       <c r="AG11" t="n">
-        <v>7563.01915611857</v>
+        <v>7646.24780560907</v>
       </c>
       <c r="AH11" t="n">
-        <v>150000.2827117903</v>
+        <v>150000.2730097111</v>
       </c>
       <c r="AI11" t="n">
-        <v>150057.0908741818</v>
+        <v>150000.2187399141</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-265.2425732945892</v>
+        <v>63.20274466424112</v>
       </c>
       <c r="AK11" t="n">
-        <v>410.9897972141479</v>
+        <v>464.7582904696485</v>
       </c>
       <c r="AL11" t="n">
-        <v>817.6214710950132</v>
+        <v>152.8875351180538</v>
       </c>
       <c r="AM11" t="n">
-        <v>-1.894125771187946</v>
+        <v>0.1250628072638433</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.475487737392888</v>
+        <v>28.45962511661459</v>
       </c>
       <c r="AO11" t="n">
-        <v>-3262.388814907348</v>
+        <v>42.05154210656603</v>
       </c>
     </row>
     <row r="12">
@@ -1754,124 +2691,124 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>104.0789715280145</v>
+        <v>104.1580534745249</v>
       </c>
       <c r="E12" t="n">
-        <v>5.715133132900526</v>
+        <v>5.224018498717557</v>
       </c>
       <c r="F12" t="n">
-        <v>71.32401828256511</v>
+        <v>76.76594971520291</v>
       </c>
       <c r="G12" t="n">
-        <v>8411.955992692911</v>
+        <v>8357.262834265082</v>
       </c>
       <c r="H12" t="n">
-        <v>139278.0339155046</v>
+        <v>153679.5871189109</v>
       </c>
       <c r="I12" t="n">
-        <v>168196.1973735971</v>
+        <v>157174.7826732016</v>
       </c>
       <c r="J12" t="n">
-        <v>-953.952278978569</v>
+        <v>-966.084175864903</v>
       </c>
       <c r="K12" t="n">
-        <v>7.663769686159394</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-886.7050273342149</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7628078386639487</v>
+        <v>1.227071433866953</v>
       </c>
       <c r="N12" t="n">
-        <v>35.14751267446479</v>
+        <v>41.2823981011118</v>
       </c>
       <c r="O12" t="n">
-        <v>1831.103205891183</v>
+        <v>2658.692281105464</v>
       </c>
       <c r="P12" t="n">
-        <v>2.656933609851895</v>
+        <v>1.10200862660311</v>
       </c>
       <c r="Q12" t="n">
-        <v>31.6720249370719</v>
+        <v>12.82277298449721</v>
       </c>
       <c r="R12" t="n">
-        <v>5093.492020798532</v>
+        <v>2616.640738998897</v>
       </c>
       <c r="S12" t="n">
-        <v>11.4524427670716</v>
+        <v>7.550702194051313</v>
       </c>
       <c r="T12" t="n">
-        <v>105.1812636765055</v>
+        <v>100.6957775526182</v>
       </c>
       <c r="U12" t="n">
-        <v>11473.86247531032</v>
+        <v>11781.55348850606</v>
       </c>
       <c r="V12" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="W12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X12" t="n">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3059886580439414</v>
+        <v>0.2322651277218617</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.5187312939571959</v>
+        <v>0.9144119136751463</v>
       </c>
       <c r="AB12" t="n">
-        <v>64.23017564849683</v>
+        <v>151.6063907064791</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.2783956918285729</v>
+        <v>0.2728869929463483</v>
       </c>
       <c r="AD12" t="n">
-        <v>58.67249344636965</v>
+        <v>0.2232239967508989</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.297171467810949</v>
+        <v>5.229710229329489</v>
       </c>
       <c r="AF12" t="n">
-        <v>75.53469422749924</v>
+        <v>75.91694143524859</v>
       </c>
       <c r="AG12" t="n">
-        <v>7563.01915611857</v>
+        <v>7646.549107526796</v>
       </c>
       <c r="AH12" t="n">
-        <v>150000.2827117903</v>
+        <v>150000.2730097111</v>
       </c>
       <c r="AI12" t="n">
-        <v>150057.0908741818</v>
+        <v>150000.2187399141</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-265.2425732945892</v>
+        <v>63.20274466424112</v>
       </c>
       <c r="AK12" t="n">
-        <v>410.9897972141479</v>
+        <v>464.7582904696485</v>
       </c>
       <c r="AL12" t="n">
-        <v>817.6214710950132</v>
+        <v>152.8875351180538</v>
       </c>
       <c r="AM12" t="n">
-        <v>-1.894125771187946</v>
+        <v>0.1250628072638433</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.475487737392888</v>
+        <v>28.45962511661459</v>
       </c>
       <c r="AO12" t="n">
-        <v>-3262.388814907348</v>
+        <v>42.05154210656603</v>
       </c>
     </row>
     <row r="13">
@@ -1879,124 +2816,124 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>104.4907368290652</v>
+        <v>104.4874465064107</v>
       </c>
       <c r="E13" t="n">
-        <v>5.798715651709289</v>
+        <v>5.6830853924967</v>
       </c>
       <c r="F13" t="n">
-        <v>72.71418237084197</v>
+        <v>78.2588585879539</v>
       </c>
       <c r="G13" t="n">
-        <v>8526.675835004136</v>
+        <v>8389.25369285594</v>
       </c>
       <c r="H13" t="n">
-        <v>137162.166978354</v>
+        <v>147301.2725052722</v>
       </c>
       <c r="I13" t="n">
-        <v>167739.5220521236</v>
+        <v>151342.5421476068</v>
       </c>
       <c r="J13" t="n">
-        <v>-1243.936166628008</v>
+        <v>-1258.020864783666</v>
       </c>
       <c r="K13" t="n">
-        <v>7.663769686159394</v>
+        <v>2.905810010324089</v>
       </c>
       <c r="L13" t="n">
-        <v>-886.6753798136817</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2883092726125177</v>
+        <v>1.227071433866953</v>
       </c>
       <c r="N13" t="n">
-        <v>21.91331224074355</v>
+        <v>21.55527231306489</v>
       </c>
       <c r="O13" t="n">
-        <v>2300.38204513246</v>
+        <v>2900.399622898918</v>
       </c>
       <c r="P13" t="n">
-        <v>3.912107628225588</v>
+        <v>1.10200862660311</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.67726464153657</v>
+        <v>11.58900036514152</v>
       </c>
       <c r="R13" t="n">
-        <v>5273.146810595207</v>
+        <v>2616.640738998897</v>
       </c>
       <c r="S13" t="n">
-        <v>13.57345715681249</v>
+        <v>8.021403666271365</v>
       </c>
       <c r="T13" t="n">
-        <v>121.8792227232207</v>
+        <v>125.8284901653311</v>
       </c>
       <c r="U13" t="n">
-        <v>12782.54818871461</v>
+        <v>13068.64944484689</v>
       </c>
       <c r="V13" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="W13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="X13" t="n">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3677983884329894</v>
+        <v>0.2785573503341938</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.145442846601876</v>
+        <v>1.495343503911211</v>
       </c>
       <c r="AB13" t="n">
-        <v>73.52215702536571</v>
+        <v>157.289033019138</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.3327361323822559</v>
+        <v>0.3547981751515918</v>
       </c>
       <c r="AD13" t="n">
-        <v>58.70911640047666</v>
+        <v>0.2754277926615152</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.355655438445524</v>
+        <v>5.273577089584307</v>
       </c>
       <c r="AF13" t="n">
-        <v>76.18252972246039</v>
+        <v>76.48777842565121</v>
       </c>
       <c r="AG13" t="n">
-        <v>7571.582441979583</v>
+        <v>7651.881290167639</v>
       </c>
       <c r="AH13" t="n">
-        <v>150000.3406125606</v>
+        <v>150000.3559715172</v>
       </c>
       <c r="AI13" t="n">
-        <v>150057.1247946887</v>
+        <v>150000.2706196058</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-136.3054212188673</v>
+        <v>209.6443971912065</v>
       </c>
       <c r="AK13" t="n">
-        <v>277.3208334936764</v>
+        <v>235.6833252223451</v>
       </c>
       <c r="AL13" t="n">
-        <v>1281.806722451428</v>
+        <v>295.5454324196816</v>
       </c>
       <c r="AM13" t="n">
-        <v>-3.623798355613071</v>
+        <v>0.1250628072638433</v>
       </c>
       <c r="AN13" t="n">
-        <v>-9.76395240079302</v>
+        <v>9.966271947923374</v>
       </c>
       <c r="AO13" t="n">
-        <v>-2972.764765462747</v>
+        <v>283.7588839000204</v>
       </c>
     </row>
     <row r="14">
@@ -2004,124 +2941,124 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>105.5967092727478</v>
+        <v>105.15001851644</v>
       </c>
       <c r="E14" t="n">
-        <v>5.975991965248738</v>
+        <v>5.861089389622546</v>
       </c>
       <c r="F14" t="n">
-        <v>77.13579521186364</v>
+        <v>79.5958690485421</v>
       </c>
       <c r="G14" t="n">
-        <v>8528.738452379213</v>
+        <v>8186.354582227049</v>
       </c>
       <c r="H14" t="n">
-        <v>133736.029638649</v>
+        <v>143604.4085881756</v>
       </c>
       <c r="I14" t="n">
-        <v>167506.171985511</v>
+        <v>158045.5225223353</v>
       </c>
       <c r="J14" t="n">
-        <v>-1631.644442289919</v>
+        <v>-1177.649699040694</v>
       </c>
       <c r="K14" t="n">
-        <v>14.43135550556952</v>
+        <v>80.37116574297191</v>
       </c>
       <c r="L14" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6830367579492581</v>
+        <v>1.227071433866953</v>
       </c>
       <c r="N14" t="n">
-        <v>19.325124196958</v>
+        <v>24.76102241806717</v>
       </c>
       <c r="O14" t="n">
-        <v>1457.349242702702</v>
+        <v>2900.399622898918</v>
       </c>
       <c r="P14" t="n">
-        <v>3.916613362652895</v>
+        <v>1.463908186281924</v>
       </c>
       <c r="Q14" t="n">
-        <v>22.30322453459944</v>
+        <v>3.814378449357869</v>
       </c>
       <c r="R14" t="n">
-        <v>5238.963608452766</v>
+        <v>2647.138884183785</v>
       </c>
       <c r="S14" t="n">
-        <v>14.21854788281482</v>
+        <v>8.551638152698617</v>
       </c>
       <c r="T14" t="n">
-        <v>155.6763878042143</v>
+        <v>139.3409486401518</v>
       </c>
       <c r="U14" t="n">
-        <v>15577.14471179297</v>
+        <v>13455.88485181658</v>
       </c>
       <c r="V14" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="W14" t="n">
         <v>25</v>
       </c>
       <c r="X14" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.4047659438595093</v>
+        <v>0.3267491385822966</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.52279600840068</v>
+        <v>1.579416925336201</v>
       </c>
       <c r="AB14" t="n">
-        <v>169.9556288233529</v>
+        <v>157.3566470649025</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.845303015035399</v>
+        <v>0.5836495914792008</v>
       </c>
       <c r="AD14" t="n">
-        <v>58.76362413831753</v>
+        <v>0.3067343153711962</v>
       </c>
       <c r="AE14" t="n">
-        <v>5.390089805370398</v>
+        <v>5.318557771548296</v>
       </c>
       <c r="AF14" t="n">
-        <v>76.55822376097991</v>
+        <v>76.57072573589834</v>
       </c>
       <c r="AG14" t="n">
-        <v>7661.140495570122</v>
+        <v>7651.945814387775</v>
       </c>
       <c r="AH14" t="n">
-        <v>150001.981959186</v>
+        <v>150000.5919580427</v>
       </c>
       <c r="AI14" t="n">
-        <v>150057.1753278036</v>
+        <v>150000.300810578</v>
       </c>
       <c r="AJ14" t="n">
-        <v>64.17813005275632</v>
+        <v>250.0023240241242</v>
       </c>
       <c r="AK14" t="n">
-        <v>304.5556604655453</v>
+        <v>268.2464942645144</v>
       </c>
       <c r="AL14" t="n">
-        <v>739.1923549864553</v>
+        <v>378.5925990928466</v>
       </c>
       <c r="AM14" t="n">
-        <v>-3.233576604703638</v>
+        <v>-0.2368367524149702</v>
       </c>
       <c r="AN14" t="n">
-        <v>-2.97810033764144</v>
+        <v>20.9466439687093</v>
       </c>
       <c r="AO14" t="n">
-        <v>-3781.614365750064</v>
+        <v>253.2607387151323</v>
       </c>
     </row>
     <row r="15">
@@ -2132,121 +3069,121 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="n">
-        <v>106.4190009764555</v>
+        <v>105.2398217250621</v>
       </c>
       <c r="E15" t="n">
-        <v>5.984156969313291</v>
+        <v>5.873317867296956</v>
       </c>
       <c r="F15" t="n">
-        <v>77.91777814334176</v>
+        <v>79.68623923373038</v>
       </c>
       <c r="G15" t="n">
-        <v>8528.738452379213</v>
+        <v>8193.06877441936</v>
       </c>
       <c r="H15" t="n">
-        <v>138193.9750862479</v>
+        <v>143624.9055630199</v>
       </c>
       <c r="I15" t="n">
-        <v>167506.171985511</v>
+        <v>158045.5225223353</v>
       </c>
       <c r="J15" t="n">
-        <v>-1631.644442289919</v>
+        <v>-1177.649699040694</v>
       </c>
       <c r="K15" t="n">
-        <v>14.43135550556952</v>
+        <v>80.37116574297191</v>
       </c>
       <c r="L15" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6830367579492581</v>
+        <v>1.227071433866953</v>
       </c>
       <c r="N15" t="n">
-        <v>19.325124196958</v>
+        <v>24.76102241806717</v>
       </c>
       <c r="O15" t="n">
-        <v>1457.349242702702</v>
+        <v>2900.399622898918</v>
       </c>
       <c r="P15" t="n">
-        <v>3.916613362652895</v>
+        <v>1.463908186281924</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.30322453459944</v>
+        <v>3.814378449357869</v>
       </c>
       <c r="R15" t="n">
-        <v>5238.963608452766</v>
+        <v>2647.138884183785</v>
       </c>
       <c r="S15" t="n">
-        <v>14.21854788281482</v>
+        <v>8.551638152698617</v>
       </c>
       <c r="T15" t="n">
-        <v>155.6763878042143</v>
+        <v>139.3409486401518</v>
       </c>
       <c r="U15" t="n">
-        <v>15577.14471179297</v>
+        <v>13455.88485181658</v>
       </c>
       <c r="V15" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="W15" t="n">
         <v>25</v>
       </c>
       <c r="X15" t="n">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.4048782455558135</v>
+        <v>0.3269096554899114</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.541868762826976</v>
+        <v>1.581621076194452</v>
       </c>
       <c r="AB15" t="n">
-        <v>169.9556288233529</v>
+        <v>157.4644222118719</v>
       </c>
       <c r="AC15" t="n">
-        <v>110.5756797857382</v>
+        <v>1.083575807194289</v>
       </c>
       <c r="AD15" t="n">
-        <v>58.76362413831753</v>
+        <v>0.3067343153711962</v>
       </c>
       <c r="AE15" t="n">
-        <v>5.390202107066702</v>
+        <v>5.31871828845591</v>
       </c>
       <c r="AF15" t="n">
-        <v>76.57729651540623</v>
+        <v>76.57292988675658</v>
       </c>
       <c r="AG15" t="n">
-        <v>7661.140495570122</v>
+        <v>7652.053589534744</v>
       </c>
       <c r="AH15" t="n">
-        <v>150110.7123359567</v>
+        <v>150001.0918842584</v>
       </c>
       <c r="AI15" t="n">
-        <v>150057.1753278036</v>
+        <v>150000.300810578</v>
       </c>
       <c r="AJ15" t="n">
-        <v>64.17813005275632</v>
+        <v>250.0023240241242</v>
       </c>
       <c r="AK15" t="n">
-        <v>304.5556604655453</v>
+        <v>268.2464942645144</v>
       </c>
       <c r="AL15" t="n">
-        <v>739.1923549864553</v>
+        <v>378.5925990928466</v>
       </c>
       <c r="AM15" t="n">
-        <v>-3.233576604703638</v>
+        <v>-0.2368367524149702</v>
       </c>
       <c r="AN15" t="n">
-        <v>-2.97810033764144</v>
+        <v>20.9466439687093</v>
       </c>
       <c r="AO15" t="n">
-        <v>-3781.614365750064</v>
+        <v>253.2607387151323</v>
       </c>
     </row>
     <row r="16">
@@ -2254,124 +3191,124 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" t="n">
         <v>8</v>
       </c>
       <c r="D16" t="n">
-        <v>106.6079975051349</v>
+        <v>105.8137557618721</v>
       </c>
       <c r="E16" t="n">
-        <v>6.132549795125354</v>
+        <v>6.071732758622406</v>
       </c>
       <c r="F16" t="n">
-        <v>77.70905222817846</v>
+        <v>78.61349080199052</v>
       </c>
       <c r="G16" t="n">
-        <v>8342.08684757095</v>
+        <v>8525.476431890876</v>
       </c>
       <c r="H16" t="n">
-        <v>140363.6549631091</v>
+        <v>141008.7875778281</v>
       </c>
       <c r="I16" t="n">
-        <v>167550.5606578748</v>
+        <v>156114.6564158325</v>
       </c>
       <c r="J16" t="n">
-        <v>-1067.516414873171</v>
+        <v>-1299.39013445852</v>
       </c>
       <c r="K16" t="n">
-        <v>364.9010341503316</v>
+        <v>80.37116574297191</v>
       </c>
       <c r="L16" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6704950841722254</v>
+        <v>2.79373907246993</v>
       </c>
       <c r="N16" t="n">
-        <v>19.325124196958</v>
+        <v>20.46242592417915</v>
       </c>
       <c r="O16" t="n">
-        <v>1679.405531196207</v>
+        <v>4223.948821413427</v>
       </c>
       <c r="P16" t="n">
-        <v>4.61325333816245</v>
+        <v>1.496104554261879</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.00213965794782</v>
+        <v>3.814378449357869</v>
       </c>
       <c r="R16" t="n">
-        <v>1156.475493306187</v>
+        <v>2600.712680475475</v>
       </c>
       <c r="S16" t="n">
-        <v>15.09725971471885</v>
+        <v>10.50269437925137</v>
       </c>
       <c r="T16" t="n">
-        <v>158.0088574224464</v>
+        <v>152.0168190775202</v>
       </c>
       <c r="U16" t="n">
-        <v>20663.69948748093</v>
+        <v>19498.69141223679</v>
       </c>
       <c r="V16" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="W16" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="X16" t="n">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.4471134589760323</v>
+        <v>0.3731405997874579</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.568026912228586</v>
+        <v>1.688441455055913</v>
       </c>
       <c r="AB16" t="n">
-        <v>175.5825538933375</v>
+        <v>299.0339979604565</v>
       </c>
       <c r="AC16" t="n">
-        <v>110.6273720391263</v>
+        <v>2.056660976918831</v>
       </c>
       <c r="AD16" t="n">
-        <v>228.1064537919263</v>
+        <v>0.3473929781416754</v>
       </c>
       <c r="AE16" t="n">
-        <v>5.429032869026932</v>
+        <v>5.361071331645069</v>
       </c>
       <c r="AF16" t="n">
-        <v>76.60319428697622</v>
+        <v>76.67788072023373</v>
       </c>
       <c r="AG16" t="n">
-        <v>7666.448416903938</v>
+        <v>7784.500587185659</v>
       </c>
       <c r="AH16" t="n">
-        <v>150110.7665409349</v>
+        <v>150002.1084115412</v>
       </c>
       <c r="AI16" t="n">
-        <v>150214.2451413848</v>
+        <v>150000.3403545451</v>
       </c>
       <c r="AJ16" t="n">
-        <v>101.821828354281</v>
+        <v>484.9818928905029</v>
       </c>
       <c r="AK16" t="n">
-        <v>183.063561718737</v>
+        <v>100.3108025186261</v>
       </c>
       <c r="AL16" t="n">
-        <v>164.2732684624113</v>
+        <v>291.3078813809108</v>
       </c>
       <c r="AM16" t="n">
-        <v>-3.942758253990226</v>
+        <v>1.29763451820805</v>
       </c>
       <c r="AN16" t="n">
-        <v>-3.677015460989818</v>
+        <v>16.64804747482128</v>
       </c>
       <c r="AO16" t="n">
-        <v>522.9300378900202</v>
+        <v>1623.236140937951</v>
       </c>
     </row>
     <row r="17">
@@ -2379,124 +3316,124 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="n">
         <v>8</v>
       </c>
       <c r="D17" t="n">
-        <v>106.9257396543138</v>
+        <v>106.2029043363454</v>
       </c>
       <c r="E17" t="n">
-        <v>6.297311251625096</v>
+        <v>6.180958308034302</v>
       </c>
       <c r="F17" t="n">
-        <v>75.88416682450298</v>
+        <v>77.86616517974329</v>
       </c>
       <c r="G17" t="n">
-        <v>8182.198660865487</v>
+        <v>8515.174356434691</v>
       </c>
       <c r="H17" t="n">
-        <v>141212.1873862518</v>
+        <v>146138.4798210662</v>
       </c>
       <c r="I17" t="n">
-        <v>172932.4969642159</v>
+        <v>153422.2723671829</v>
       </c>
       <c r="J17" t="n">
-        <v>-1069.206711267875</v>
+        <v>-1252.15299849398</v>
       </c>
       <c r="K17" t="n">
-        <v>364.9010341503316</v>
+        <v>80.37116574297191</v>
       </c>
       <c r="L17" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M17" t="n">
-        <v>1.53913414292882</v>
+        <v>4.014334236981602</v>
       </c>
       <c r="N17" t="n">
-        <v>34.10678442733978</v>
+        <v>27.82782127204162</v>
       </c>
       <c r="O17" t="n">
-        <v>2781.55135064392</v>
+        <v>4425.342171027012</v>
       </c>
       <c r="P17" t="n">
-        <v>4.636575666083784</v>
+        <v>1.496104554261879</v>
       </c>
       <c r="Q17" t="n">
-        <v>23.00213965794782</v>
+        <v>3.814378449357869</v>
       </c>
       <c r="R17" t="n">
-        <v>3689.914111158936</v>
+        <v>341.0624786000285</v>
       </c>
       <c r="S17" t="n">
-        <v>16.12657500465983</v>
+        <v>11.7569925464014</v>
       </c>
       <c r="T17" t="n">
-        <v>176.6351083705337</v>
+        <v>165.1515752791478</v>
       </c>
       <c r="U17" t="n">
-        <v>24573.32257969261</v>
+        <v>22453.26727080005</v>
       </c>
       <c r="V17" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W17" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="X17" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.5056028071815263</v>
+        <v>0.4099679650776441</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.610306088309172</v>
+        <v>1.768744507662807</v>
       </c>
       <c r="AB17" t="n">
-        <v>197.1172610121867</v>
+        <v>308.0853393559362</v>
       </c>
       <c r="AC17" t="n">
-        <v>110.7649816856314</v>
+        <v>86.27357546845428</v>
       </c>
       <c r="AD17" t="n">
-        <v>231.5265823464998</v>
+        <v>0.399291671510761</v>
       </c>
       <c r="AE17" t="n">
-        <v>5.482208717414817</v>
+        <v>5.394580809736746</v>
       </c>
       <c r="AF17" t="n">
-        <v>76.64576220571907</v>
+        <v>76.75744106706854</v>
       </c>
       <c r="AG17" t="n">
-        <v>7687.071664788018</v>
+        <v>7793.012532929704</v>
       </c>
       <c r="AH17" t="n">
-        <v>150110.9102207799</v>
+        <v>150087.609055074</v>
       </c>
       <c r="AI17" t="n">
-        <v>150217.3507960321</v>
+        <v>150000.3914429624</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-37.71194143223445</v>
+        <v>674.0116640690824</v>
       </c>
       <c r="AK17" t="n">
-        <v>347.7771355331215</v>
+        <v>94.14039941706359</v>
       </c>
       <c r="AL17" t="n">
-        <v>314.7114149614726</v>
+        <v>178.4832809318227</v>
       </c>
       <c r="AM17" t="n">
-        <v>-3.097441523154964</v>
+        <v>2.518229682719723</v>
       </c>
       <c r="AN17" t="n">
-        <v>11.10464476939196</v>
+        <v>24.01344282268375</v>
       </c>
       <c r="AO17" t="n">
-        <v>-908.3627605150155</v>
+        <v>4084.279692426982</v>
       </c>
     </row>
     <row r="18">
@@ -2504,124 +3441,124 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" t="n">
-        <v>108.3426127835424</v>
+        <v>106.2891815105382</v>
       </c>
       <c r="E18" t="n">
-        <v>6.310705594166106</v>
+        <v>6.191114060464992</v>
       </c>
       <c r="F18" t="n">
-        <v>75.9723896270238</v>
+        <v>78.05800982857471</v>
       </c>
       <c r="G18" t="n">
-        <v>8182.198660865487</v>
+        <v>8515.174356434691</v>
       </c>
       <c r="H18" t="n">
-        <v>141212.1873862518</v>
+        <v>146138.4798210662</v>
       </c>
       <c r="I18" t="n">
-        <v>183046.3218752784</v>
+        <v>153422.2723671829</v>
       </c>
       <c r="J18" t="n">
-        <v>-1069.206711267875</v>
+        <v>-1252.15299849398</v>
       </c>
       <c r="K18" t="n">
-        <v>364.9010341503316</v>
+        <v>80.37116574297191</v>
       </c>
       <c r="L18" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M18" t="n">
-        <v>1.53913414292882</v>
+        <v>4.014334236981602</v>
       </c>
       <c r="N18" t="n">
-        <v>34.10678442733978</v>
+        <v>27.82782127204162</v>
       </c>
       <c r="O18" t="n">
-        <v>2781.55135064392</v>
+        <v>4425.342171027012</v>
       </c>
       <c r="P18" t="n">
-        <v>4.636575666083784</v>
+        <v>1.496104554261879</v>
       </c>
       <c r="Q18" t="n">
-        <v>23.00213965794782</v>
+        <v>3.814378449357869</v>
       </c>
       <c r="R18" t="n">
-        <v>3689.914111158936</v>
+        <v>341.0624786000285</v>
       </c>
       <c r="S18" t="n">
-        <v>16.12657500465983</v>
+        <v>11.7569925464014</v>
       </c>
       <c r="T18" t="n">
-        <v>176.6351083705337</v>
+        <v>165.1515752791478</v>
       </c>
       <c r="U18" t="n">
-        <v>24573.32257969261</v>
+        <v>22453.26727080005</v>
       </c>
       <c r="V18" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="W18" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="X18" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.5058240899156797</v>
+        <v>0.4101334579573153</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.612457863980411</v>
+        <v>1.773423645439184</v>
       </c>
       <c r="AB18" t="n">
-        <v>197.1172610121867</v>
+        <v>308.0853393559362</v>
       </c>
       <c r="AC18" t="n">
-        <v>110.7649816856314</v>
+        <v>86.27357546845428</v>
       </c>
       <c r="AD18" t="n">
-        <v>414.7857021696045</v>
+        <v>0.399291671510761</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.48243000014897</v>
+        <v>5.394746302616418</v>
       </c>
       <c r="AF18" t="n">
-        <v>76.6479139813903</v>
+        <v>76.7621202048449</v>
       </c>
       <c r="AG18" t="n">
-        <v>7687.071664788018</v>
+        <v>7793.012532929704</v>
       </c>
       <c r="AH18" t="n">
-        <v>150110.9102207799</v>
+        <v>150087.609055074</v>
       </c>
       <c r="AI18" t="n">
-        <v>150400.6099158552</v>
+        <v>150000.3914429624</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-37.71194143223445</v>
+        <v>674.0116640690824</v>
       </c>
       <c r="AK18" t="n">
-        <v>347.7771355331215</v>
+        <v>94.14039941706359</v>
       </c>
       <c r="AL18" t="n">
-        <v>314.7114149614726</v>
+        <v>178.4832809318227</v>
       </c>
       <c r="AM18" t="n">
-        <v>-3.097441523154964</v>
+        <v>2.518229682719723</v>
       </c>
       <c r="AN18" t="n">
-        <v>11.10464476939196</v>
+        <v>24.01344282268375</v>
       </c>
       <c r="AO18" t="n">
-        <v>-908.3627605150155</v>
+        <v>4084.279692426982</v>
       </c>
     </row>
     <row r="19">
@@ -2629,124 +3566,124 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>108.5949045566346</v>
+        <v>106.6600390364946</v>
       </c>
       <c r="E19" t="n">
-        <v>6.406101220726187</v>
+        <v>6.289255870025078</v>
       </c>
       <c r="F19" t="n">
-        <v>75.42467519925414</v>
+        <v>78.02444801328855</v>
       </c>
       <c r="G19" t="n">
-        <v>8356.834455738257</v>
+        <v>8502.31415032646</v>
       </c>
       <c r="H19" t="n">
-        <v>136981.2752404127</v>
+        <v>146924.2162936309</v>
       </c>
       <c r="I19" t="n">
-        <v>185086.7786211926</v>
+        <v>154786.6750228511</v>
       </c>
       <c r="J19" t="n">
-        <v>-1132.923570361423</v>
+        <v>-1468.632672556757</v>
       </c>
       <c r="K19" t="n">
-        <v>365.0537259018923</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L19" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M19" t="n">
-        <v>1.71669188537888</v>
+        <v>2.854581063976265</v>
       </c>
       <c r="N19" t="n">
-        <v>30.78518776415069</v>
+        <v>37.03843374426688</v>
       </c>
       <c r="O19" t="n">
-        <v>1969.878646951565</v>
+        <v>4425.342171027012</v>
       </c>
       <c r="P19" t="n">
-        <v>4.631937403797975</v>
+        <v>1.700177288847614</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.17353081096669</v>
+        <v>33.60019264549427</v>
       </c>
       <c r="R19" t="n">
-        <v>3682.881592066582</v>
+        <v>341.0624786000285</v>
       </c>
       <c r="S19" t="n">
-        <v>16.40366396417362</v>
+        <v>14.8742691762753</v>
       </c>
       <c r="T19" t="n">
-        <v>225.2162742155994</v>
+        <v>206.7726122294834</v>
       </c>
       <c r="U19" t="n">
-        <v>25769.51470038432</v>
+        <v>22552.92899742185</v>
       </c>
       <c r="V19" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="W19" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="X19" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.5419152970685677</v>
+        <v>0.5152210722362323</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.794984040227498</v>
+        <v>1.821352115706827</v>
       </c>
       <c r="AB19" t="n">
-        <v>226.4527987990047</v>
+        <v>308.1372151581942</v>
       </c>
       <c r="AC19" t="n">
-        <v>111.3544914344874</v>
+        <v>86.32074406887611</v>
       </c>
       <c r="AD19" t="n">
-        <v>415.2705641532044</v>
+        <v>0.4841794544559169</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.514996385371032</v>
+        <v>5.490029878064108</v>
       </c>
       <c r="AF19" t="n">
-        <v>76.83284389964139</v>
+        <v>76.8095207201157</v>
       </c>
       <c r="AG19" t="n">
-        <v>7714.830092647267</v>
+        <v>7793.061379473006</v>
       </c>
       <c r="AH19" t="n">
-        <v>150111.5392856932</v>
+        <v>150087.656934586</v>
       </c>
       <c r="AI19" t="n">
-        <v>150401.0311726866</v>
+        <v>150000.4744933483</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-74.46584033797443</v>
+        <v>213.5648580299051</v>
       </c>
       <c r="AK19" t="n">
-        <v>114.7941609680407</v>
+        <v>106.453730908524</v>
       </c>
       <c r="AL19" t="n">
-        <v>387.1557798529774</v>
+        <v>213.5617130648266</v>
       </c>
       <c r="AM19" t="n">
-        <v>-2.915245518419094</v>
+        <v>1.154403775128651</v>
       </c>
       <c r="AN19" t="n">
-        <v>19.61165695318401</v>
+        <v>3.438241098772615</v>
       </c>
       <c r="AO19" t="n">
-        <v>-1713.002945115016</v>
+        <v>4084.279692426982</v>
       </c>
     </row>
     <row r="20">
@@ -2754,124 +3691,124 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" t="n">
-        <v>109.1548880294674</v>
+        <v>107.1239379507452</v>
       </c>
       <c r="E20" t="n">
-        <v>6.469046551026039</v>
+        <v>6.303377171806359</v>
       </c>
       <c r="F20" t="n">
-        <v>76.48082606747597</v>
+        <v>75.47976692974964</v>
       </c>
       <c r="G20" t="n">
-        <v>8353.363331257988</v>
+        <v>8998.907238585141</v>
       </c>
       <c r="H20" t="n">
-        <v>138202.0150870578</v>
+        <v>142668.8541729148</v>
       </c>
       <c r="I20" t="n">
-        <v>186740.5728277832</v>
+        <v>158668.2028822088</v>
       </c>
       <c r="J20" t="n">
-        <v>-1113.681794699729</v>
+        <v>-1442.84619564869</v>
       </c>
       <c r="K20" t="n">
-        <v>365.0537259018923</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L20" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M20" t="n">
-        <v>1.71669188537888</v>
+        <v>2.854581063976265</v>
       </c>
       <c r="N20" t="n">
-        <v>59.56409245732301</v>
+        <v>37.57064479493702</v>
       </c>
       <c r="O20" t="n">
-        <v>841.2458660533277</v>
+        <v>4512.750346489834</v>
       </c>
       <c r="P20" t="n">
-        <v>4.494102337326776</v>
+        <v>2.787010244793349</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.53660002332336</v>
+        <v>33.92695534562352</v>
       </c>
       <c r="R20" t="n">
-        <v>3498.435893255789</v>
+        <v>421.3613860053753</v>
       </c>
       <c r="S20" t="n">
-        <v>16.89454119009909</v>
+        <v>17.1420515070973</v>
       </c>
       <c r="T20" t="n">
-        <v>261.0451646212904</v>
+        <v>216.7911811518646</v>
       </c>
       <c r="U20" t="n">
-        <v>27861.75338187808</v>
+        <v>24057.51812731719</v>
       </c>
       <c r="V20" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="W20" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="X20" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.621723537169565</v>
+        <v>0.5832867601741086</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.935577888561959</v>
+        <v>1.899752308728954</v>
       </c>
       <c r="AB20" t="n">
-        <v>245.7600188513091</v>
+        <v>332.2679807575581</v>
       </c>
       <c r="AC20" t="n">
-        <v>120.8553509583488</v>
+        <v>88.1949261763197</v>
       </c>
       <c r="AD20" t="n">
-        <v>435.5826506672587</v>
+        <v>0.558939089174028</v>
       </c>
       <c r="AE20" t="n">
-        <v>5.587152068004246</v>
+        <v>5.552275546605898</v>
       </c>
       <c r="AF20" t="n">
-        <v>76.97403748576215</v>
+        <v>76.8888942632272</v>
       </c>
       <c r="AG20" t="n">
-        <v>7733.13408922829</v>
+        <v>7814.96146480628</v>
       </c>
       <c r="AH20" t="n">
-        <v>150121.0435677671</v>
+        <v>150089.5993505379</v>
       </c>
       <c r="AI20" t="n">
-        <v>150418.9841256862</v>
+        <v>150000.5463942194</v>
       </c>
       <c r="AJ20" t="n">
-        <v>-207.9427871229828</v>
+        <v>-30.34086829230445</v>
       </c>
       <c r="AK20" t="n">
-        <v>-7.063603073695308</v>
+        <v>267.6353177726371</v>
       </c>
       <c r="AL20" t="n">
-        <v>-31.61188361621434</v>
+        <v>114.1507918124442</v>
       </c>
       <c r="AM20" t="n">
-        <v>-2.777410451947896</v>
+        <v>0.06757081918291652</v>
       </c>
       <c r="AN20" t="n">
-        <v>45.02749243399965</v>
+        <v>3.643689449313501</v>
       </c>
       <c r="AO20" t="n">
-        <v>-2657.19002720246</v>
+        <v>4091.388960484457</v>
       </c>
     </row>
     <row r="21">
@@ -2882,121 +3819,121 @@
         <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>109.2829946975856</v>
+        <v>107.4536379261939</v>
       </c>
       <c r="E21" t="n">
-        <v>6.486305398598358</v>
+        <v>6.320862512190389</v>
       </c>
       <c r="F21" t="n">
-        <v>76.73635460019239</v>
+        <v>75.67357369290055</v>
       </c>
       <c r="G21" t="n">
-        <v>8353.363331257988</v>
+        <v>8998.907238585141</v>
       </c>
       <c r="H21" t="n">
-        <v>138202.0150870578</v>
+        <v>144298.3195664453</v>
       </c>
       <c r="I21" t="n">
-        <v>186740.5728277832</v>
+        <v>158668.2028822088</v>
       </c>
       <c r="J21" t="n">
-        <v>-1113.681794699729</v>
+        <v>-1442.84619564869</v>
       </c>
       <c r="K21" t="n">
-        <v>365.0537259018923</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L21" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M21" t="n">
-        <v>1.71669188537888</v>
+        <v>2.854581063976265</v>
       </c>
       <c r="N21" t="n">
-        <v>59.56409245732301</v>
+        <v>37.57064479493702</v>
       </c>
       <c r="O21" t="n">
-        <v>841.2458660533277</v>
+        <v>4512.750346489834</v>
       </c>
       <c r="P21" t="n">
-        <v>4.494102337326776</v>
+        <v>2.787010244793349</v>
       </c>
       <c r="Q21" t="n">
-        <v>14.53660002332336</v>
+        <v>33.92695534562352</v>
       </c>
       <c r="R21" t="n">
-        <v>3498.435893255789</v>
+        <v>421.3613860053753</v>
       </c>
       <c r="S21" t="n">
-        <v>16.89454119009909</v>
+        <v>17.1420515070973</v>
       </c>
       <c r="T21" t="n">
-        <v>261.0451646212904</v>
+        <v>216.7911811518646</v>
       </c>
       <c r="U21" t="n">
-        <v>27861.75338187808</v>
+        <v>24057.51812731719</v>
       </c>
       <c r="V21" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="W21" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="X21" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.6220233157491145</v>
+        <v>0.5835814134626917</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.941810291798944</v>
+        <v>1.904479302952147</v>
       </c>
       <c r="AB21" t="n">
-        <v>245.7600188513091</v>
+        <v>332.2679807575581</v>
       </c>
       <c r="AC21" t="n">
-        <v>120.8553509583488</v>
+        <v>127.9379845551113</v>
       </c>
       <c r="AD21" t="n">
-        <v>435.5826506672587</v>
+        <v>0.558939089174028</v>
       </c>
       <c r="AE21" t="n">
-        <v>5.587451846583796</v>
+        <v>5.552570199894483</v>
       </c>
       <c r="AF21" t="n">
-        <v>76.98026988899913</v>
+        <v>76.89362125745038</v>
       </c>
       <c r="AG21" t="n">
-        <v>7733.13408922829</v>
+        <v>7814.96146480628</v>
       </c>
       <c r="AH21" t="n">
-        <v>150121.0435677671</v>
+        <v>150129.3424089167</v>
       </c>
       <c r="AI21" t="n">
-        <v>150418.9841256862</v>
+        <v>150000.5463942194</v>
       </c>
       <c r="AJ21" t="n">
-        <v>-207.9427871229828</v>
+        <v>-30.34086829230445</v>
       </c>
       <c r="AK21" t="n">
-        <v>-7.063603073695308</v>
+        <v>267.6353177726371</v>
       </c>
       <c r="AL21" t="n">
-        <v>-31.61188361621434</v>
+        <v>114.1507918124442</v>
       </c>
       <c r="AM21" t="n">
-        <v>-2.777410451947896</v>
+        <v>0.06757081918291652</v>
       </c>
       <c r="AN21" t="n">
-        <v>45.02749243399965</v>
+        <v>3.643689449313501</v>
       </c>
       <c r="AO21" t="n">
-        <v>-2657.19002720246</v>
+        <v>4091.388960484457</v>
       </c>
     </row>
     <row r="22">
@@ -3004,70 +3941,70 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>109.628747806468</v>
+        <v>108.1274124376666</v>
       </c>
       <c r="E22" t="n">
-        <v>6.507044144485507</v>
+        <v>6.552201768058729</v>
       </c>
       <c r="F22" t="n">
-        <v>75.25365037194604</v>
+        <v>76.28912028773388</v>
       </c>
       <c r="G22" t="n">
-        <v>8335.956326030699</v>
+        <v>8893.904454158539</v>
       </c>
       <c r="H22" t="n">
-        <v>142942.645273651</v>
+        <v>145874.8602825913</v>
       </c>
       <c r="I22" t="n">
-        <v>188137.7640167903</v>
+        <v>158316.4287922642</v>
       </c>
       <c r="J22" t="n">
-        <v>-1366.392526518365</v>
+        <v>-1666.810486769604</v>
       </c>
       <c r="K22" t="n">
-        <v>365.0537259018923</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L22" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6862275711041829</v>
+        <v>3.063359099181226</v>
       </c>
       <c r="N22" t="n">
-        <v>59.87556658054403</v>
+        <v>33.93497654321273</v>
       </c>
       <c r="O22" t="n">
-        <v>3078.810119630934</v>
+        <v>2749.930081481535</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5039545577932357</v>
+        <v>2.787395466898257</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.0992419522669</v>
+        <v>36.47174996846916</v>
       </c>
       <c r="R22" t="n">
-        <v>3423.611481858126</v>
+        <v>1662.648370209128</v>
       </c>
       <c r="S22" t="n">
-        <v>22.23179606758456</v>
+        <v>18.84697759622661</v>
       </c>
       <c r="T22" t="n">
-        <v>270.6179960327731</v>
+        <v>253.4764272914806</v>
       </c>
       <c r="U22" t="n">
-        <v>31062.76543105942</v>
+        <v>27358.55171107383</v>
       </c>
       <c r="V22" t="n">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="W22" t="n">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="X22" t="n">
         <v>271</v>
@@ -3076,52 +4013,52 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.6776098601741343</v>
+        <v>0.651899893927124</v>
       </c>
       <c r="AA22" t="n">
-        <v>2.109314155627816</v>
+        <v>3.187292959696133</v>
       </c>
       <c r="AB22" t="n">
-        <v>285.7500541586488</v>
+        <v>370.1744411441641</v>
       </c>
       <c r="AC22" t="n">
-        <v>125.7503004380782</v>
+        <v>127.996804994024</v>
       </c>
       <c r="AD22" t="n">
-        <v>435.6341366644717</v>
+        <v>0.6279101584111612</v>
       </c>
       <c r="AE22" t="n">
-        <v>5.63781765085458</v>
+        <v>5.613853309006217</v>
       </c>
       <c r="AF22" t="n">
-        <v>77.15074805268586</v>
+        <v>78.19528180106227</v>
       </c>
       <c r="AG22" t="n">
-        <v>7771.229424260993</v>
+        <v>7849.715666002268</v>
       </c>
       <c r="AH22" t="n">
-        <v>150126.1107186058</v>
+        <v>150129.4024302286</v>
       </c>
       <c r="AI22" t="n">
-        <v>150419.0283861758</v>
+        <v>150000.6128293129</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15.65636189993092</v>
+        <v>65.1744766518423</v>
       </c>
       <c r="AK22" t="n">
-        <v>313.9761957139651</v>
+        <v>287.50382900292</v>
       </c>
       <c r="AL22" t="n">
-        <v>143.562251437337</v>
+        <v>-125.347397811532</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.1822730133109477</v>
+        <v>0.2759636322829698</v>
       </c>
       <c r="AN22" t="n">
-        <v>44.77632462827714</v>
+        <v>-2.536773425256423</v>
       </c>
       <c r="AO22" t="n">
-        <v>-344.8013622271908</v>
+        <v>1087.281711272406</v>
       </c>
     </row>
     <row r="23">
@@ -3129,124 +4066,124 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>110.1222047778627</v>
+        <v>109.1384386053141</v>
       </c>
       <c r="E23" t="n">
-        <v>6.639407882313544</v>
+        <v>6.611281060328992</v>
       </c>
       <c r="F23" t="n">
-        <v>80.63398111330598</v>
+        <v>78.66712898470013</v>
       </c>
       <c r="G23" t="n">
-        <v>8468.312763499349</v>
+        <v>9062.828158344135</v>
       </c>
       <c r="H23" t="n">
-        <v>139064.546583776</v>
+        <v>147520.279443752</v>
       </c>
       <c r="I23" t="n">
-        <v>181781.745943048</v>
+        <v>155704.0090323667</v>
       </c>
       <c r="J23" t="n">
-        <v>-1457.527771784027</v>
+        <v>-1654.695780637795</v>
       </c>
       <c r="K23" t="n">
-        <v>365.0537259018923</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L23" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M23" t="n">
-        <v>0.5764996628993506</v>
+        <v>3.460743996671857</v>
       </c>
       <c r="N23" t="n">
-        <v>50.72978449267077</v>
+        <v>35.04704294575185</v>
       </c>
       <c r="O23" t="n">
-        <v>3078.810119630934</v>
+        <v>2749.930081481535</v>
       </c>
       <c r="P23" t="n">
-        <v>1.189723916325317</v>
+        <v>3.007069406362603</v>
       </c>
       <c r="Q23" t="n">
-        <v>15.12186989203206</v>
+        <v>35.00272397951947</v>
       </c>
       <c r="R23" t="n">
-        <v>3205.079899282528</v>
+        <v>1522.740386000833</v>
       </c>
       <c r="S23" t="n">
-        <v>23.508191209988</v>
+        <v>19.73307675475493</v>
       </c>
       <c r="T23" t="n">
-        <v>285.9971856467343</v>
+        <v>261.3124367554975</v>
       </c>
       <c r="U23" t="n">
-        <v>32389.95380283834</v>
+        <v>27702.84301686522</v>
       </c>
       <c r="V23" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="W23" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="X23" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.7668813629601914</v>
+        <v>0.6897576766928906</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.390761426466178</v>
+        <v>3.308104808431706</v>
       </c>
       <c r="AB23" t="n">
-        <v>285.8311054882084</v>
+        <v>370.2062561789588</v>
       </c>
       <c r="AC23" t="n">
-        <v>130.0672728197908</v>
+        <v>132.3693197386544</v>
       </c>
       <c r="AD23" t="n">
-        <v>435.7054997929397</v>
+        <v>0.7859026449404382</v>
       </c>
       <c r="AE23" t="n">
-        <v>5.718380580374579</v>
+        <v>5.647825921137252</v>
       </c>
       <c r="AF23" t="n">
-        <v>77.42458136787791</v>
+        <v>78.31595814709868</v>
       </c>
       <c r="AG23" t="n">
-        <v>7771.305805790532</v>
+        <v>7849.744500041839</v>
       </c>
       <c r="AH23" t="n">
-        <v>150130.6681665029</v>
+        <v>150133.8291459861</v>
       </c>
       <c r="AI23" t="n">
-        <v>150419.0911307477</v>
+        <v>150000.7667708166</v>
       </c>
       <c r="AJ23" t="n">
-        <v>-1.84494469350053</v>
+        <v>893.2287323891524</v>
       </c>
       <c r="AK23" t="n">
-        <v>243.1093527603756</v>
+        <v>613.940137107787</v>
       </c>
       <c r="AL23" t="n">
-        <v>380.3911035806758</v>
+        <v>252.9606403429057</v>
       </c>
       <c r="AM23" t="n">
-        <v>-0.6132242534259661</v>
+        <v>0.453674590309253</v>
       </c>
       <c r="AN23" t="n">
-        <v>35.60791460063871</v>
+        <v>0.04431896623239262</v>
       </c>
       <c r="AO23" t="n">
-        <v>-126.2697796515922</v>
+        <v>1227.1896954807</v>
       </c>
     </row>
     <row r="24">
@@ -3257,121 +4194,121 @@
         <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D24" t="n">
-        <v>110.388687263433</v>
+        <v>109.1866179332707</v>
       </c>
       <c r="E24" t="n">
-        <v>6.661476323905617</v>
+        <v>6.620117265375952</v>
       </c>
       <c r="F24" t="n">
-        <v>81.28305969718178</v>
+        <v>78.71087590643127</v>
       </c>
       <c r="G24" t="n">
-        <v>8476.719453172977</v>
+        <v>9064.53210162387</v>
       </c>
       <c r="H24" t="n">
-        <v>139064.546583776</v>
+        <v>147520.279443752</v>
       </c>
       <c r="I24" t="n">
-        <v>181781.745943048</v>
+        <v>155704.0090323667</v>
       </c>
       <c r="J24" t="n">
-        <v>-1457.527771784027</v>
+        <v>-1654.695780637795</v>
       </c>
       <c r="K24" t="n">
-        <v>365.0537259018923</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L24" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M24" t="n">
-        <v>0.5764996628993506</v>
+        <v>3.460743996671857</v>
       </c>
       <c r="N24" t="n">
-        <v>50.72978449267077</v>
+        <v>35.04704294575185</v>
       </c>
       <c r="O24" t="n">
-        <v>3078.810119630934</v>
+        <v>2749.930081481535</v>
       </c>
       <c r="P24" t="n">
-        <v>1.189723916325317</v>
+        <v>3.007069406362603</v>
       </c>
       <c r="Q24" t="n">
-        <v>15.12186989203206</v>
+        <v>35.00272397951947</v>
       </c>
       <c r="R24" t="n">
-        <v>3205.079899282528</v>
+        <v>1522.740386000833</v>
       </c>
       <c r="S24" t="n">
-        <v>23.508191209988</v>
+        <v>19.73307675475493</v>
       </c>
       <c r="T24" t="n">
-        <v>285.9971856467343</v>
+        <v>261.3124367554975</v>
       </c>
       <c r="U24" t="n">
-        <v>32389.95380283834</v>
+        <v>27702.84301686522</v>
       </c>
       <c r="V24" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="W24" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="X24" t="n">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.7672884506747766</v>
+        <v>0.6899256416028308</v>
       </c>
       <c r="AA24" t="n">
-        <v>2.406592611438758</v>
+        <v>3.30917180652271</v>
       </c>
       <c r="AB24" t="n">
-        <v>285.947265709954</v>
+        <v>370.241413354787</v>
       </c>
       <c r="AC24" t="n">
-        <v>130.0672728197908</v>
+        <v>132.3693197386544</v>
       </c>
       <c r="AD24" t="n">
-        <v>435.7054997929397</v>
+        <v>0.7859026449404382</v>
       </c>
       <c r="AE24" t="n">
-        <v>5.718787668089164</v>
+        <v>5.647993886047192</v>
       </c>
       <c r="AF24" t="n">
-        <v>77.4404125528505</v>
+        <v>78.31702514518967</v>
       </c>
       <c r="AG24" t="n">
-        <v>7771.421966012278</v>
+        <v>7849.779657217667</v>
       </c>
       <c r="AH24" t="n">
-        <v>150130.6681665029</v>
+        <v>150133.8291459861</v>
       </c>
       <c r="AI24" t="n">
-        <v>150419.0911307477</v>
+        <v>150000.7667708166</v>
       </c>
       <c r="AJ24" t="n">
-        <v>-1.84494469350053</v>
+        <v>893.2287323891524</v>
       </c>
       <c r="AK24" t="n">
-        <v>243.1093527603756</v>
+        <v>613.940137107787</v>
       </c>
       <c r="AL24" t="n">
-        <v>380.3911035806758</v>
+        <v>252.9606403429057</v>
       </c>
       <c r="AM24" t="n">
-        <v>-0.6132242534259661</v>
+        <v>0.453674590309253</v>
       </c>
       <c r="AN24" t="n">
-        <v>35.60791460063871</v>
+        <v>0.04431896623239262</v>
       </c>
       <c r="AO24" t="n">
-        <v>-126.2697796515922</v>
+        <v>1227.1896954807</v>
       </c>
     </row>
     <row r="25">
@@ -3382,121 +4319,121 @@
         <v>16</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" t="n">
-        <v>110.7327124712737</v>
+        <v>109.7549657367642</v>
       </c>
       <c r="E25" t="n">
-        <v>6.959895902734392</v>
+        <v>6.648260755176991</v>
       </c>
       <c r="F25" t="n">
-        <v>82.03761650160588</v>
+        <v>79.245447961202</v>
       </c>
       <c r="G25" t="n">
-        <v>8564.692778124496</v>
+        <v>9319.267899390932</v>
       </c>
       <c r="H25" t="n">
-        <v>138476.3398897912</v>
+        <v>142630.3558854054</v>
       </c>
       <c r="I25" t="n">
-        <v>175786.6360433782</v>
+        <v>160117.9620016675</v>
       </c>
       <c r="J25" t="n">
-        <v>-1825.425616252822</v>
+        <v>-2197.422305968078</v>
       </c>
       <c r="K25" t="n">
-        <v>348.6451918820766</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L25" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M25" t="n">
-        <v>2.037303757857545</v>
+        <v>1.828427907885159</v>
       </c>
       <c r="N25" t="n">
-        <v>49.6655921113999</v>
+        <v>24.70317614495497</v>
       </c>
       <c r="O25" t="n">
-        <v>1706.510364160838</v>
+        <v>2317.21780307851</v>
       </c>
       <c r="P25" t="n">
-        <v>3.201552671927299</v>
+        <v>3.070461117968811</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.12186989203206</v>
+        <v>37.68622191781063</v>
       </c>
       <c r="R25" t="n">
-        <v>3205.079899282528</v>
+        <v>365.0364912923873</v>
       </c>
       <c r="S25" t="n">
-        <v>27.72539359411829</v>
+        <v>22.3787943917996</v>
       </c>
       <c r="T25" t="n">
-        <v>289.6043417984029</v>
+        <v>276.3738652511841</v>
       </c>
       <c r="U25" t="n">
-        <v>34432.6488784086</v>
+        <v>30148.78259288761</v>
       </c>
       <c r="V25" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="W25" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="X25" t="n">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.8393394562919614</v>
+        <v>0.816293046107762</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.500368667204828</v>
+        <v>3.707474211068622</v>
       </c>
       <c r="AB25" t="n">
-        <v>316.9879555047977</v>
+        <v>383.3451280797113</v>
       </c>
       <c r="AC25" t="n">
-        <v>130.0991461795212</v>
+        <v>151.2687684257847</v>
       </c>
       <c r="AD25" t="n">
-        <v>435.7823728702449</v>
+        <v>1.666144512691244</v>
       </c>
       <c r="AE25" t="n">
-        <v>5.782260456685395</v>
+        <v>5.761949085050793</v>
       </c>
       <c r="AF25" t="n">
-        <v>77.53058344116003</v>
+        <v>78.71312844377671</v>
       </c>
       <c r="AG25" t="n">
-        <v>7800.52381700589</v>
+        <v>7861.443976438767</v>
       </c>
       <c r="AH25" t="n">
-        <v>150130.7019176176</v>
+        <v>150153.425956209</v>
       </c>
       <c r="AI25" t="n">
-        <v>150419.160238426</v>
+        <v>150001.6080815619</v>
       </c>
       <c r="AJ25" t="n">
-        <v>678.9488479416115</v>
+        <v>1154.557755419502</v>
       </c>
       <c r="AK25" t="n">
-        <v>1029.474721802845</v>
+        <v>719.9794785095187</v>
       </c>
       <c r="AL25" t="n">
-        <v>394.6133802174667</v>
+        <v>379.6421821921899</v>
       </c>
       <c r="AM25" t="n">
-        <v>-1.164248914069753</v>
+        <v>-1.242033210083654</v>
       </c>
       <c r="AN25" t="n">
-        <v>34.54372221936784</v>
+        <v>-12.98304577285566</v>
       </c>
       <c r="AO25" t="n">
-        <v>-1498.569535121689</v>
+        <v>1952.181311786122</v>
       </c>
     </row>
     <row r="26">
@@ -3507,121 +4444,121 @@
         <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D26" t="n">
-        <v>111.2716393572941</v>
+        <v>110.2115366922393</v>
       </c>
       <c r="E26" t="n">
-        <v>7.09667099449241</v>
+        <v>6.802535757484138</v>
       </c>
       <c r="F26" t="n">
-        <v>82.3758564601878</v>
+        <v>80.27778887804517</v>
       </c>
       <c r="G26" t="n">
-        <v>8513.836909755611</v>
+        <v>9390.13683432063</v>
       </c>
       <c r="H26" t="n">
-        <v>137666.6821299393</v>
+        <v>137164.4307046456</v>
       </c>
       <c r="I26" t="n">
-        <v>179393.87367569</v>
+        <v>162659.2192272002</v>
       </c>
       <c r="J26" t="n">
-        <v>-2308.846134364462</v>
+        <v>-2328.601888169355</v>
       </c>
       <c r="K26" t="n">
-        <v>326.3624842845566</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L26" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M26" t="n">
-        <v>2.373813636958728</v>
+        <v>2.541866703277071</v>
       </c>
       <c r="N26" t="n">
-        <v>33.24007264999938</v>
+        <v>24.70317614495497</v>
       </c>
       <c r="O26" t="n">
-        <v>1706.510364160838</v>
+        <v>2314.756347576534</v>
       </c>
       <c r="P26" t="n">
-        <v>3.438112829572976</v>
+        <v>3.070461117968811</v>
       </c>
       <c r="Q26" t="n">
-        <v>17.52206050218552</v>
+        <v>37.68622191781063</v>
       </c>
       <c r="R26" t="n">
-        <v>3023.425482779183</v>
+        <v>309.570557907629</v>
       </c>
       <c r="S26" t="n">
-        <v>29.44624931023194</v>
+        <v>24.36706073013174</v>
       </c>
       <c r="T26" t="n">
-        <v>337.8980177195161</v>
+        <v>285.4161056450356</v>
       </c>
       <c r="U26" t="n">
-        <v>35021.09244519404</v>
+        <v>30393.00298700273</v>
       </c>
       <c r="V26" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="W26" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="X26" t="n">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.8948912782341613</v>
+        <v>0.8621836579607446</v>
       </c>
       <c r="AA26" t="n">
-        <v>3.485924269394469</v>
+        <v>3.774193448868037</v>
       </c>
       <c r="AB26" t="n">
-        <v>317.0710636735101</v>
+        <v>384.1122918783811</v>
       </c>
       <c r="AC26" t="n">
-        <v>139.2911293351347</v>
+        <v>151.352630289746</v>
       </c>
       <c r="AD26" t="n">
-        <v>435.8404906557776</v>
+        <v>16.85698548780363</v>
       </c>
       <c r="AE26" t="n">
-        <v>5.830894852978791</v>
+        <v>5.803098515135931</v>
       </c>
       <c r="AF26" t="n">
-        <v>78.48388434056174</v>
+        <v>78.7791002881881</v>
       </c>
       <c r="AG26" t="n">
-        <v>7800.602051585775</v>
+        <v>7862.123738845367</v>
       </c>
       <c r="AH26" t="n">
-        <v>150140.4769531072</v>
+        <v>150153.5153771027</v>
       </c>
       <c r="AI26" t="n">
-        <v>150419.2117854165</v>
+        <v>150016.7390716235</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1167.956799773917</v>
+        <v>1441.895889014472</v>
       </c>
       <c r="AK26" t="n">
-        <v>612.5339575999151</v>
+        <v>801.2151238628908</v>
       </c>
       <c r="AL26" t="n">
-        <v>1327.360840480423</v>
+        <v>920.1986968341316</v>
       </c>
       <c r="AM26" t="n">
-        <v>-1.064299192614248</v>
+        <v>-0.528594414691741</v>
       </c>
       <c r="AN26" t="n">
-        <v>15.71801214781387</v>
+        <v>-12.98304577285566</v>
       </c>
       <c r="AO26" t="n">
-        <v>-1316.915118618344</v>
+        <v>2005.185789668903</v>
       </c>
     </row>
     <row r="27">
@@ -3629,124 +4566,124 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D27" t="n">
-        <v>111.8255758456221</v>
+        <v>110.8043812519884</v>
       </c>
       <c r="E27" t="n">
-        <v>7.108891005271587</v>
+        <v>6.812422560929667</v>
       </c>
       <c r="F27" t="n">
-        <v>84.34511803798476</v>
+        <v>80.32540034818352</v>
       </c>
       <c r="G27" t="n">
-        <v>8521.500772830694</v>
+        <v>9529.565227547397</v>
       </c>
       <c r="H27" t="n">
-        <v>137666.6821299393</v>
+        <v>137164.4307046456</v>
       </c>
       <c r="I27" t="n">
-        <v>179393.87367569</v>
+        <v>163938.8961308504</v>
       </c>
       <c r="J27" t="n">
-        <v>-2308.846134364462</v>
+        <v>-2328.601888169355</v>
       </c>
       <c r="K27" t="n">
-        <v>326.3624842845566</v>
+        <v>61.88962714481571</v>
       </c>
       <c r="L27" t="n">
-        <v>-888.2250041981143</v>
+        <v>-596.9846166622074</v>
       </c>
       <c r="M27" t="n">
-        <v>2.373813636958728</v>
+        <v>2.541866703277071</v>
       </c>
       <c r="N27" t="n">
-        <v>33.24007264999938</v>
+        <v>24.70317614495497</v>
       </c>
       <c r="O27" t="n">
-        <v>1706.510364160838</v>
+        <v>2314.756347576534</v>
       </c>
       <c r="P27" t="n">
-        <v>3.438112829572976</v>
+        <v>3.070461117968811</v>
       </c>
       <c r="Q27" t="n">
-        <v>17.52206050218552</v>
+        <v>37.68622191781063</v>
       </c>
       <c r="R27" t="n">
-        <v>3023.425482779183</v>
+        <v>309.570557907629</v>
       </c>
       <c r="S27" t="n">
-        <v>29.44624931023194</v>
+        <v>24.36706073013174</v>
       </c>
       <c r="T27" t="n">
-        <v>337.8980177195161</v>
+        <v>285.4161056450356</v>
       </c>
       <c r="U27" t="n">
-        <v>35021.09244519404</v>
+        <v>30393.00298700273</v>
       </c>
       <c r="V27" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="W27" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="X27" t="n">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.8951654619334045</v>
+        <v>0.8623808264623326</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.533955039584639</v>
+        <v>3.775354704237265</v>
       </c>
       <c r="AB27" t="n">
-        <v>317.1647978789578</v>
+        <v>387.212236756162</v>
       </c>
       <c r="AC27" t="n">
-        <v>139.2911293351347</v>
+        <v>151.352630289746</v>
       </c>
       <c r="AD27" t="n">
-        <v>435.8404906557776</v>
+        <v>48.06861728414941</v>
       </c>
       <c r="AE27" t="n">
-        <v>5.831169036678036</v>
+        <v>5.803295683637519</v>
       </c>
       <c r="AF27" t="n">
-        <v>78.53191511075191</v>
+        <v>78.78026154355734</v>
       </c>
       <c r="AG27" t="n">
-        <v>7800.695785791223</v>
+        <v>7865.223683723148</v>
       </c>
       <c r="AH27" t="n">
-        <v>150140.4769531072</v>
+        <v>150153.5153771027</v>
       </c>
       <c r="AI27" t="n">
-        <v>150419.2117854165</v>
+        <v>150047.9507034198</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1167.956799773917</v>
+        <v>1441.895889014472</v>
       </c>
       <c r="AK27" t="n">
-        <v>612.5339575999151</v>
+        <v>801.2151238628908</v>
       </c>
       <c r="AL27" t="n">
-        <v>1327.360840480423</v>
+        <v>920.1986968341316</v>
       </c>
       <c r="AM27" t="n">
-        <v>-1.064299192614248</v>
+        <v>-0.528594414691741</v>
       </c>
       <c r="AN27" t="n">
-        <v>15.71801214781387</v>
+        <v>-12.98304577285566</v>
       </c>
       <c r="AO27" t="n">
-        <v>-1316.915118618344</v>
+        <v>2005.185789668903</v>
       </c>
     </row>
     <row r="28">
@@ -3757,121 +4694,121 @@
         <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" t="n">
-        <v>112.1531536374767</v>
+        <v>111.1604090206442</v>
       </c>
       <c r="E28" t="n">
-        <v>7.34833392592532</v>
+        <v>7.120386704439691</v>
       </c>
       <c r="F28" t="n">
-        <v>83.47393158723204</v>
+        <v>83.05729070311106</v>
       </c>
       <c r="G28" t="n">
-        <v>8400.611032765704</v>
+        <v>9146.920932103018</v>
       </c>
       <c r="H28" t="n">
-        <v>140262.5819180402</v>
+        <v>137704.0536999183</v>
       </c>
       <c r="I28" t="n">
-        <v>178958.2444971215</v>
+        <v>162300.7860642575</v>
       </c>
       <c r="J28" t="n">
-        <v>-2448.843387812677</v>
+        <v>-2331.019205080732</v>
       </c>
       <c r="K28" t="n">
-        <v>326.3624842845566</v>
+        <v>292.2934031933927</v>
       </c>
       <c r="L28" t="n">
-        <v>-888.2250041981143</v>
+        <v>-923.8986481146442</v>
       </c>
       <c r="M28" t="n">
-        <v>2.373813636958728</v>
+        <v>2.101945652354081</v>
       </c>
       <c r="N28" t="n">
-        <v>28.08495637764526</v>
+        <v>24.70317614495497</v>
       </c>
       <c r="O28" t="n">
-        <v>1706.510364160838</v>
+        <v>1093.535406636744</v>
       </c>
       <c r="P28" t="n">
-        <v>2.871781461637352</v>
+        <v>1.769212288988287</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.09182366021176</v>
+        <v>7.150875363046161</v>
       </c>
       <c r="R28" t="n">
-        <v>3020.295963714253</v>
+        <v>309.570557907629</v>
       </c>
       <c r="S28" t="n">
-        <v>30.72300726560209</v>
+        <v>26.36348854407598</v>
       </c>
       <c r="T28" t="n">
-        <v>353.6752328301403</v>
+        <v>326.4409569749947</v>
       </c>
       <c r="U28" t="n">
-        <v>35419.32266353781</v>
+        <v>32520.74805958987</v>
       </c>
       <c r="V28" t="n">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="W28" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="X28" t="n">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.9616194178500252</v>
+        <v>0.9434479989924677</v>
       </c>
       <c r="AA28" t="n">
-        <v>3.984835661018634</v>
+        <v>3.85570944473104</v>
       </c>
       <c r="AB28" t="n">
-        <v>317.2360229826614</v>
+        <v>413.9807504580966</v>
       </c>
       <c r="AC28" t="n">
-        <v>139.4666882944791</v>
+        <v>151.4659704806348</v>
       </c>
       <c r="AD28" t="n">
-        <v>435.8858627796958</v>
+        <v>49.13451035026448</v>
       </c>
       <c r="AE28" t="n">
-        <v>5.888339942260925</v>
+        <v>5.874182008732503</v>
       </c>
       <c r="AF28" t="n">
-        <v>78.96580638064373</v>
+        <v>78.85775791991063</v>
       </c>
       <c r="AG28" t="n">
-        <v>7800.763450808195</v>
+        <v>7889.397989030486</v>
       </c>
       <c r="AH28" t="n">
-        <v>150140.6611667725</v>
+        <v>150153.6358901009</v>
       </c>
       <c r="AI28" t="n">
-        <v>150419.2520926026</v>
+        <v>150048.9602710224</v>
       </c>
       <c r="AJ28" t="n">
-        <v>950.1239361805483</v>
+        <v>540.9001503688088</v>
       </c>
       <c r="AK28" t="n">
-        <v>765.5271091907849</v>
+        <v>434.1807487458222</v>
       </c>
       <c r="AL28" t="n">
-        <v>1429.16573453708</v>
+        <v>295.8005062995051</v>
       </c>
       <c r="AM28" t="n">
-        <v>-0.4979678246786232</v>
+        <v>0.3327333633657928</v>
       </c>
       <c r="AN28" t="n">
-        <v>9.993132717433507</v>
+        <v>17.55230078190881</v>
       </c>
       <c r="AO28" t="n">
-        <v>-1313.785599553414</v>
+        <v>783.964848729113</v>
       </c>
     </row>
     <row r="29">
@@ -3882,121 +4819,121 @@
         <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29" t="n">
-        <v>112.6369833365472</v>
+        <v>111.5662366141071</v>
       </c>
       <c r="E29" t="n">
-        <v>7.443136873073543</v>
+        <v>7.197208245956811</v>
       </c>
       <c r="F29" t="n">
-        <v>86.14139013887358</v>
+        <v>83.9500541170775</v>
       </c>
       <c r="G29" t="n">
-        <v>8514.602651783185</v>
+        <v>9138.22483788992</v>
       </c>
       <c r="H29" t="n">
-        <v>139960.4702023197</v>
+        <v>134384.1917168047</v>
       </c>
       <c r="I29" t="n">
-        <v>174541.683409249</v>
+        <v>166374.1162783527</v>
       </c>
       <c r="J29" t="n">
-        <v>-2506.159669751248</v>
+        <v>-2344.512897001578</v>
       </c>
       <c r="K29" t="n">
-        <v>326.3624842845566</v>
+        <v>292.2934031933927</v>
       </c>
       <c r="L29" t="n">
-        <v>-888.2250041981143</v>
+        <v>-923.8986481146442</v>
       </c>
       <c r="M29" t="n">
-        <v>1.946515702852864</v>
+        <v>2.093058784942545</v>
       </c>
       <c r="N29" t="n">
-        <v>28.33944550872016</v>
+        <v>30.20108740166601</v>
       </c>
       <c r="O29" t="n">
-        <v>3146.876980980557</v>
+        <v>1063.395519270446</v>
       </c>
       <c r="P29" t="n">
-        <v>4.259806504765943</v>
+        <v>2.005331710796999</v>
       </c>
       <c r="Q29" t="n">
-        <v>22.4173913004047</v>
+        <v>7.150875363046161</v>
       </c>
       <c r="R29" t="n">
-        <v>3098.25430061921</v>
+        <v>3452.161237852095</v>
       </c>
       <c r="S29" t="n">
-        <v>32.70589106194786</v>
+        <v>26.97726031893552</v>
       </c>
       <c r="T29" t="n">
-        <v>362.722313429214</v>
+        <v>334.0667687200124</v>
       </c>
       <c r="U29" t="n">
-        <v>37366.89138369355</v>
+        <v>35930.90096136972</v>
       </c>
       <c r="V29" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="W29" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="X29" t="n">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.024622293590705</v>
+        <v>0.992672384398621</v>
       </c>
       <c r="AA29" t="n">
-        <v>4.049923523842574</v>
+        <v>3.92120131228571</v>
       </c>
       <c r="AB29" t="n">
-        <v>343.9421821161991</v>
+        <v>414.4703251080796</v>
       </c>
       <c r="AC29" t="n">
-        <v>139.557048355734</v>
+        <v>151.5258495816035</v>
       </c>
       <c r="AD29" t="n">
-        <v>435.9814363383632</v>
+        <v>72.44060645390215</v>
       </c>
       <c r="AE29" t="n">
-        <v>5.942464267847064</v>
+        <v>5.917248110302809</v>
       </c>
       <c r="AF29" t="n">
-        <v>79.02788479135826</v>
+        <v>78.92061656088707</v>
       </c>
       <c r="AG29" t="n">
-        <v>7825.961487440776</v>
+        <v>7889.840740665369</v>
       </c>
       <c r="AH29" t="n">
-        <v>150140.7561275924</v>
+        <v>150153.7006878185</v>
       </c>
       <c r="AI29" t="n">
-        <v>150419.3384201111</v>
+        <v>150072.2629340956</v>
       </c>
       <c r="AJ29" t="n">
-        <v>285.5889630667793</v>
+        <v>840.4402782408456</v>
       </c>
       <c r="AK29" t="n">
-        <v>317.1328363466899</v>
+        <v>375.8495983215976</v>
       </c>
       <c r="AL29" t="n">
-        <v>1145.430493831449</v>
+        <v>328.0421756862668</v>
       </c>
       <c r="AM29" t="n">
-        <v>-2.313290801913078</v>
+        <v>0.08772707414554554</v>
       </c>
       <c r="AN29" t="n">
-        <v>5.922054208315467</v>
+        <v>23.05021203861985</v>
       </c>
       <c r="AO29" t="n">
-        <v>48.62268036134814</v>
+        <v>-2388.765718581651</v>
       </c>
     </row>
     <row r="30">
@@ -4004,124 +4941,124 @@
         <v>27</v>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D30" t="n">
-        <v>112.6951386289917</v>
+        <v>111.8401119924046</v>
       </c>
       <c r="E30" t="n">
-        <v>7.455876951849438</v>
+        <v>7.20887857608458</v>
       </c>
       <c r="F30" t="n">
-        <v>86.18943962756106</v>
+        <v>84.03838639253688</v>
       </c>
       <c r="G30" t="n">
-        <v>8514.602651783185</v>
+        <v>9215.648284245379</v>
       </c>
       <c r="H30" t="n">
-        <v>139960.4702023197</v>
+        <v>134384.1917168047</v>
       </c>
       <c r="I30" t="n">
-        <v>174541.683409249</v>
+        <v>166374.1162783527</v>
       </c>
       <c r="J30" t="n">
-        <v>-2506.159669751248</v>
+        <v>-2344.512897001578</v>
       </c>
       <c r="K30" t="n">
-        <v>326.3624842845566</v>
+        <v>292.2934031933927</v>
       </c>
       <c r="L30" t="n">
-        <v>-888.2250041981143</v>
+        <v>-923.8986481146442</v>
       </c>
       <c r="M30" t="n">
-        <v>1.946515702852864</v>
+        <v>2.093058784942545</v>
       </c>
       <c r="N30" t="n">
-        <v>28.33944550872016</v>
+        <v>30.20108740166601</v>
       </c>
       <c r="O30" t="n">
-        <v>3146.876980980557</v>
+        <v>1063.395519270446</v>
       </c>
       <c r="P30" t="n">
-        <v>4.259806504765943</v>
+        <v>2.005331710796999</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.4173913004047</v>
+        <v>7.150875363046161</v>
       </c>
       <c r="R30" t="n">
-        <v>3098.25430061921</v>
+        <v>3452.161237852095</v>
       </c>
       <c r="S30" t="n">
-        <v>32.70589106194786</v>
+        <v>26.97726031893552</v>
       </c>
       <c r="T30" t="n">
-        <v>362.722313429214</v>
+        <v>334.0667687200124</v>
       </c>
       <c r="U30" t="n">
-        <v>37366.89138369355</v>
+        <v>35930.90096136972</v>
       </c>
       <c r="V30" t="n">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="W30" t="n">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="X30" t="n">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>1.024946117728086</v>
+        <v>0.992947359026806</v>
       </c>
       <c r="AA30" t="n">
-        <v>4.05109546259105</v>
+        <v>3.923355758028622</v>
       </c>
       <c r="AB30" t="n">
-        <v>343.9421821161991</v>
+        <v>415.9103126912875</v>
       </c>
       <c r="AC30" t="n">
-        <v>139.557048355734</v>
+        <v>151.5258495816035</v>
       </c>
       <c r="AD30" t="n">
-        <v>435.9814363383632</v>
+        <v>72.44060645390215</v>
       </c>
       <c r="AE30" t="n">
-        <v>5.942788091984446</v>
+        <v>5.917523084930994</v>
       </c>
       <c r="AF30" t="n">
-        <v>79.02905673010673</v>
+        <v>78.92277100662999</v>
       </c>
       <c r="AG30" t="n">
-        <v>7825.961487440776</v>
+        <v>7891.280728248576</v>
       </c>
       <c r="AH30" t="n">
-        <v>150140.7561275924</v>
+        <v>150153.7006878185</v>
       </c>
       <c r="AI30" t="n">
-        <v>150419.3384201111</v>
+        <v>150072.2629340956</v>
       </c>
       <c r="AJ30" t="n">
-        <v>285.5889630667793</v>
+        <v>840.4402782408456</v>
       </c>
       <c r="AK30" t="n">
-        <v>317.1328363466899</v>
+        <v>375.8495983215976</v>
       </c>
       <c r="AL30" t="n">
-        <v>1145.430493831449</v>
+        <v>328.0421756862668</v>
       </c>
       <c r="AM30" t="n">
-        <v>-2.313290801913078</v>
+        <v>0.08772707414554554</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.922054208315467</v>
+        <v>23.05021203861985</v>
       </c>
       <c r="AO30" t="n">
-        <v>48.62268036134814</v>
+        <v>-2388.765718581651</v>
       </c>
     </row>
     <row r="31">
@@ -4129,124 +5066,124 @@
         <v>28</v>
       </c>
       <c r="B31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>113.0010309925431</v>
+        <v>112.0879706709128</v>
       </c>
       <c r="E31" t="n">
-        <v>7.283956723591908</v>
+        <v>7.321358633217926</v>
       </c>
       <c r="F31" t="n">
-        <v>84.5291877860742</v>
+        <v>85.25338652880536</v>
       </c>
       <c r="G31" t="n">
-        <v>9070.853344312338</v>
+        <v>9198.949385202661</v>
       </c>
       <c r="H31" t="n">
-        <v>135233.9636190744</v>
+        <v>133346.5639529077</v>
       </c>
       <c r="I31" t="n">
-        <v>178698.7700138885</v>
+        <v>165854.3330352275</v>
       </c>
       <c r="J31" t="n">
-        <v>-2264.296784200438</v>
+        <v>-2144.282039727338</v>
       </c>
       <c r="K31" t="n">
-        <v>326.3624842845566</v>
+        <v>292.2934031933927</v>
       </c>
       <c r="L31" t="n">
-        <v>-888.2250041981143</v>
+        <v>-923.8986481146442</v>
       </c>
       <c r="M31" t="n">
-        <v>1.661124890291683</v>
+        <v>2.113070515693526</v>
       </c>
       <c r="N31" t="n">
-        <v>32.76841673399218</v>
+        <v>34.73602492498458</v>
       </c>
       <c r="O31" t="n">
-        <v>2220.175045193423</v>
+        <v>617.5301221339944</v>
       </c>
       <c r="P31" t="n">
-        <v>4.730148125827415</v>
+        <v>0.5277954724777545</v>
       </c>
       <c r="Q31" t="n">
-        <v>27.48360697249338</v>
+        <v>18.27810944737826</v>
       </c>
       <c r="R31" t="n">
-        <v>184.1157467231524</v>
+        <v>4789.150372907074</v>
       </c>
       <c r="S31" t="n">
-        <v>33.784045904081</v>
+        <v>28.58093068179939</v>
       </c>
       <c r="T31" t="n">
-        <v>396.1580497487657</v>
+        <v>358.4003253364237</v>
       </c>
       <c r="U31" t="n">
-        <v>43289.60691862923</v>
+        <v>37946.08305528521</v>
       </c>
       <c r="V31" t="n">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="W31" t="n">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="X31" t="n">
-        <v>455</v>
+        <v>423</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>1.062393778971427</v>
+        <v>1.056586802865378</v>
       </c>
       <c r="AA31" t="n">
-        <v>4.140850843311901</v>
+        <v>3.955830252309691</v>
       </c>
       <c r="AB31" t="n">
-        <v>398.9521125394213</v>
+        <v>428.3783724847539</v>
       </c>
       <c r="AC31" t="n">
-        <v>254.8143022810852</v>
+        <v>151.6960097626153</v>
       </c>
       <c r="AD31" t="n">
-        <v>449.08070975795</v>
+        <v>72.56670574580534</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.97551542315669</v>
+        <v>5.972807239159026</v>
       </c>
       <c r="AF31" t="n">
-        <v>79.11478967828953</v>
+        <v>78.95356328109264</v>
       </c>
       <c r="AG31" t="n">
-        <v>7875.891739535649</v>
+        <v>7902.514907555132</v>
       </c>
       <c r="AH31" t="n">
-        <v>150264.988655059</v>
+        <v>150153.8858611503</v>
       </c>
       <c r="AI31" t="n">
-        <v>150430.9871609004</v>
+        <v>150072.3806340351</v>
       </c>
       <c r="AJ31" t="n">
-        <v>396.2541779677432</v>
+        <v>310.5387708374059</v>
       </c>
       <c r="AK31" t="n">
-        <v>43.45527599909023</v>
+        <v>283.2526331733717</v>
       </c>
       <c r="AL31" t="n">
-        <v>29.30192410766103</v>
+        <v>152.0660285740148</v>
       </c>
       <c r="AM31" t="n">
-        <v>-3.069023235535732</v>
+        <v>1.58527504321577</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.284809761498813</v>
+        <v>16.45791547760633</v>
       </c>
       <c r="AO31" t="n">
-        <v>2036.059298470272</v>
+        <v>-4171.62025077308</v>
       </c>
     </row>
     <row r="32">
@@ -4254,127 +5191,235 @@
         <v>29</v>
       </c>
       <c r="B32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32" t="n">
-        <v>113.1917377662675</v>
+        <v>112.4168884813459</v>
       </c>
       <c r="E32" t="n">
-        <v>7.485063163681616</v>
+        <v>7.380922905807257</v>
       </c>
       <c r="F32" t="n">
-        <v>82.9998431736924</v>
+        <v>86.3640919148913</v>
       </c>
       <c r="G32" t="n">
-        <v>8894.492981358233</v>
+        <v>8946.918289336056</v>
       </c>
       <c r="H32" t="n">
-        <v>136993.3600844319</v>
+        <v>136491.1033961165</v>
       </c>
       <c r="I32" t="n">
-        <v>180441.9270032591</v>
+        <v>168699.5843657374</v>
       </c>
       <c r="J32" t="n">
-        <v>-2324.153474498528</v>
+        <v>-2206.057902450351</v>
       </c>
       <c r="K32" t="n">
-        <v>326.3624842845566</v>
+        <v>292.2934031933927</v>
       </c>
       <c r="L32" t="n">
-        <v>-888.2250041981143</v>
+        <v>-923.8986481146442</v>
       </c>
       <c r="M32" t="n">
-        <v>1.79052350413755</v>
+        <v>3.980436626912535</v>
       </c>
       <c r="N32" t="n">
-        <v>35.2167474385197</v>
+        <v>34.73602492498458</v>
       </c>
       <c r="O32" t="n">
-        <v>2494.374232006789</v>
+        <v>617.5301221339944</v>
       </c>
       <c r="P32" t="n">
-        <v>4.608765213380696</v>
+        <v>0.5392968682970593</v>
       </c>
       <c r="Q32" t="n">
-        <v>27.46235713758036</v>
+        <v>30.37870639755445</v>
       </c>
       <c r="R32" t="n">
-        <v>516.7061882485482</v>
+        <v>4803.133934564673</v>
       </c>
       <c r="S32" t="n">
-        <v>35.37503491397774</v>
+        <v>31.36447133780711</v>
       </c>
       <c r="T32" t="n">
-        <v>402.8785850154033</v>
+        <v>374.7390268581408</v>
       </c>
       <c r="U32" t="n">
-        <v>44288.41069384804</v>
+        <v>38542.0777124579</v>
       </c>
       <c r="V32" t="n">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="W32" t="n">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="X32" t="n">
-        <v>485</v>
+        <v>453</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>1.097910659452444</v>
+        <v>1.134674245831284</v>
       </c>
       <c r="AA32" t="n">
-        <v>4.216573229900104</v>
+        <v>4.002120275100742</v>
       </c>
       <c r="AB32" t="n">
-        <v>402.8502988570991</v>
+        <v>428.4477720414937</v>
       </c>
       <c r="AC32" t="n">
-        <v>255.483064530726</v>
+        <v>151.8303375023634</v>
       </c>
       <c r="AD32" t="n">
-        <v>449.1633324975441</v>
+        <v>72.62009557355449</v>
       </c>
       <c r="AE32" t="n">
-        <v>6.006133276748594</v>
+        <v>6.04079557449649</v>
       </c>
       <c r="AF32" t="n">
-        <v>79.18814506549214</v>
+        <v>78.99714779700538</v>
       </c>
       <c r="AG32" t="n">
-        <v>7879.478509382551</v>
+        <v>7902.578636472813</v>
       </c>
       <c r="AH32" t="n">
-        <v>150265.7027717755</v>
+        <v>150154.0296013302</v>
       </c>
       <c r="AI32" t="n">
-        <v>150431.0601644436</v>
+        <v>150072.42989729</v>
       </c>
       <c r="AJ32" t="n">
-        <v>458.4426154038931</v>
+        <v>367.271985401474</v>
       </c>
       <c r="AK32" t="n">
-        <v>49.85823491356405</v>
+        <v>179.7188604614266</v>
       </c>
       <c r="AL32" t="n">
-        <v>57.97743038057334</v>
+        <v>77.01374012863639</v>
       </c>
       <c r="AM32" t="n">
-        <v>-2.818241709243146</v>
+        <v>3.441139758615475</v>
       </c>
       <c r="AN32" t="n">
-        <v>7.754390300939349</v>
+        <v>4.357318527430139</v>
       </c>
       <c r="AO32" t="n">
-        <v>1977.668043758242</v>
+        <v>-4185.60381243068</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Amount of token lps</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Amount of traders</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="U3" s="1" t="inlineStr">
+        <is>
+          <t>Key tested values</t>
+        </is>
+      </c>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>Input controlled values</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="n"/>
+      <c r="W5" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="U7" s="3" t="inlineStr">
+        <is>
+          <t>Context values</t>
+        </is>
+      </c>
+      <c r="V7" s="3" t="n"/>
+      <c r="W7" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:S18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>BTC pool size</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>ETH pool size</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>SOL pool size</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>USDC pool size</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>USDT pool size</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
 </file>
--- a/run_merged.xlsx
+++ b/run_merged.xlsx
@@ -6051,22 +6051,22 @@
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>100.6212056481952</v>
+        <v>100.1311031549707</v>
       </c>
       <c r="E4" t="n">
-        <v>5.401828562254984</v>
+        <v>4.774365335751956</v>
       </c>
       <c r="F4" t="n">
-        <v>75.67638895094868</v>
+        <v>74.15477082793311</v>
       </c>
       <c r="G4" t="n">
-        <v>7385.22140171563</v>
+        <v>7545.09015577824</v>
       </c>
       <c r="H4" t="n">
-        <v>141310.8196502408</v>
+        <v>152042.7961906446</v>
       </c>
       <c r="I4" t="n">
-        <v>156131.1747713329</v>
+        <v>156926.9522805467</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6078,91 +6078,91 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01459551830073624</v>
+        <v>1.600963078257559</v>
       </c>
       <c r="N4" t="n">
-        <v>9.172618665278893</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3598.357061563249</v>
+        <v>123.471195063976</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>3.022480634487379</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.38846589904995</v>
+        <v>4.136184772035691</v>
       </c>
       <c r="R4" t="n">
-        <v>1665.844153115084</v>
+        <v>4680.368782951424</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5512141909966357</v>
+        <v>5.091125216180465</v>
       </c>
       <c r="T4" t="n">
-        <v>17.59609023750307</v>
+        <v>9.208326886425391</v>
       </c>
       <c r="U4" t="n">
-        <v>6054.067444744819</v>
+        <v>5249.749146647005</v>
       </c>
       <c r="V4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.1036292248608845</v>
+        <v>0.03145840517031585</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.05341968263572835</v>
+        <v>0.02587127820296721</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.59560062713521</v>
+        <v>0.2261497971041629</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06237934110865732</v>
+        <v>0.06171478503464616</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.07767661876341563</v>
+        <v>0.02568335713765304</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.099089136779041</v>
+        <v>5.032611587134905</v>
       </c>
       <c r="AF4" t="n">
-        <v>75.05310362658381</v>
+        <v>75.02608222436835</v>
       </c>
       <c r="AG4" t="n">
-        <v>7582.946169118668</v>
+        <v>7500.225207034629</v>
       </c>
       <c r="AH4" t="n">
-        <v>150000.0650643435</v>
+        <v>150000.0611343715</v>
       </c>
       <c r="AI4" t="n">
-        <v>150000.0755414172</v>
+        <v>150000.0248897721</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.800518242870473</v>
+        <v>10.38446040172701</v>
       </c>
       <c r="AK4" t="n">
-        <v>-2.426641183035192</v>
+        <v>8.8461610185166</v>
       </c>
       <c r="AL4" t="n">
-        <v>-124.8975103488921</v>
+        <v>-76.19180843507667</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.01459551830073624</v>
+        <v>-1.42151755622982</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.784152766228944</v>
+        <v>-4.136184772035691</v>
       </c>
       <c r="AO4" t="n">
-        <v>1932.512908448164</v>
+        <v>-4556.897587887448</v>
       </c>
     </row>
     <row r="5">
@@ -6176,118 +6176,118 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>101.2560930766303</v>
+        <v>100.61164823309</v>
       </c>
       <c r="E5" t="n">
-        <v>5.459292752173794</v>
+        <v>4.745735034203812</v>
       </c>
       <c r="F5" t="n">
-        <v>75.37889807726853</v>
+        <v>75.61333748132741</v>
       </c>
       <c r="G5" t="n">
-        <v>7490.043650299348</v>
+        <v>7647.194046391945</v>
       </c>
       <c r="H5" t="n">
-        <v>143792.4870250069</v>
+        <v>152502.8743932671</v>
       </c>
       <c r="I5" t="n">
-        <v>157943.2159582173</v>
+        <v>156485.6769439238</v>
       </c>
       <c r="J5" t="n">
-        <v>-142.8257822291876</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-142.8257822291876</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.053306135354565</v>
+        <v>1.640111929619642</v>
       </c>
       <c r="N5" t="n">
-        <v>11.79825008962412</v>
+        <v>5.045995090535761</v>
       </c>
       <c r="O5" t="n">
-        <v>2086.374013696284</v>
+        <v>838.8967478983869</v>
       </c>
       <c r="P5" t="n">
-        <v>0.07863103026933704</v>
+        <v>3.084751612351878</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.39857584372991</v>
+        <v>4.136184772035691</v>
       </c>
       <c r="R5" t="n">
-        <v>1665.844153115084</v>
+        <v>4691.66862754944</v>
       </c>
       <c r="S5" t="n">
-        <v>2.644966877929277</v>
+        <v>5.352707217566018</v>
       </c>
       <c r="T5" t="n">
-        <v>34.02813161505571</v>
+        <v>25.54058291128128</v>
       </c>
       <c r="U5" t="n">
-        <v>8094.667709181321</v>
+        <v>6211.744967856782</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>73</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.1958563393693986</v>
+        <v>0.0473139214338172</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.1301946292122643</v>
+        <v>0.08311252127097275</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.9988645354192</v>
+        <v>6.845353809167416</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.13464995982298</v>
+        <v>0.09315150698304675</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.1600888432594071</v>
+        <v>0.3163069119942412</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.187756366095453</v>
+        <v>5.049152261339883</v>
       </c>
       <c r="AF5" t="n">
-        <v>75.12970925284984</v>
+        <v>75.08305725185259</v>
       </c>
       <c r="AG5" t="n">
-        <v>7609.625657380957</v>
+        <v>7506.778389773957</v>
       </c>
       <c r="AH5" t="n">
-        <v>150000.1395189473</v>
+        <v>150000.0922099481</v>
       </c>
       <c r="AI5" t="n">
-        <v>150000.1550524388</v>
+        <v>150000.314012576</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15.49805955149948</v>
+        <v>60.43018514766881</v>
       </c>
       <c r="AK5" t="n">
-        <v>31.50583760126977</v>
+        <v>20.29330266760343</v>
       </c>
       <c r="AL5" t="n">
-        <v>227.9551831365299</v>
+        <v>98.24585100894521</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.9746751050852276</v>
+        <v>-1.444639682732236</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0.6003257541057905</v>
+        <v>0.9098103185000694</v>
       </c>
       <c r="AO5" t="n">
-        <v>420.5298605811995</v>
+        <v>-3852.771879651054</v>
       </c>
     </row>
     <row r="6">
@@ -6301,118 +6301,118 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>102.0729235254945</v>
+        <v>100.9798570597164</v>
       </c>
       <c r="E6" t="n">
-        <v>5.720352773223464</v>
+        <v>4.773732634499806</v>
       </c>
       <c r="F6" t="n">
-        <v>82.24791727130426</v>
+        <v>77.50703367444878</v>
       </c>
       <c r="G6" t="n">
-        <v>7307.98266837029</v>
+        <v>7634.859039236122</v>
       </c>
       <c r="H6" t="n">
-        <v>135151.9507673274</v>
+        <v>148288.0383102474</v>
       </c>
       <c r="I6" t="n">
-        <v>158662.2150217087</v>
+        <v>160451.9367379796</v>
       </c>
       <c r="J6" t="n">
-        <v>-142.8257822291876</v>
+        <v>-148.1867469937656</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-142.8257822291876</v>
+        <v>-127.57546476762</v>
       </c>
       <c r="M6" t="n">
-        <v>5.536656689641502</v>
+        <v>1.457973487225351</v>
       </c>
       <c r="N6" t="n">
-        <v>24.21534201094361</v>
+        <v>17.80685632271151</v>
       </c>
       <c r="O6" t="n">
-        <v>5315.691546321284</v>
+        <v>1552.685539006092</v>
       </c>
       <c r="P6" t="n">
-        <v>0.07863103026933704</v>
+        <v>3.109535614373474</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.39147756331474</v>
+        <v>56.95841004887129</v>
       </c>
       <c r="R6" t="n">
-        <v>1888.478856627701</v>
+        <v>4949.483187809779</v>
       </c>
       <c r="S6" t="n">
-        <v>7.580488584600411</v>
+        <v>7.455744344166127</v>
       </c>
       <c r="T6" t="n">
-        <v>78.26986238989019</v>
+        <v>94.54089546975173</v>
       </c>
       <c r="U6" t="n">
-        <v>12343.93122620867</v>
+        <v>7513.038450524545</v>
       </c>
       <c r="V6" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="W6" t="n">
         <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.2805006603371052</v>
+        <v>0.09573323378876</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2804555875831983</v>
+        <v>0.1491470535029136</v>
       </c>
       <c r="AB6" t="n">
-        <v>202.3262660741703</v>
+        <v>19.05300263699884</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.2217381304152757</v>
+        <v>0.1338637435048083</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.3004739039742466</v>
+        <v>0.9539373697533963</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.267421949793673</v>
+        <v>5.099793963713434</v>
       </c>
       <c r="AF6" t="n">
-        <v>75.27166497446044</v>
+        <v>75.14787130298693</v>
       </c>
       <c r="AG6" t="n">
-        <v>7707.337786466969</v>
+        <v>7518.852074380977</v>
       </c>
       <c r="AH6" t="n">
-        <v>150000.2333045846</v>
+        <v>150000.1332512193</v>
       </c>
       <c r="AI6" t="n">
-        <v>150000.2900725925</v>
+        <v>150000.9492905512</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1106.574005625843</v>
+        <v>853.8923995428477</v>
       </c>
       <c r="AK6" t="n">
-        <v>331.4978724748513</v>
+        <v>125.6474282655006</v>
       </c>
       <c r="AL6" t="n">
-        <v>647.643251381689</v>
+        <v>734.6180030660041</v>
       </c>
       <c r="AM6" t="n">
-        <v>5.458025659372165</v>
+        <v>-1.651562127148123</v>
       </c>
       <c r="AN6" t="n">
-        <v>-10.17613555237113</v>
+        <v>-39.15155372615977</v>
       </c>
       <c r="AO6" t="n">
-        <v>3427.212689693582</v>
+        <v>-3396.797648803687</v>
       </c>
     </row>
     <row r="7">
@@ -6426,118 +6426,118 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>103.2330238752974</v>
+        <v>101.3110944501207</v>
       </c>
       <c r="E7" t="n">
-        <v>6.003532816458775</v>
+        <v>4.917533179190073</v>
       </c>
       <c r="F7" t="n">
-        <v>81.13140399292162</v>
+        <v>75.45682890272131</v>
       </c>
       <c r="G7" t="n">
-        <v>7391.823936268728</v>
+        <v>7583.712983993607</v>
       </c>
       <c r="H7" t="n">
-        <v>136840.2651678578</v>
+        <v>140911.9372886674</v>
       </c>
       <c r="I7" t="n">
-        <v>162700.3415853952</v>
+        <v>172110.9360210762</v>
       </c>
       <c r="J7" t="n">
-        <v>-1740.79844382559</v>
+        <v>-148.1867469937656</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-786.3352324448576</v>
+        <v>-127.57546476762</v>
       </c>
       <c r="M7" t="n">
-        <v>3.122046634417345</v>
+        <v>1.564336286388154</v>
       </c>
       <c r="N7" t="n">
-        <v>32.69102016126169</v>
+        <v>20.57825734089305</v>
       </c>
       <c r="O7" t="n">
-        <v>1795.464464951062</v>
+        <v>2211.686492712681</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1075081731744819</v>
+        <v>3.190760250597694</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.57182060854325</v>
+        <v>56.95841004887129</v>
       </c>
       <c r="R7" t="n">
-        <v>1891.551485161543</v>
+        <v>4985.417410977501</v>
       </c>
       <c r="S7" t="n">
-        <v>13.90320189489749</v>
+        <v>7.965797810253977</v>
       </c>
       <c r="T7" t="n">
-        <v>106.5351446650101</v>
+        <v>101.7444949563986</v>
       </c>
       <c r="U7" t="n">
-        <v>16355.86591418666</v>
+        <v>8350.379705728617</v>
       </c>
       <c r="V7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="W7" t="n">
         <v>15</v>
       </c>
       <c r="X7" t="n">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.4549078314750341</v>
+        <v>0.1220947201357904</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.3509229885854465</v>
+        <v>0.2179735184582232</v>
       </c>
       <c r="AB7" t="n">
-        <v>288.3722435616961</v>
+        <v>29.32278882716108</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.3250032694678407</v>
+        <v>0.1743810269216393</v>
       </c>
       <c r="AD7" t="n">
-        <v>5.435985774924823</v>
+        <v>1.65019216793175</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.428896280203078</v>
+        <v>5.126900359403179</v>
       </c>
       <c r="AF7" t="n">
-        <v>75.33912358088581</v>
+        <v>75.21655592897622</v>
       </c>
       <c r="AG7" t="n">
-        <v>7796.497583321323</v>
+        <v>7529.067177676104</v>
       </c>
       <c r="AH7" t="n">
-        <v>150000.3435214965</v>
+        <v>150000.175597739</v>
       </c>
       <c r="AI7" t="n">
-        <v>150005.1459912593</v>
+        <v>150001.641397857</v>
       </c>
       <c r="AJ7" t="n">
-        <v>523.7244624725425</v>
+        <v>1132.62014723939</v>
       </c>
       <c r="AK7" t="n">
-        <v>695.5264913860959</v>
+        <v>485.5278444680193</v>
       </c>
       <c r="AL7" t="n">
-        <v>906.0257952407834</v>
+        <v>1312.342028112476</v>
       </c>
       <c r="AM7" t="n">
-        <v>3.014538461242863</v>
+        <v>-1.62642396420954</v>
       </c>
       <c r="AN7" t="n">
-        <v>-15.88080044728155</v>
+        <v>-36.38015270797823</v>
       </c>
       <c r="AO7" t="n">
-        <v>-96.08702021048069</v>
+        <v>-2773.73091826482</v>
       </c>
     </row>
     <row r="8">
@@ -6551,118 +6551,118 @@
         <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>104.106372644287</v>
+        <v>101.6837558523039</v>
       </c>
       <c r="E8" t="n">
-        <v>6.17796412503689</v>
+        <v>4.603099055207601</v>
       </c>
       <c r="F8" t="n">
-        <v>83.59271372141758</v>
+        <v>81.15699964082332</v>
       </c>
       <c r="G8" t="n">
-        <v>7245.749634241623</v>
+        <v>7676.031037956992</v>
       </c>
       <c r="H8" t="n">
-        <v>136462.5849083168</v>
+        <v>138424.3067151364</v>
       </c>
       <c r="I8" t="n">
-        <v>164694.8873470958</v>
+        <v>174492.1199610041</v>
       </c>
       <c r="J8" t="n">
-        <v>-1747.849795857108</v>
+        <v>-290.1491274539597</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-786.3352324448576</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M8" t="n">
-        <v>3.389523243836959</v>
+        <v>1.56972328693077</v>
       </c>
       <c r="N8" t="n">
-        <v>33.83467076107048</v>
+        <v>14.88983846379447</v>
       </c>
       <c r="O8" t="n">
-        <v>3329.114936869754</v>
+        <v>2361.378920044001</v>
       </c>
       <c r="P8" t="n">
-        <v>0.9483009560733722</v>
+        <v>3.190760250597694</v>
       </c>
       <c r="Q8" t="n">
-        <v>50.3180252934286</v>
+        <v>56.96195852663377</v>
       </c>
       <c r="R8" t="n">
-        <v>3884.79181005694</v>
+        <v>5052.502970111347</v>
       </c>
       <c r="S8" t="n">
-        <v>15.21603527674504</v>
+        <v>8.359065781174404</v>
       </c>
       <c r="T8" t="n">
-        <v>115.8051408989582</v>
+        <v>126.3043679376245</v>
       </c>
       <c r="U8" t="n">
-        <v>21249.56865510852</v>
+        <v>9072.454473280082</v>
       </c>
       <c r="V8" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="W8" t="n">
         <v>19</v>
       </c>
       <c r="X8" t="n">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.5072863758499848</v>
+        <v>0.1526296150817016</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.4699389447426602</v>
+        <v>0.6035324782760899</v>
       </c>
       <c r="AB8" t="n">
-        <v>325.7846251767172</v>
+        <v>31.25977760423014</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.432785901550637</v>
+        <v>0.5031753493689888</v>
       </c>
       <c r="AD8" t="n">
-        <v>40.77526690042675</v>
+        <v>3.698519038770817</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.477059617484919</v>
+        <v>5.159971034043966</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.45057655971749</v>
+        <v>75.58365253906831</v>
       </c>
       <c r="AG8" t="n">
-        <v>7836.011012229155</v>
+        <v>7530.97844037607</v>
       </c>
       <c r="AH8" t="n">
-        <v>150000.4587889755</v>
+        <v>150000.523639535</v>
       </c>
       <c r="AI8" t="n">
-        <v>150040.4788801981</v>
+        <v>150003.5585138048</v>
       </c>
       <c r="AJ8" t="n">
-        <v>563.9237302845248</v>
+        <v>719.4716736748323</v>
       </c>
       <c r="AK8" t="n">
-        <v>671.0660190404907</v>
+        <v>174.878623278951</v>
       </c>
       <c r="AL8" t="n">
-        <v>643.588199362988</v>
+        <v>1182.160249182032</v>
       </c>
       <c r="AM8" t="n">
-        <v>2.441222287763587</v>
+        <v>-1.621036963666923</v>
       </c>
       <c r="AN8" t="n">
-        <v>-16.48335453235811</v>
+        <v>-42.0721200628393</v>
       </c>
       <c r="AO8" t="n">
-        <v>-555.6768731871855</v>
+        <v>-2691.124050067347</v>
       </c>
     </row>
     <row r="9">
@@ -6676,118 +6676,118 @@
         <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>104.5623624565006</v>
+        <v>106.5453165403014</v>
       </c>
       <c r="E9" t="n">
-        <v>6.475535503675895</v>
+        <v>4.956925913422555</v>
       </c>
       <c r="F9" t="n">
-        <v>84.92634399686582</v>
+        <v>82.38823206789245</v>
       </c>
       <c r="G9" t="n">
-        <v>6966.660495158281</v>
+        <v>8804.148820362749</v>
       </c>
       <c r="H9" t="n">
-        <v>129896.5358326253</v>
+        <v>135339.372623261</v>
       </c>
       <c r="I9" t="n">
-        <v>171690.5783426957</v>
+        <v>179492.3474102015</v>
       </c>
       <c r="J9" t="n">
-        <v>-1705.264163119503</v>
+        <v>-336.801886187409</v>
       </c>
       <c r="K9" t="n">
-        <v>28.12593467888716</v>
+        <v>12.07929441155155</v>
       </c>
       <c r="L9" t="n">
-        <v>-779.4440162642189</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M9" t="n">
-        <v>3.498940010891187</v>
+        <v>1.643596938652033</v>
       </c>
       <c r="N9" t="n">
-        <v>34.52774091854048</v>
+        <v>17.66014272164847</v>
       </c>
       <c r="O9" t="n">
-        <v>3329.114936869754</v>
+        <v>2127.655891696956</v>
       </c>
       <c r="P9" t="n">
-        <v>1.338704511829849</v>
+        <v>3.301831682149591</v>
       </c>
       <c r="Q9" t="n">
-        <v>47.38401140960949</v>
+        <v>57.75830179239154</v>
       </c>
       <c r="R9" t="n">
-        <v>3688.305048964361</v>
+        <v>5297.618263581924</v>
       </c>
       <c r="S9" t="n">
-        <v>16.63944415233978</v>
+        <v>8.891714791090093</v>
       </c>
       <c r="T9" t="n">
-        <v>124.5300650585278</v>
+        <v>144.0452906049836</v>
       </c>
       <c r="U9" t="n">
-        <v>22527.74311193211</v>
+        <v>10446.22112452545</v>
       </c>
       <c r="V9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X9" t="n">
-        <v>241</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.5801427220269432</v>
+        <v>0.1965872497008857</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.5364676401728048</v>
+        <v>0.7772161517584119</v>
       </c>
       <c r="AB9" t="n">
-        <v>325.8899189986162</v>
+        <v>65.08047202211489</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.56341431142305</v>
+        <v>22.02749345788912</v>
       </c>
       <c r="AD9" t="n">
-        <v>40.85008130781353</v>
+        <v>131.4748879400646</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.542371405100932</v>
+        <v>5.205390890407387</v>
       </c>
       <c r="AF9" t="n">
-        <v>75.51247108182001</v>
+        <v>75.74889785390651</v>
       </c>
       <c r="AG9" t="n">
-        <v>7836.125504567348</v>
+        <v>7563.485608182114</v>
       </c>
       <c r="AH9" t="n">
-        <v>150012.7959119929</v>
+        <v>150022.0807391484</v>
       </c>
       <c r="AI9" t="n">
-        <v>150040.5470907753</v>
+        <v>150130.6152704977</v>
       </c>
       <c r="AJ9" t="n">
-        <v>334.2706270989698</v>
+        <v>592.416881068885</v>
       </c>
       <c r="AK9" t="n">
-        <v>493.5919785519711</v>
+        <v>145.9067002325339</v>
       </c>
       <c r="AL9" t="n">
-        <v>138.1842138211846</v>
+        <v>895.6239549194696</v>
       </c>
       <c r="AM9" t="n">
-        <v>2.160235499061337</v>
+        <v>-1.658234743497558</v>
       </c>
       <c r="AN9" t="n">
-        <v>-12.85627049106899</v>
+        <v>-40.09815907074307</v>
       </c>
       <c r="AO9" t="n">
-        <v>-359.1901120946071</v>
+        <v>-3169.96237188497</v>
       </c>
     </row>
     <row r="10">
@@ -6801,118 +6801,118 @@
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>105.1290295445207</v>
+        <v>107.1951166406952</v>
       </c>
       <c r="E10" t="n">
-        <v>6.579735051792313</v>
+        <v>5.071517610044857</v>
       </c>
       <c r="F10" t="n">
-        <v>86.66624686875116</v>
+        <v>87.47920340617635</v>
       </c>
       <c r="G10" t="n">
-        <v>7073.237276954144</v>
+        <v>8882.111190578802</v>
       </c>
       <c r="H10" t="n">
-        <v>126488.2502916196</v>
+        <v>130816.9607274339</v>
       </c>
       <c r="I10" t="n">
-        <v>172792.1136655809</v>
+        <v>175883.7077259324</v>
       </c>
       <c r="J10" t="n">
-        <v>-2065.766615156058</v>
+        <v>-347.2510634674647</v>
       </c>
       <c r="K10" t="n">
-        <v>28.12593467888716</v>
+        <v>1.635854125226</v>
       </c>
       <c r="L10" t="n">
-        <v>-779.4440162642189</v>
+        <v>-137.7300919108943</v>
       </c>
       <c r="M10" t="n">
-        <v>2.644998133249516</v>
+        <v>1.653352308389339</v>
       </c>
       <c r="N10" t="n">
-        <v>37.95026081595392</v>
+        <v>21.56459463617691</v>
       </c>
       <c r="O10" t="n">
-        <v>3035.375282387977</v>
+        <v>2133.852426079755</v>
       </c>
       <c r="P10" t="n">
-        <v>1.550970911843008</v>
+        <v>3.311042412349094</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.42776973570673</v>
+        <v>57.82440244553927</v>
       </c>
       <c r="R10" t="n">
-        <v>3688.305048964361</v>
+        <v>5297.618263581924</v>
       </c>
       <c r="S10" t="n">
-        <v>18.67395619278295</v>
+        <v>9.425866784524796</v>
       </c>
       <c r="T10" t="n">
-        <v>140.2062063758802</v>
+        <v>156.0969864363324</v>
       </c>
       <c r="U10" t="n">
-        <v>23755.70502328844</v>
+        <v>10610.54160470012</v>
       </c>
       <c r="V10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="W10" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="X10" t="n">
-        <v>276</v>
+        <v>135</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6586055460656505</v>
+        <v>0.245981166139772</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.8068207529488228</v>
+        <v>0.9279642887717208</v>
       </c>
       <c r="AB10" t="n">
-        <v>342.8379828116658</v>
+        <v>67.664370392137</v>
       </c>
       <c r="AC10" t="n">
-        <v>11.83487417125176</v>
+        <v>50.23444173410721</v>
       </c>
       <c r="AD10" t="n">
-        <v>40.91790294428423</v>
+        <v>131.494751569002</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.61254747815328</v>
+        <v>5.255943885974109</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.75912473641108</v>
+        <v>75.88737777746678</v>
       </c>
       <c r="AG10" t="n">
-        <v>7854.335470742677</v>
+        <v>7565.801294964596</v>
       </c>
       <c r="AH10" t="n">
-        <v>150013.1027129195</v>
+        <v>150050.2925712041</v>
       </c>
       <c r="AI10" t="n">
-        <v>150040.6086613614</v>
+        <v>150130.6330982089</v>
       </c>
       <c r="AJ10" t="n">
-        <v>395.5151560135424</v>
+        <v>886.1093069131379</v>
       </c>
       <c r="AK10" t="n">
-        <v>450.5822644396765</v>
+        <v>657.5394738406615</v>
       </c>
       <c r="AL10" t="n">
-        <v>468.6670738763695</v>
+        <v>822.5517670103823</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.094027221406507</v>
+        <v>-1.657690103959755</v>
       </c>
       <c r="AN10" t="n">
-        <v>-5.477508919752797</v>
+        <v>-36.25980780936236</v>
       </c>
       <c r="AO10" t="n">
-        <v>-652.9297665763839</v>
+        <v>-3163.76583750217</v>
       </c>
     </row>
     <row r="11">
@@ -6926,118 +6926,118 @@
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>106.1337460868663</v>
+        <v>108.7581813700226</v>
       </c>
       <c r="E11" t="n">
-        <v>6.658994218017538</v>
+        <v>5.098190128618961</v>
       </c>
       <c r="F11" t="n">
-        <v>87.23345021616699</v>
+        <v>88.87622003371396</v>
       </c>
       <c r="G11" t="n">
-        <v>7233.428203365659</v>
+        <v>9345.736021560966</v>
       </c>
       <c r="H11" t="n">
-        <v>120858.2202784197</v>
+        <v>133143.6091148894</v>
       </c>
       <c r="I11" t="n">
-        <v>181089.1620439317</v>
+        <v>173146.513024302</v>
       </c>
       <c r="J11" t="n">
-        <v>-2549.617178645465</v>
+        <v>-453.1021534668865</v>
       </c>
       <c r="K11" t="n">
-        <v>27.25187611565545</v>
+        <v>163.4977670923801</v>
       </c>
       <c r="L11" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M11" t="n">
-        <v>2.610304314394298</v>
+        <v>0.9648950681047247</v>
       </c>
       <c r="N11" t="n">
-        <v>52.20891125965233</v>
+        <v>22.00767996362464</v>
       </c>
       <c r="O11" t="n">
-        <v>1960.45568636983</v>
+        <v>2168.04031784872</v>
       </c>
       <c r="P11" t="n">
-        <v>2.578321733160844</v>
+        <v>3.430363025835736</v>
       </c>
       <c r="Q11" t="n">
-        <v>31.04319913116197</v>
+        <v>57.82440244553927</v>
       </c>
       <c r="R11" t="n">
-        <v>3688.305048964361</v>
+        <v>4679.684026913143</v>
       </c>
       <c r="S11" t="n">
-        <v>20.29746497986192</v>
+        <v>10.40357209685558</v>
       </c>
       <c r="T11" t="n">
-        <v>223.8629858960362</v>
+        <v>157.2932424188009</v>
       </c>
       <c r="U11" t="n">
-        <v>25713.97685940828</v>
+        <v>13613.69838657148</v>
       </c>
       <c r="V11" t="n">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="W11" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>300</v>
+        <v>152</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.706090088851327</v>
+        <v>0.3181589665088905</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.910639071003767</v>
+        <v>0.9555320270876329</v>
       </c>
       <c r="AB11" t="n">
-        <v>410.2828908179885</v>
+        <v>101.6958472659312</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.31004656134916</v>
+        <v>110.0519407887028</v>
       </c>
       <c r="AD11" t="n">
-        <v>41.38039682071768</v>
+        <v>131.6319900650123</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.654966816045505</v>
+        <v>5.330226487064233</v>
       </c>
       <c r="AF11" t="n">
-        <v>76.76846716054821</v>
+        <v>75.91292643163347</v>
       </c>
       <c r="AG11" t="n">
-        <v>7926.202539865151</v>
+        <v>7596.417011115237</v>
       </c>
       <c r="AH11" t="n">
-        <v>150013.6581255038</v>
+        <v>150115.4439990958</v>
       </c>
       <c r="AI11" t="n">
-        <v>150041.0156479791</v>
+        <v>150130.7654624257</v>
       </c>
       <c r="AJ11" t="n">
-        <v>451.8639451752691</v>
+        <v>1033.319421622687</v>
       </c>
       <c r="AK11" t="n">
-        <v>395.9061700215473</v>
+        <v>440.5315073378797</v>
       </c>
       <c r="AL11" t="n">
-        <v>419.6293078381286</v>
+        <v>939.046064785244</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.03198258123345354</v>
+        <v>-2.465467957731012</v>
       </c>
       <c r="AN11" t="n">
-        <v>21.16571212849036</v>
+        <v>-35.81672248191463</v>
       </c>
       <c r="AO11" t="n">
-        <v>-1727.849362594531</v>
+        <v>-2511.643709064424</v>
       </c>
     </row>
     <row r="12">
@@ -7051,118 +7051,118 @@
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>108.0254814182334</v>
+        <v>109.1342114905554</v>
       </c>
       <c r="E12" t="n">
-        <v>6.797108747363052</v>
+        <v>5.176615303981092</v>
       </c>
       <c r="F12" t="n">
-        <v>95.88812046216367</v>
+        <v>91.11170356818458</v>
       </c>
       <c r="G12" t="n">
-        <v>7336.057457369185</v>
+        <v>9103.165830461832</v>
       </c>
       <c r="H12" t="n">
-        <v>122924.7122814879</v>
+        <v>135710.6470349164</v>
       </c>
       <c r="I12" t="n">
-        <v>172898.3291942231</v>
+        <v>172364.159464509</v>
       </c>
       <c r="J12" t="n">
-        <v>-2598.148992851468</v>
+        <v>-566.7428225865381</v>
       </c>
       <c r="K12" t="n">
-        <v>109.3362726595455</v>
+        <v>154.1693038294664</v>
       </c>
       <c r="L12" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9495036312630152</v>
+        <v>0.5528926238621457</v>
       </c>
       <c r="N12" t="n">
-        <v>54.31190029517229</v>
+        <v>21.71896965302037</v>
       </c>
       <c r="O12" t="n">
-        <v>3969.486198698623</v>
+        <v>2606.199751414691</v>
       </c>
       <c r="P12" t="n">
-        <v>2.070383608399534</v>
+        <v>4.547551650525914</v>
       </c>
       <c r="Q12" t="n">
-        <v>41.47361517009962</v>
+        <v>57.14161722067352</v>
       </c>
       <c r="R12" t="n">
-        <v>2750.336715780114</v>
+        <v>5334.459630067157</v>
       </c>
       <c r="S12" t="n">
-        <v>23.31067307031432</v>
+        <v>12.43794073661344</v>
       </c>
       <c r="T12" t="n">
-        <v>242.7657055573052</v>
+        <v>176.8155256781495</v>
       </c>
       <c r="U12" t="n">
-        <v>29899.81039502742</v>
+        <v>15345.65827494581</v>
       </c>
       <c r="V12" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="W12" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="X12" t="n">
-        <v>336</v>
+        <v>166</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.8123245887277115</v>
+        <v>0.3562290602287929</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.089730645051387</v>
+        <v>1.235324461498784</v>
       </c>
       <c r="AB12" t="n">
-        <v>460.3712247622585</v>
+        <v>115.3641434945949</v>
       </c>
       <c r="AC12" t="n">
-        <v>54.64212190008327</v>
+        <v>110.0916919629839</v>
       </c>
       <c r="AD12" t="n">
-        <v>79.27613135293443</v>
+        <v>132.2090520187656</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.749318466767431</v>
+        <v>5.369222182951314</v>
       </c>
       <c r="AF12" t="n">
-        <v>76.93249258687113</v>
+        <v>76.16048589064285</v>
       </c>
       <c r="AG12" t="n">
-        <v>7979.309626110965</v>
+        <v>7608.510099016507</v>
       </c>
       <c r="AH12" t="n">
-        <v>150061.4531374959</v>
+        <v>150115.4867038061</v>
       </c>
       <c r="AI12" t="n">
-        <v>150076.148957581</v>
+        <v>150131.3178167776</v>
       </c>
       <c r="AJ12" t="n">
-        <v>143.2850470822776</v>
+        <v>880.4559925680576</v>
       </c>
       <c r="AK12" t="n">
-        <v>-123.3547486702244</v>
+        <v>115.311990409489</v>
       </c>
       <c r="AL12" t="n">
-        <v>-29.26116227374487</v>
+        <v>568.2983967719695</v>
       </c>
       <c r="AM12" t="n">
-        <v>-1.12087997713652</v>
+        <v>-3.99465902666377</v>
       </c>
       <c r="AN12" t="n">
-        <v>12.83828512507268</v>
+        <v>-35.42264756765315</v>
       </c>
       <c r="AO12" t="n">
-        <v>1219.149482918509</v>
+        <v>-2728.259878652469</v>
       </c>
     </row>
     <row r="13">
@@ -7176,118 +7176,118 @@
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>108.4580371423007</v>
+        <v>109.7003203911764</v>
       </c>
       <c r="E13" t="n">
-        <v>6.933556076335752</v>
+        <v>5.282114417098753</v>
       </c>
       <c r="F13" t="n">
-        <v>96.12313013725513</v>
+        <v>93.09138778538333</v>
       </c>
       <c r="G13" t="n">
-        <v>7120.105552864122</v>
+        <v>9039.333945140677</v>
       </c>
       <c r="H13" t="n">
-        <v>127879.0790839742</v>
+        <v>131559.7446790495</v>
       </c>
       <c r="I13" t="n">
-        <v>173702.573432149</v>
+        <v>176143.6193898306</v>
       </c>
       <c r="J13" t="n">
-        <v>-2597.11199371415</v>
+        <v>-145.7781223326163</v>
       </c>
       <c r="K13" t="n">
-        <v>109.3362726595455</v>
+        <v>418.9092970449603</v>
       </c>
       <c r="L13" t="n">
-        <v>-786.3163337542259</v>
+        <v>-204.2089262510808</v>
       </c>
       <c r="M13" t="n">
-        <v>1.633137651692947</v>
+        <v>0.6551359199195305</v>
       </c>
       <c r="N13" t="n">
-        <v>54.40048726588251</v>
+        <v>30.04522650121256</v>
       </c>
       <c r="O13" t="n">
-        <v>4386.630926159241</v>
+        <v>2606.604091938812</v>
       </c>
       <c r="P13" t="n">
-        <v>2.309498759355312</v>
+        <v>4.531461803098673</v>
       </c>
       <c r="Q13" t="n">
-        <v>41.47361517009962</v>
+        <v>57.3935916372839</v>
       </c>
       <c r="R13" t="n">
-        <v>2750.336715780114</v>
+        <v>1890.454639808062</v>
       </c>
       <c r="S13" t="n">
-        <v>24.90146205610501</v>
+        <v>12.59687417317053</v>
       </c>
       <c r="T13" t="n">
-        <v>244.8777556665615</v>
+        <v>186.4846262220847</v>
       </c>
       <c r="U13" t="n">
-        <v>30739.33211462224</v>
+        <v>18988.74818596078</v>
       </c>
       <c r="V13" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="W13" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="X13" t="n">
-        <v>359</v>
+        <v>185</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.8887658499625383</v>
+        <v>0.3978849834730046</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.167147160611724</v>
+        <v>1.29775771776444</v>
       </c>
       <c r="AB13" t="n">
-        <v>470.5220943605112</v>
+        <v>115.4278622929554</v>
       </c>
       <c r="AC13" t="n">
-        <v>54.65156753551004</v>
+        <v>321.9929019215176</v>
       </c>
       <c r="AD13" t="n">
-        <v>79.31341200761305</v>
+        <v>135.6777450578755</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.816967356987369</v>
+        <v>5.411527005317279</v>
       </c>
       <c r="AF13" t="n">
-        <v>76.99979569611968</v>
+        <v>76.21726315144865</v>
       </c>
       <c r="AG13" t="n">
-        <v>7990.326901183623</v>
+        <v>7608.566757829382</v>
       </c>
       <c r="AH13" t="n">
-        <v>150061.463730064</v>
+        <v>150348.5302979825</v>
       </c>
       <c r="AI13" t="n">
-        <v>150076.1826886885</v>
+        <v>150134.6086771999</v>
       </c>
       <c r="AJ13" t="n">
-        <v>398.6965259367187</v>
+        <v>1336.313817573414</v>
       </c>
       <c r="AK13" t="n">
-        <v>106.9109482651543</v>
+        <v>336.3283433595865</v>
       </c>
       <c r="AL13" t="n">
-        <v>-153.5801815200925</v>
+        <v>329.9708005620618</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.6763611076623652</v>
+        <v>-3.876325883179144</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.9268720957829</v>
+        <v>-27.34836513607133</v>
       </c>
       <c r="AO13" t="n">
-        <v>1636.294210379127</v>
+        <v>716.1494521307479</v>
       </c>
     </row>
   </sheetData>

--- a/run_merged.xlsx
+++ b/run_merged.xlsx
@@ -5885,17 +5885,17 @@
       </c>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>pool_pnl_btc</t>
+          <t>pool_open_pnl_btc</t>
         </is>
       </c>
       <c r="AK1" t="inlineStr">
         <is>
-          <t>pool_pnl_eth</t>
+          <t>pool_open_pnl_eth</t>
         </is>
       </c>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>pool_pnl_sol</t>
+          <t>pool_open_pnl_sol</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
@@ -5920,28 +5920,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>100</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="H3" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="I3" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -6007,19 +6007,19 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AG3" t="n">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="AH3" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="AI3" t="n">
-        <v>150000</v>
+        <v>30000</v>
       </c>
       <c r="AJ3" t="n">
         <v>0</v>
@@ -6045,28 +6045,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>100.1311031549707</v>
+        <v>100</v>
       </c>
       <c r="E4" t="n">
-        <v>4.774365335751956</v>
+        <v>0.9868655866026561</v>
       </c>
       <c r="F4" t="n">
-        <v>74.15477082793311</v>
+        <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>7545.09015577824</v>
+        <v>1500</v>
       </c>
       <c r="H4" t="n">
-        <v>152042.7961906446</v>
+        <v>30000</v>
       </c>
       <c r="I4" t="n">
-        <v>156926.9522805467</v>
+        <v>30514.38803374478</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -6078,91 +6078,91 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.600963078257559</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O4" t="n">
-        <v>123.471195063976</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>3.022480634487379</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.136184772035691</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>4680.368782951424</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>5.091125216180465</v>
+        <v>0.01908094073799865</v>
       </c>
       <c r="T4" t="n">
-        <v>9.208326886425391</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U4" t="n">
-        <v>5249.749146647005</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.03145840517031585</v>
+        <v>0.005108512528815376</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.02587127820296721</v>
+        <v>0.0004036815296313987</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.2261497971041629</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.06171478503464616</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.02568335713765304</v>
+        <v>0.005240377076574677</v>
       </c>
       <c r="AE4" t="n">
-        <v>5.032611587134905</v>
+        <v>1.005150552470514</v>
       </c>
       <c r="AF4" t="n">
-        <v>75.02608222436835</v>
+        <v>15.00040367924821</v>
       </c>
       <c r="AG4" t="n">
-        <v>7500.225207034629</v>
+        <v>1500</v>
       </c>
       <c r="AH4" t="n">
-        <v>150000.0611343715</v>
+        <v>30000</v>
       </c>
       <c r="AI4" t="n">
-        <v>150000.0248897721</v>
+        <v>30000.00517854012</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10.38446040172701</v>
+        <v>0.002277540482484546</v>
       </c>
       <c r="AK4" t="n">
-        <v>8.8461610185166</v>
+        <v>2.552981005966018</v>
       </c>
       <c r="AL4" t="n">
-        <v>-76.19180843507667</v>
+        <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>-1.42151755622982</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="AN4" t="n">
-        <v>-4.136184772035691</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO4" t="n">
-        <v>-4556.897587887448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6170,28 +6170,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>100.61164823309</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E5" t="n">
-        <v>4.745735034203812</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F5" t="n">
-        <v>75.61333748132741</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G5" t="n">
-        <v>7647.194046391945</v>
+        <v>1500</v>
       </c>
       <c r="H5" t="n">
-        <v>152502.8743932671</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I5" t="n">
-        <v>156485.6769439238</v>
+        <v>30943.96536384695</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -6203,91 +6203,91 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.640111929619642</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N5" t="n">
-        <v>5.045995090535761</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O5" t="n">
-        <v>838.8967478983869</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3.084751612351878</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.136184772035691</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4691.66862754944</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S5" t="n">
-        <v>5.352707217566018</v>
+        <v>0.01908094073799865</v>
       </c>
       <c r="T5" t="n">
-        <v>25.54058291128128</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U5" t="n">
-        <v>6211.744967856782</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="V5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.0473139214338172</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.08311252127097275</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.845353809167416</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.09315150698304675</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.3163069119942412</v>
+        <v>0.01034622783602919</v>
       </c>
       <c r="AE5" t="n">
-        <v>5.049152261339883</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF5" t="n">
-        <v>75.08305725185259</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG5" t="n">
-        <v>7506.778389773957</v>
+        <v>1500</v>
       </c>
       <c r="AH5" t="n">
-        <v>150000.0922099481</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI5" t="n">
-        <v>150000.314012576</v>
+        <v>30000.01017536064</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60.43018514766881</v>
+        <v>0.06794207789718476</v>
       </c>
       <c r="AK5" t="n">
-        <v>20.29330266760343</v>
+        <v>2.774303208760299</v>
       </c>
       <c r="AL5" t="n">
-        <v>98.24585100894521</v>
+        <v>-3.988713784559223</v>
       </c>
       <c r="AM5" t="n">
-        <v>-1.444639682732236</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.9098103185000694</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO5" t="n">
-        <v>-3852.771879651054</v>
+        <v>-56.16681352473402</v>
       </c>
     </row>
     <row r="6">
@@ -6295,124 +6295,124 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>100.9798570597164</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E6" t="n">
-        <v>4.773732634499806</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F6" t="n">
-        <v>77.50703367444878</v>
+        <v>15.00164160912757</v>
       </c>
       <c r="G6" t="n">
-        <v>7634.859039236122</v>
+        <v>1440.691820497846</v>
       </c>
       <c r="H6" t="n">
-        <v>148288.0383102474</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I6" t="n">
-        <v>160451.9367379796</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J6" t="n">
-        <v>-148.1867469937656</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-127.57546476762</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.457973487225351</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N6" t="n">
-        <v>17.80685632271151</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="O6" t="n">
-        <v>1552.685539006092</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>3.109535614373474</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.95841004887129</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4949.483187809779</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S6" t="n">
-        <v>7.455744344166127</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T6" t="n">
-        <v>94.54089546975173</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="U6" t="n">
-        <v>7513.038450524545</v>
+        <v>115.4800930070805</v>
       </c>
       <c r="V6" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.09573323378876</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.1491470535029136</v>
+        <v>0.0004447217578205645</v>
       </c>
       <c r="AB6" t="n">
-        <v>19.05300263699884</v>
+        <v>0.005099980192310499</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.1338637435048083</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.9539373697533963</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE6" t="n">
-        <v>5.099793963713434</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF6" t="n">
-        <v>75.14787130298693</v>
+        <v>15.0004447194764</v>
       </c>
       <c r="AG6" t="n">
-        <v>7518.852074380977</v>
+        <v>1500.005246940086</v>
       </c>
       <c r="AH6" t="n">
-        <v>150000.1332512193</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI6" t="n">
-        <v>150000.9492905512</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ6" t="n">
-        <v>853.8923995428477</v>
+        <v>7.324543500394178</v>
       </c>
       <c r="AK6" t="n">
-        <v>125.6474282655006</v>
+        <v>24.14181996175169</v>
       </c>
       <c r="AL6" t="n">
-        <v>734.6180030660041</v>
+        <v>1.270593729890753</v>
       </c>
       <c r="AM6" t="n">
-        <v>-1.651562127148123</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN6" t="n">
-        <v>-39.15155372615977</v>
+        <v>3.162923644186215</v>
       </c>
       <c r="AO6" t="n">
-        <v>-3396.797648803687</v>
+        <v>-56.16681352473402</v>
       </c>
     </row>
     <row r="7">
@@ -6420,124 +6420,124 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>101.3110944501207</v>
+        <v>100.0141656496659</v>
       </c>
       <c r="E7" t="n">
-        <v>4.917533179190073</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F7" t="n">
-        <v>75.45682890272131</v>
+        <v>14.1556532939692</v>
       </c>
       <c r="G7" t="n">
-        <v>7583.712983993607</v>
+        <v>1519.30670317655</v>
       </c>
       <c r="H7" t="n">
-        <v>140911.9372886674</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I7" t="n">
-        <v>172110.9360210762</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J7" t="n">
-        <v>-148.1867469937656</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>-127.57546476762</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.564336286388154</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N7" t="n">
-        <v>20.57825734089305</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O7" t="n">
-        <v>2211.686492712681</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P7" t="n">
-        <v>3.190760250597694</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q7" t="n">
-        <v>56.95841004887129</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>4985.417410977501</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S7" t="n">
-        <v>7.965797810253977</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T7" t="n">
-        <v>101.7444949563986</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U7" t="n">
-        <v>8350.379705728617</v>
+        <v>284.0419179745861</v>
       </c>
       <c r="V7" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="W7" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.1220947201357904</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2179735184582232</v>
+        <v>0.0161263896098296</v>
       </c>
       <c r="AB7" t="n">
-        <v>29.32278882716108</v>
+        <v>0.09990313982808534</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.1743810269216393</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.65019216793175</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE7" t="n">
-        <v>5.126900359403179</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF7" t="n">
-        <v>75.21655592897622</v>
+        <v>15.01677749773196</v>
       </c>
       <c r="AG7" t="n">
-        <v>7529.067177676104</v>
+        <v>1500.099205554689</v>
       </c>
       <c r="AH7" t="n">
-        <v>150000.175597739</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI7" t="n">
-        <v>150001.641397857</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1132.62014723939</v>
+        <v>11.99741497596777</v>
       </c>
       <c r="AK7" t="n">
-        <v>485.5278444680193</v>
+        <v>40.52441133764631</v>
       </c>
       <c r="AL7" t="n">
-        <v>1312.342028112476</v>
+        <v>18.23435964712217</v>
       </c>
       <c r="AM7" t="n">
-        <v>-1.62642396420954</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN7" t="n">
-        <v>-36.38015270797823</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO7" t="n">
-        <v>-2773.73091826482</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="8">
@@ -6545,124 +6545,124 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>101.6837558523039</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E8" t="n">
-        <v>4.603099055207601</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F8" t="n">
-        <v>81.15699964082332</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G8" t="n">
-        <v>7676.031037956992</v>
+        <v>1523.925621748481</v>
       </c>
       <c r="H8" t="n">
-        <v>138424.3067151364</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I8" t="n">
-        <v>174492.1199610041</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J8" t="n">
-        <v>-290.1491274539597</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.56972328693077</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N8" t="n">
-        <v>14.88983846379447</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O8" t="n">
-        <v>2361.378920044001</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P8" t="n">
-        <v>3.190760250597694</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q8" t="n">
-        <v>56.96195852663377</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5052.502970111347</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S8" t="n">
-        <v>8.359065781174404</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T8" t="n">
-        <v>126.3043679376245</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U8" t="n">
-        <v>9072.454473280082</v>
+        <v>284.0419179745861</v>
       </c>
       <c r="V8" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.1526296150817016</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.6035324782760899</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB8" t="n">
-        <v>31.25977760423014</v>
+        <v>0.1693724732280507</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.5031753493689888</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.698519038770817</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.159971034043966</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.58365253906831</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG8" t="n">
-        <v>7530.97844037607</v>
+        <v>1500.168674888089</v>
       </c>
       <c r="AH8" t="n">
-        <v>150000.523639535</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI8" t="n">
-        <v>150003.5585138048</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ8" t="n">
-        <v>719.4716736748323</v>
+        <v>6.445289936336669</v>
       </c>
       <c r="AK8" t="n">
-        <v>174.878623278951</v>
+        <v>49.60860706447098</v>
       </c>
       <c r="AL8" t="n">
-        <v>1182.160249182032</v>
+        <v>19.78454434670416</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1.621036963666923</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN8" t="n">
-        <v>-42.0721200628393</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO8" t="n">
-        <v>-2691.124050067347</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="9">
@@ -6670,124 +6670,124 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>106.5453165403014</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E9" t="n">
-        <v>4.956925913422555</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F9" t="n">
-        <v>82.38823206789245</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G9" t="n">
-        <v>8804.148820362749</v>
+        <v>1523.982501940821</v>
       </c>
       <c r="H9" t="n">
-        <v>135339.372623261</v>
+        <v>29570.43287472074</v>
       </c>
       <c r="I9" t="n">
-        <v>179492.3474102015</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J9" t="n">
-        <v>-336.801886187409</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.07929441155155</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.643596938652033</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N9" t="n">
-        <v>17.66014272164847</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O9" t="n">
-        <v>2127.655891696956</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P9" t="n">
-        <v>3.301831682149591</v>
+        <v>0.06546581691842826</v>
       </c>
       <c r="Q9" t="n">
-        <v>57.75830179239154</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>5297.618263581924</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S9" t="n">
-        <v>8.891714791090093</v>
+        <v>0.08454675765642691</v>
       </c>
       <c r="T9" t="n">
-        <v>144.0452906049836</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U9" t="n">
-        <v>10446.22112452545</v>
+        <v>360.9982581087459</v>
       </c>
       <c r="V9" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="W9" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="X9" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.1965872497008857</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.7772161517584119</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB9" t="n">
-        <v>65.08047202211489</v>
+        <v>0.1799160726009524</v>
       </c>
       <c r="AC9" t="n">
-        <v>22.02749345788912</v>
+        <v>0.005098972145525981</v>
       </c>
       <c r="AD9" t="n">
-        <v>131.4748879400646</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE9" t="n">
-        <v>5.205390890407387</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF9" t="n">
-        <v>75.74889785390651</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG9" t="n">
-        <v>7563.485608182114</v>
+        <v>1500.179102326896</v>
       </c>
       <c r="AH9" t="n">
-        <v>150022.0807391484</v>
+        <v>30000.00515082259</v>
       </c>
       <c r="AI9" t="n">
-        <v>150130.6152704977</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ9" t="n">
-        <v>592.416881068885</v>
+        <v>3.783365855773332</v>
       </c>
       <c r="AK9" t="n">
-        <v>145.9067002325339</v>
+        <v>41.37576077397031</v>
       </c>
       <c r="AL9" t="n">
-        <v>895.6239549194696</v>
+        <v>7.761669461629675</v>
       </c>
       <c r="AM9" t="n">
-        <v>-1.658234743497558</v>
+        <v>-0.0646193373105097</v>
       </c>
       <c r="AN9" t="n">
-        <v>-40.09815907074307</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO9" t="n">
-        <v>-3169.96237188497</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="10">
@@ -6795,124 +6795,124 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>107.1951166406952</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E10" t="n">
-        <v>5.071517610044857</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F10" t="n">
-        <v>87.47920340617635</v>
+        <v>14.2401604779001</v>
       </c>
       <c r="G10" t="n">
-        <v>8882.111190578802</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H10" t="n">
-        <v>130816.9607274339</v>
+        <v>29347.12899362927</v>
       </c>
       <c r="I10" t="n">
-        <v>175883.7077259324</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J10" t="n">
-        <v>-347.2510634674647</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.635854125226</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>-137.7300919108943</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.653352308389339</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N10" t="n">
-        <v>21.56459463617691</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O10" t="n">
-        <v>2133.852426079755</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P10" t="n">
-        <v>3.311042412349094</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.82440244553927</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>5297.618263581924</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S10" t="n">
-        <v>9.425866784524796</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T10" t="n">
-        <v>156.0969864363324</v>
+        <v>4.686045662425479</v>
       </c>
       <c r="U10" t="n">
-        <v>10610.54160470012</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V10" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="W10" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="X10" t="n">
-        <v>135</v>
+        <v>6</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.245981166139772</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.9279642887717208</v>
+        <v>0.01823906920810199</v>
       </c>
       <c r="AB10" t="n">
-        <v>67.664370392137</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC10" t="n">
-        <v>50.23444173410721</v>
+        <v>0.01027682348322337</v>
       </c>
       <c r="AD10" t="n">
-        <v>131.494751569002</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE10" t="n">
-        <v>5.255943885974109</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF10" t="n">
-        <v>75.88737777746678</v>
+        <v>15.01889017733023</v>
       </c>
       <c r="AG10" t="n">
-        <v>7565.801294964596</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH10" t="n">
-        <v>150050.2925712041</v>
+        <v>30000.0104093061</v>
       </c>
       <c r="AI10" t="n">
-        <v>150130.6330982089</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ10" t="n">
-        <v>886.1093069131379</v>
+        <v>2.396395530032418</v>
       </c>
       <c r="AK10" t="n">
-        <v>657.5394738406615</v>
+        <v>69.42176720978748</v>
       </c>
       <c r="AL10" t="n">
-        <v>822.5517670103823</v>
+        <v>15.10559892929553</v>
       </c>
       <c r="AM10" t="n">
-        <v>-1.657690103959755</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN10" t="n">
-        <v>-36.25980780936236</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO10" t="n">
-        <v>-3163.76583750217</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="11">
@@ -6920,124 +6920,124 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>108.7581813700226</v>
+        <v>100.1870043424665</v>
       </c>
       <c r="E11" t="n">
-        <v>5.098190128618961</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F11" t="n">
-        <v>88.87622003371396</v>
+        <v>14.03600436849887</v>
       </c>
       <c r="G11" t="n">
-        <v>9345.736021560966</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H11" t="n">
-        <v>133143.6091148894</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I11" t="n">
-        <v>173146.513024302</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J11" t="n">
-        <v>-453.1021534668865</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>163.4977670923801</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-204.2089262510808</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9648950681047247</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N11" t="n">
-        <v>22.00767996362464</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O11" t="n">
-        <v>2168.04031784872</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P11" t="n">
-        <v>3.430363025835736</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q11" t="n">
-        <v>57.82440244553927</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4679.684026913143</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S11" t="n">
-        <v>10.40357209685558</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T11" t="n">
-        <v>157.2932424188009</v>
+        <v>4.895304970434609</v>
       </c>
       <c r="U11" t="n">
-        <v>13613.69838657148</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V11" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="W11" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="X11" t="n">
-        <v>152</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.3181589665088905</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.9555320270876329</v>
+        <v>0.02334226781600324</v>
       </c>
       <c r="AB11" t="n">
-        <v>101.6958472659312</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC11" t="n">
-        <v>110.0519407887028</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD11" t="n">
-        <v>131.6319900650123</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.330226487064233</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF11" t="n">
-        <v>75.91292643163347</v>
+        <v>15.02423832840262</v>
       </c>
       <c r="AG11" t="n">
-        <v>7596.417011115237</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH11" t="n">
-        <v>150115.4439990958</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI11" t="n">
-        <v>150130.7654624257</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1033.319421622687</v>
+        <v>7.257651995819164</v>
       </c>
       <c r="AK11" t="n">
-        <v>440.5315073378797</v>
+        <v>72.96230488309065</v>
       </c>
       <c r="AL11" t="n">
-        <v>939.046064785244</v>
+        <v>14.99668951414447</v>
       </c>
       <c r="AM11" t="n">
-        <v>-2.465467957731012</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN11" t="n">
-        <v>-35.81672248191463</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO11" t="n">
-        <v>-2511.643709064424</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="12">
@@ -7045,124 +7045,124 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>109.1342114905554</v>
+        <v>100.2210062787335</v>
       </c>
       <c r="E12" t="n">
-        <v>5.176615303981092</v>
+        <v>0.9874995631741154</v>
       </c>
       <c r="F12" t="n">
-        <v>91.11170356818458</v>
+        <v>14.06244710223352</v>
       </c>
       <c r="G12" t="n">
-        <v>9103.165830461832</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H12" t="n">
-        <v>135710.6470349164</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I12" t="n">
-        <v>172364.159464509</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J12" t="n">
-        <v>-566.7428225865381</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>154.1693038294664</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-204.2089262510808</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5528926238621457</v>
+        <v>0.0008464796079185659</v>
       </c>
       <c r="N12" t="n">
-        <v>21.71896965302037</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="O12" t="n">
-        <v>2606.199751414691</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P12" t="n">
-        <v>4.547551650525914</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.14161722067352</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>5334.459630067157</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S12" t="n">
-        <v>12.43794073661344</v>
+        <v>0.1334807804953928</v>
       </c>
       <c r="T12" t="n">
-        <v>176.8155256781495</v>
+        <v>4.895304970434609</v>
       </c>
       <c r="U12" t="n">
-        <v>15345.65827494581</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V12" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="W12" t="n">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>166</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.3562290602287929</v>
+        <v>0.005124361943101859</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.235324461498784</v>
+        <v>0.02400333615936955</v>
       </c>
       <c r="AB12" t="n">
-        <v>115.3641434945949</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC12" t="n">
-        <v>110.0916919629839</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD12" t="n">
-        <v>132.2090520187656</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE12" t="n">
-        <v>5.369222182951314</v>
+        <v>1.005166401884801</v>
       </c>
       <c r="AF12" t="n">
-        <v>76.16048589064285</v>
+        <v>15.02489939674599</v>
       </c>
       <c r="AG12" t="n">
-        <v>7608.510099016507</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH12" t="n">
-        <v>150115.4867038061</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI12" t="n">
-        <v>150131.3178167776</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ12" t="n">
-        <v>880.4559925680576</v>
+        <v>12.0045425158113</v>
       </c>
       <c r="AK12" t="n">
-        <v>115.311990409489</v>
+        <v>51.4278928031248</v>
       </c>
       <c r="AL12" t="n">
-        <v>568.2983967719695</v>
+        <v>16.64376130115787</v>
       </c>
       <c r="AM12" t="n">
-        <v>-3.99465902666377</v>
+        <v>-0.1135533601494756</v>
       </c>
       <c r="AN12" t="n">
-        <v>-35.42264756765315</v>
+        <v>3.834875111146984</v>
       </c>
       <c r="AO12" t="n">
-        <v>-2728.259878652469</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
     <row r="13">
@@ -7170,124 +7170,124 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>109.7003203911764</v>
+        <v>100.2210062787335</v>
       </c>
       <c r="E13" t="n">
-        <v>5.282114417098753</v>
+        <v>0.9875112816296717</v>
       </c>
       <c r="F13" t="n">
-        <v>93.09138778538333</v>
+        <v>14.06244710223352</v>
       </c>
       <c r="G13" t="n">
-        <v>9039.333945140677</v>
+        <v>1534.77718320826</v>
       </c>
       <c r="H13" t="n">
-        <v>131559.7446790495</v>
+        <v>29745.65383217112</v>
       </c>
       <c r="I13" t="n">
-        <v>176143.6193898306</v>
+        <v>32179.22526666815</v>
       </c>
       <c r="J13" t="n">
-        <v>-145.7781223326163</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="K13" t="n">
-        <v>418.9092970449603</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="L13" t="n">
-        <v>-204.2089262510808</v>
+        <v>-0.3261637215973484</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6551359199195305</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>30.04522650121256</v>
+        <v>5.488697610427739</v>
       </c>
       <c r="O13" t="n">
-        <v>2606.604091938812</v>
+        <v>89.95219606185131</v>
       </c>
       <c r="P13" t="n">
-        <v>4.531461803098673</v>
+        <v>0.1143998397573941</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.3935916372839</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1890.454639808062</v>
+        <v>56.16681352473402</v>
       </c>
       <c r="S13" t="n">
-        <v>12.59687417317053</v>
+        <v>0.1343272601033113</v>
       </c>
       <c r="T13" t="n">
-        <v>186.4846262220847</v>
+        <v>6.549127469715363</v>
       </c>
       <c r="U13" t="n">
-        <v>18988.74818596078</v>
+        <v>371.7878392718587</v>
       </c>
       <c r="V13" t="n">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="W13" t="n">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="X13" t="n">
-        <v>185</v>
+        <v>7</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.3978849834730046</v>
+        <v>0.005137457452901795</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.29775771776444</v>
+        <v>0.05690188194976385</v>
       </c>
       <c r="AB13" t="n">
-        <v>115.4278622929554</v>
+        <v>0.1850161769273297</v>
       </c>
       <c r="AC13" t="n">
-        <v>321.9929019215176</v>
+        <v>0.01540105419617925</v>
       </c>
       <c r="AD13" t="n">
-        <v>135.6777450578755</v>
+        <v>0.01577919499081711</v>
       </c>
       <c r="AE13" t="n">
-        <v>5.411527005317279</v>
+        <v>1.005179613288244</v>
       </c>
       <c r="AF13" t="n">
-        <v>76.21726315144865</v>
+        <v>15.05931713778705</v>
       </c>
       <c r="AG13" t="n">
-        <v>7608.566757829382</v>
+        <v>1500.184121531827</v>
       </c>
       <c r="AH13" t="n">
-        <v>150348.5302979825</v>
+        <v>30000.01556420766</v>
       </c>
       <c r="AI13" t="n">
-        <v>150134.6086771999</v>
+        <v>30000.01535077754</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1336.313817573414</v>
+        <v>5.358351238001876</v>
       </c>
       <c r="AK13" t="n">
-        <v>336.3283433595865</v>
+        <v>59.714003842259</v>
       </c>
       <c r="AL13" t="n">
-        <v>329.9708005620618</v>
+        <v>9.284961481968686</v>
       </c>
       <c r="AM13" t="n">
-        <v>-3.876325883179144</v>
+        <v>-0.1143998397573941</v>
       </c>
       <c r="AN13" t="n">
-        <v>-27.34836513607133</v>
+        <v>5.488697610427739</v>
       </c>
       <c r="AO13" t="n">
-        <v>716.1494521307479</v>
+        <v>33.78538253711729</v>
       </c>
     </row>
   </sheetData>
